--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/553108eeb9382e97/Documents/1-Estudos/2-DNC/1-Data Science/2-Desafios/Desafio02/Structuring_Company-s_stock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="11_F420B32E487569F1B7B6394F1C56B10202309DC8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51D5B625-0758-43AF-8EF8-44346C34103C}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="11_F420B32E487569F1B7B6394F1C56B10202309DC8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11CCEB4D-D123-4D17-9642-96200995663F}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Entrada" sheetId="1" r:id="rId1"/>
-    <sheet name="Saida" sheetId="2" r:id="rId2"/>
-    <sheet name="Cadastro" sheetId="3" r:id="rId3"/>
-    <sheet name="Resumo Estoque" sheetId="4" r:id="rId4"/>
+    <sheet name="In" sheetId="1" r:id="rId1"/>
+    <sheet name="Out" sheetId="2" r:id="rId2"/>
+    <sheet name="Register" sheetId="3" r:id="rId3"/>
+    <sheet name="Stock Summary" sheetId="4" r:id="rId4"/>
+    <sheet name="Product status" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Entrada!$A$1:$D$1000</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Saida!$A$1:$D$501</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">In!$A$1:$D$1000</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Out!$A$1:$D$501</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2740" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="194">
   <si>
     <t>Data</t>
   </si>
@@ -564,16 +587,64 @@
     <t>Controle sem fio compatível com PC e console</t>
   </si>
   <si>
-    <t>Soma Total Entrata</t>
+    <t>Product status</t>
   </si>
   <si>
-    <t>Soma Total Saida</t>
+    <t>Status</t>
   </si>
   <si>
-    <t>Saldo Total Atual</t>
+    <t>OK</t>
   </si>
   <si>
-    <t>Valor em estoque (R$)</t>
+    <t xml:space="preserve">Obsolete	</t>
+  </si>
+  <si>
+    <t>Classification by stock status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative Stock	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critical	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excess	</t>
+  </si>
+  <si>
+    <t>stock 0</t>
+  </si>
+  <si>
+    <t>balance &lt; 0</t>
+  </si>
+  <si>
+    <t>balance between 1 and 20</t>
+  </si>
+  <si>
+    <t>balance between 21 and 100</t>
+  </si>
+  <si>
+    <t>balance above 100</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Total In</t>
+  </si>
+  <si>
+    <t>Total Out</t>
+  </si>
+  <si>
+    <t>Current Balance</t>
+  </si>
+  <si>
+    <t>StockValue(R$)</t>
   </si>
 </sst>
 </file>
@@ -583,11 +654,18 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -623,8 +701,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -643,8 +736,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor theme="7" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -667,40 +778,126 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -718,6 +915,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -924,7 +1125,7 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1028" sqref="D1028"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20957,10 +21158,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G121"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20968,36 +21169,40 @@
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="16" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="16" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>78</v>
       </c>
@@ -21007,15 +21212,15 @@
       <c r="C2" s="8">
         <v>976.36</v>
       </c>
-      <c r="D2" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A2,Entrada!$D$1)</f>
+      <c r="D2" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A2,In!$D$1)</f>
         <v>233</v>
       </c>
-      <c r="E2" s="13">
-        <f>SUMIF(Saida!$B:$B,$A2,Saida!$D:$D)</f>
+      <c r="E2" s="11">
+        <f>SUMIF(Out!$B:$B,$A2,Out!$D:$D)</f>
         <v>227</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="12">
         <f ca="1">D2-E2</f>
         <v>6</v>
       </c>
@@ -21023,8 +21228,12 @@
         <f ca="1">$F2*C2</f>
         <v>5858.16</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H2" ca="1">_xlfn.IFS($F2=0,'Product status'!$A$3,$F2&lt;0,'Product status'!$A$4,AND($F2&gt;=1,$F2&lt;=20),'Product status'!$A$5,AND($F2&gt;=21,$F2&lt;=100),'Product status'!$A$6,$F2&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Critical	</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>60</v>
       </c>
@@ -21034,15 +21243,15 @@
       <c r="C3" s="8">
         <v>652.16999999999996</v>
       </c>
-      <c r="D3" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A3,Entrada!$D$1)</f>
+      <c r="D3" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A3,In!$D$1)</f>
         <v>347</v>
       </c>
-      <c r="E3" s="13">
-        <f>SUMIF(Saida!$B:$B,$A3,Saida!$D:$D)</f>
+      <c r="E3" s="11">
+        <f>SUMIF(Out!$B:$B,$A3,Out!$D:$D)</f>
         <v>89</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="12">
         <f t="shared" ref="F3:F66" ca="1" si="0">D3-E3</f>
         <v>258</v>
       </c>
@@ -21050,8 +21259,12 @@
         <f t="shared" ref="G3:G66" ca="1" si="1">$F3*C3</f>
         <v>168259.86</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H3" ca="1">_xlfn.IFS($F3=0,'Product status'!$A$3,$F3&lt;0,'Product status'!$A$4,AND($F3&gt;=1,$F3&lt;=20),'Product status'!$A$5,AND($F3&gt;=21,$F3&lt;=100),'Product status'!$A$6,$F3&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -21061,15 +21274,15 @@
       <c r="C4" s="8">
         <v>523.33000000000004</v>
       </c>
-      <c r="D4" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A4,Entrada!$D$1)</f>
+      <c r="D4" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A4,In!$D$1)</f>
         <v>291</v>
       </c>
-      <c r="E4" s="13">
-        <f>SUMIF(Saida!$B:$B,$A4,Saida!$D:$D)</f>
+      <c r="E4" s="11">
+        <f>SUMIF(Out!$B:$B,$A4,Out!$D:$D)</f>
         <v>198</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>93</v>
       </c>
@@ -21077,8 +21290,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>48669.69</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H4" ca="1">_xlfn.IFS($F4=0,'Product status'!$A$3,$F4&lt;0,'Product status'!$A$4,AND($F4&gt;=1,$F4&lt;=20),'Product status'!$A$5,AND($F4&gt;=21,$F4&lt;=100),'Product status'!$A$6,$F4&gt;100,'Product status'!$A$7)</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -21088,15 +21305,15 @@
       <c r="C5" s="8">
         <v>101.03</v>
       </c>
-      <c r="D5" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A5,Entrada!$D$1)</f>
+      <c r="D5" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A5,In!$D$1)</f>
         <v>266</v>
       </c>
-      <c r="E5" s="13">
-        <f>SUMIF(Saida!$B:$B,$A5,Saida!$D:$D)</f>
+      <c r="E5" s="11">
+        <f>SUMIF(Out!$B:$B,$A5,Out!$D:$D)</f>
         <v>180</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>86</v>
       </c>
@@ -21104,8 +21321,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>8688.58</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H5" ca="1">_xlfn.IFS($F5=0,'Product status'!$A$3,$F5&lt;0,'Product status'!$A$4,AND($F5&gt;=1,$F5&lt;=20),'Product status'!$A$5,AND($F5&gt;=21,$F5&lt;=100),'Product status'!$A$6,$F5&gt;100,'Product status'!$A$7)</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>89</v>
       </c>
@@ -21115,15 +21336,15 @@
       <c r="C6" s="8">
         <v>389.93</v>
       </c>
-      <c r="D6" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A6,Entrada!$D$1)</f>
+      <c r="D6" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A6,In!$D$1)</f>
         <v>238</v>
       </c>
-      <c r="E6" s="13">
-        <f>SUMIF(Saida!$B:$B,$A6,Saida!$D:$D)</f>
+      <c r="E6" s="11">
+        <f>SUMIF(Out!$B:$B,$A6,Out!$D:$D)</f>
         <v>29</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>209</v>
       </c>
@@ -21131,8 +21352,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>81495.37</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H6" ca="1">_xlfn.IFS($F6=0,'Product status'!$A$3,$F6&lt;0,'Product status'!$A$4,AND($F6&gt;=1,$F6&lt;=20),'Product status'!$A$5,AND($F6&gt;=21,$F6&lt;=100),'Product status'!$A$6,$F6&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -21142,15 +21367,15 @@
       <c r="C7" s="8">
         <v>238.68</v>
       </c>
-      <c r="D7" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A7,Entrada!$D$1)</f>
+      <c r="D7" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A7,In!$D$1)</f>
         <v>317</v>
       </c>
-      <c r="E7" s="13">
-        <f>SUMIF(Saida!$B:$B,$A7,Saida!$D:$D)</f>
+      <c r="E7" s="11">
+        <f>SUMIF(Out!$B:$B,$A7,Out!$D:$D)</f>
         <v>55</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>262</v>
       </c>
@@ -21158,8 +21383,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>62534.16</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H7" ca="1">_xlfn.IFS($F7=0,'Product status'!$A$3,$F7&lt;0,'Product status'!$A$4,AND($F7&gt;=1,$F7&lt;=20),'Product status'!$A$5,AND($F7&gt;=21,$F7&lt;=100),'Product status'!$A$6,$F7&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>65</v>
       </c>
@@ -21169,15 +21398,15 @@
       <c r="C8" s="8">
         <v>395.54</v>
       </c>
-      <c r="D8" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A8,Entrada!$D$1)</f>
+      <c r="D8" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A8,In!$D$1)</f>
         <v>262</v>
       </c>
-      <c r="E8" s="13">
-        <f>SUMIF(Saida!$B:$B,$A8,Saida!$D:$D)</f>
+      <c r="E8" s="11">
+        <f>SUMIF(Out!$B:$B,$A8,Out!$D:$D)</f>
         <v>161</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>101</v>
       </c>
@@ -21185,8 +21414,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>39949.54</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H8" ca="1">_xlfn.IFS($F8=0,'Product status'!$A$3,$F8&lt;0,'Product status'!$A$4,AND($F8&gt;=1,$F8&lt;=20),'Product status'!$A$5,AND($F8&gt;=21,$F8&lt;=100),'Product status'!$A$6,$F8&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>67</v>
       </c>
@@ -21196,15 +21429,15 @@
       <c r="C9" s="8">
         <v>97.2</v>
       </c>
-      <c r="D9" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A9,Entrada!$D$1)</f>
+      <c r="D9" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A9,In!$D$1)</f>
         <v>380</v>
       </c>
-      <c r="E9" s="13">
-        <f>SUMIF(Saida!$B:$B,$A9,Saida!$D:$D)</f>
+      <c r="E9" s="11">
+        <f>SUMIF(Out!$B:$B,$A9,Out!$D:$D)</f>
         <v>235</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>145</v>
       </c>
@@ -21212,8 +21445,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>14094</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H9" ca="1">_xlfn.IFS($F9=0,'Product status'!$A$3,$F9&lt;0,'Product status'!$A$4,AND($F9&gt;=1,$F9&lt;=20),'Product status'!$A$5,AND($F9&gt;=21,$F9&lt;=100),'Product status'!$A$6,$F9&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>125</v>
       </c>
@@ -21223,15 +21460,15 @@
       <c r="C10" s="8">
         <v>938.68</v>
       </c>
-      <c r="D10" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A10,Entrada!$D$1)</f>
+      <c r="D10" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A10,In!$D$1)</f>
         <v>171</v>
       </c>
-      <c r="E10" s="13">
-        <f>SUMIF(Saida!$B:$B,$A10,Saida!$D:$D)</f>
+      <c r="E10" s="11">
+        <f>SUMIF(Out!$B:$B,$A10,Out!$D:$D)</f>
         <v>88</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>83</v>
       </c>
@@ -21239,8 +21476,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>77910.44</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H10" ca="1">_xlfn.IFS($F10=0,'Product status'!$A$3,$F10&lt;0,'Product status'!$A$4,AND($F10&gt;=1,$F10&lt;=20),'Product status'!$A$5,AND($F10&gt;=21,$F10&lt;=100),'Product status'!$A$6,$F10&gt;100,'Product status'!$A$7)</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>47</v>
       </c>
@@ -21250,15 +21491,15 @@
       <c r="C11" s="8">
         <v>536.84</v>
       </c>
-      <c r="D11" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A11,Entrada!$D$1)</f>
+      <c r="D11" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A11,In!$D$1)</f>
         <v>376</v>
       </c>
-      <c r="E11" s="13">
-        <f>SUMIF(Saida!$B:$B,$A11,Saida!$D:$D)</f>
+      <c r="E11" s="11">
+        <f>SUMIF(Out!$B:$B,$A11,Out!$D:$D)</f>
         <v>57</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>319</v>
       </c>
@@ -21266,8 +21507,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>171251.96000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H11" ca="1">_xlfn.IFS($F11=0,'Product status'!$A$3,$F11&lt;0,'Product status'!$A$4,AND($F11&gt;=1,$F11&lt;=20),'Product status'!$A$5,AND($F11&gt;=21,$F11&lt;=100),'Product status'!$A$6,$F11&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>63</v>
       </c>
@@ -21277,15 +21522,15 @@
       <c r="C12" s="8">
         <v>482.7</v>
       </c>
-      <c r="D12" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A12,Entrada!$D$1)</f>
+      <c r="D12" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A12,In!$D$1)</f>
         <v>657</v>
       </c>
-      <c r="E12" s="13">
-        <f>SUMIF(Saida!$B:$B,$A12,Saida!$D:$D)</f>
+      <c r="E12" s="11">
+        <f>SUMIF(Out!$B:$B,$A12,Out!$D:$D)</f>
         <v>338</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>319</v>
       </c>
@@ -21293,8 +21538,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>153981.29999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H12" ca="1">_xlfn.IFS($F12=0,'Product status'!$A$3,$F12&lt;0,'Product status'!$A$4,AND($F12&gt;=1,$F12&lt;=20),'Product status'!$A$5,AND($F12&gt;=21,$F12&lt;=100),'Product status'!$A$6,$F12&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>34</v>
       </c>
@@ -21304,15 +21553,15 @@
       <c r="C13" s="8">
         <v>756.15</v>
       </c>
-      <c r="D13" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A13,Entrada!$D$1)</f>
+      <c r="D13" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A13,In!$D$1)</f>
         <v>277</v>
       </c>
-      <c r="E13" s="13">
-        <f>SUMIF(Saida!$B:$B,$A13,Saida!$D:$D)</f>
+      <c r="E13" s="11">
+        <f>SUMIF(Out!$B:$B,$A13,Out!$D:$D)</f>
         <v>241</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
@@ -21320,8 +21569,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>27221.399999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H13" ca="1">_xlfn.IFS($F13=0,'Product status'!$A$3,$F13&lt;0,'Product status'!$A$4,AND($F13&gt;=1,$F13&lt;=20),'Product status'!$A$5,AND($F13&gt;=21,$F13&lt;=100),'Product status'!$A$6,$F13&gt;100,'Product status'!$A$7)</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>129</v>
       </c>
@@ -21331,15 +21584,15 @@
       <c r="C14" s="8">
         <v>966.44</v>
       </c>
-      <c r="D14" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A14,Entrada!$D$1)</f>
+      <c r="D14" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A14,In!$D$1)</f>
         <v>222</v>
       </c>
-      <c r="E14" s="13">
-        <f>SUMIF(Saida!$B:$B,$A14,Saida!$D:$D)</f>
+      <c r="E14" s="11">
+        <f>SUMIF(Out!$B:$B,$A14,Out!$D:$D)</f>
         <v>261</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>-39</v>
       </c>
@@ -21347,8 +21600,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>-37691.160000000003</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H14" ca="1">_xlfn.IFS($F14=0,'Product status'!$A$3,$F14&lt;0,'Product status'!$A$4,AND($F14&gt;=1,$F14&lt;=20),'Product status'!$A$5,AND($F14&gt;=21,$F14&lt;=100),'Product status'!$A$6,$F14&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Negative Stock	</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>110</v>
       </c>
@@ -21358,15 +21615,15 @@
       <c r="C15" s="8">
         <v>223.56</v>
       </c>
-      <c r="D15" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A15,Entrada!$D$1)</f>
+      <c r="D15" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A15,In!$D$1)</f>
         <v>577</v>
       </c>
-      <c r="E15" s="13">
-        <f>SUMIF(Saida!$B:$B,$A15,Saida!$D:$D)</f>
+      <c r="E15" s="11">
+        <f>SUMIF(Out!$B:$B,$A15,Out!$D:$D)</f>
         <v>189</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>388</v>
       </c>
@@ -21374,8 +21631,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>86741.28</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H15" ca="1">_xlfn.IFS($F15=0,'Product status'!$A$3,$F15&lt;0,'Product status'!$A$4,AND($F15&gt;=1,$F15&lt;=20),'Product status'!$A$5,AND($F15&gt;=21,$F15&lt;=100),'Product status'!$A$6,$F15&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>119</v>
       </c>
@@ -21385,15 +21646,15 @@
       <c r="C16" s="8">
         <v>257.3</v>
       </c>
-      <c r="D16" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A16,Entrada!$D$1)</f>
+      <c r="D16" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A16,In!$D$1)</f>
         <v>284</v>
       </c>
-      <c r="E16" s="13">
-        <f>SUMIF(Saida!$B:$B,$A16,Saida!$D:$D)</f>
+      <c r="E16" s="11">
+        <f>SUMIF(Out!$B:$B,$A16,Out!$D:$D)</f>
         <v>127</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>157</v>
       </c>
@@ -21401,8 +21662,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>40396.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H16" ca="1">_xlfn.IFS($F16=0,'Product status'!$A$3,$F16&lt;0,'Product status'!$A$4,AND($F16&gt;=1,$F16&lt;=20),'Product status'!$A$5,AND($F16&gt;=21,$F16&lt;=100),'Product status'!$A$6,$F16&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>98</v>
       </c>
@@ -21412,15 +21677,15 @@
       <c r="C17" s="8">
         <v>381.51</v>
       </c>
-      <c r="D17" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A17,Entrada!$D$1)</f>
+      <c r="D17" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A17,In!$D$1)</f>
         <v>104</v>
       </c>
-      <c r="E17" s="13">
-        <f>SUMIF(Saida!$B:$B,$A17,Saida!$D:$D)</f>
+      <c r="E17" s="11">
+        <f>SUMIF(Out!$B:$B,$A17,Out!$D:$D)</f>
         <v>57</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>47</v>
       </c>
@@ -21428,8 +21693,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>17930.97</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H17" ca="1">_xlfn.IFS($F17=0,'Product status'!$A$3,$F17&lt;0,'Product status'!$A$4,AND($F17&gt;=1,$F17&lt;=20),'Product status'!$A$5,AND($F17&gt;=21,$F17&lt;=100),'Product status'!$A$6,$F17&gt;100,'Product status'!$A$7)</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>40</v>
       </c>
@@ -21439,15 +21708,15 @@
       <c r="C18" s="8">
         <v>837.9</v>
       </c>
-      <c r="D18" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A18,Entrada!$D$1)</f>
+      <c r="D18" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A18,In!$D$1)</f>
         <v>336</v>
       </c>
-      <c r="E18" s="13">
-        <f>SUMIF(Saida!$B:$B,$A18,Saida!$D:$D)</f>
+      <c r="E18" s="11">
+        <f>SUMIF(Out!$B:$B,$A18,Out!$D:$D)</f>
         <v>188</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>148</v>
       </c>
@@ -21455,8 +21724,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>124009.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H18" ca="1">_xlfn.IFS($F18=0,'Product status'!$A$3,$F18&lt;0,'Product status'!$A$4,AND($F18&gt;=1,$F18&lt;=20),'Product status'!$A$5,AND($F18&gt;=21,$F18&lt;=100),'Product status'!$A$6,$F18&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
@@ -21466,15 +21739,15 @@
       <c r="C19" s="8">
         <v>715.01</v>
       </c>
-      <c r="D19" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A19,Entrada!$D$1)</f>
+      <c r="D19" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A19,In!$D$1)</f>
         <v>207</v>
       </c>
-      <c r="E19" s="13">
-        <f>SUMIF(Saida!$B:$B,$A19,Saida!$D:$D)</f>
+      <c r="E19" s="11">
+        <f>SUMIF(Out!$B:$B,$A19,Out!$D:$D)</f>
         <v>217</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>-10</v>
       </c>
@@ -21482,8 +21755,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7150.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H19" ca="1">_xlfn.IFS($F19=0,'Product status'!$A$3,$F19&lt;0,'Product status'!$A$4,AND($F19&gt;=1,$F19&lt;=20),'Product status'!$A$5,AND($F19&gt;=21,$F19&lt;=100),'Product status'!$A$6,$F19&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Negative Stock	</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>73</v>
       </c>
@@ -21493,15 +21770,15 @@
       <c r="C20" s="8">
         <v>393.32</v>
       </c>
-      <c r="D20" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A20,Entrada!$D$1)</f>
+      <c r="D20" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A20,In!$D$1)</f>
         <v>335</v>
       </c>
-      <c r="E20" s="13">
-        <f>SUMIF(Saida!$B:$B,$A20,Saida!$D:$D)</f>
+      <c r="E20" s="11">
+        <f>SUMIF(Out!$B:$B,$A20,Out!$D:$D)</f>
         <v>164</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>171</v>
       </c>
@@ -21509,8 +21786,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>67257.72</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H20" ca="1">_xlfn.IFS($F20=0,'Product status'!$A$3,$F20&lt;0,'Product status'!$A$4,AND($F20&gt;=1,$F20&lt;=20),'Product status'!$A$5,AND($F20&gt;=21,$F20&lt;=100),'Product status'!$A$6,$F20&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>59</v>
       </c>
@@ -21520,15 +21801,15 @@
       <c r="C21" s="8">
         <v>240.69</v>
       </c>
-      <c r="D21" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A21,Entrada!$D$1)</f>
+      <c r="D21" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A21,In!$D$1)</f>
         <v>163</v>
       </c>
-      <c r="E21" s="13">
-        <f>SUMIF(Saida!$B:$B,$A21,Saida!$D:$D)</f>
+      <c r="E21" s="11">
+        <f>SUMIF(Out!$B:$B,$A21,Out!$D:$D)</f>
         <v>337</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>-174</v>
       </c>
@@ -21536,8 +21817,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>-41880.06</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H21" ca="1">_xlfn.IFS($F21=0,'Product status'!$A$3,$F21&lt;0,'Product status'!$A$4,AND($F21&gt;=1,$F21&lt;=20),'Product status'!$A$5,AND($F21&gt;=21,$F21&lt;=100),'Product status'!$A$6,$F21&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Negative Stock	</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>38</v>
       </c>
@@ -21547,15 +21832,15 @@
       <c r="C22" s="8">
         <v>477.8</v>
       </c>
-      <c r="D22" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A22,Entrada!$D$1)</f>
+      <c r="D22" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A22,In!$D$1)</f>
         <v>388</v>
       </c>
-      <c r="E22" s="13">
-        <f>SUMIF(Saida!$B:$B,$A22,Saida!$D:$D)</f>
+      <c r="E22" s="11">
+        <f>SUMIF(Out!$B:$B,$A22,Out!$D:$D)</f>
         <v>81</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>307</v>
       </c>
@@ -21563,8 +21848,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>146684.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H22" ca="1">_xlfn.IFS($F22=0,'Product status'!$A$3,$F22&lt;0,'Product status'!$A$4,AND($F22&gt;=1,$F22&lt;=20),'Product status'!$A$5,AND($F22&gt;=21,$F22&lt;=100),'Product status'!$A$6,$F22&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
@@ -21574,15 +21863,15 @@
       <c r="C23" s="8">
         <v>469.5</v>
       </c>
-      <c r="D23" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A23,Entrada!$D$1)</f>
+      <c r="D23" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A23,In!$D$1)</f>
         <v>572</v>
       </c>
-      <c r="E23" s="13">
-        <f>SUMIF(Saida!$B:$B,$A23,Saida!$D:$D)</f>
+      <c r="E23" s="11">
+        <f>SUMIF(Out!$B:$B,$A23,Out!$D:$D)</f>
         <v>142</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>430</v>
       </c>
@@ -21590,8 +21879,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>201885</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H23" ca="1">_xlfn.IFS($F23=0,'Product status'!$A$3,$F23&lt;0,'Product status'!$A$4,AND($F23&gt;=1,$F23&lt;=20),'Product status'!$A$5,AND($F23&gt;=21,$F23&lt;=100),'Product status'!$A$6,$F23&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>116</v>
       </c>
@@ -21601,15 +21894,15 @@
       <c r="C24" s="8">
         <v>435.65</v>
       </c>
-      <c r="D24" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A24,Entrada!$D$1)</f>
+      <c r="D24" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A24,In!$D$1)</f>
         <v>715</v>
       </c>
-      <c r="E24" s="13">
-        <f>SUMIF(Saida!$B:$B,$A24,Saida!$D:$D)</f>
+      <c r="E24" s="11">
+        <f>SUMIF(Out!$B:$B,$A24,Out!$D:$D)</f>
         <v>96</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>619</v>
       </c>
@@ -21617,8 +21910,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>269667.34999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H24" ca="1">_xlfn.IFS($F24=0,'Product status'!$A$3,$F24&lt;0,'Product status'!$A$4,AND($F24&gt;=1,$F24&lt;=20),'Product status'!$A$5,AND($F24&gt;=21,$F24&lt;=100),'Product status'!$A$6,$F24&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>36</v>
       </c>
@@ -21628,15 +21925,15 @@
       <c r="C25" s="8">
         <v>491.38</v>
       </c>
-      <c r="D25" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A25,Entrada!$D$1)</f>
+      <c r="D25" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A25,In!$D$1)</f>
         <v>267</v>
       </c>
-      <c r="E25" s="13">
-        <f>SUMIF(Saida!$B:$B,$A25,Saida!$D:$D)</f>
+      <c r="E25" s="11">
+        <f>SUMIF(Out!$B:$B,$A25,Out!$D:$D)</f>
         <v>224</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>43</v>
       </c>
@@ -21644,8 +21941,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>21129.34</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H25" ca="1">_xlfn.IFS($F25=0,'Product status'!$A$3,$F25&lt;0,'Product status'!$A$4,AND($F25&gt;=1,$F25&lt;=20),'Product status'!$A$5,AND($F25&gt;=21,$F25&lt;=100),'Product status'!$A$6,$F25&gt;100,'Product status'!$A$7)</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>99</v>
       </c>
@@ -21655,15 +21956,15 @@
       <c r="C26" s="8">
         <v>250.84</v>
       </c>
-      <c r="D26" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A26,Entrada!$D$1)</f>
+      <c r="D26" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A26,In!$D$1)</f>
         <v>362</v>
       </c>
-      <c r="E26" s="13">
-        <f>SUMIF(Saida!$B:$B,$A26,Saida!$D:$D)</f>
+      <c r="E26" s="11">
+        <f>SUMIF(Out!$B:$B,$A26,Out!$D:$D)</f>
         <v>182</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>180</v>
       </c>
@@ -21671,8 +21972,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>45151.199999999997</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H26" ca="1">_xlfn.IFS($F26=0,'Product status'!$A$3,$F26&lt;0,'Product status'!$A$4,AND($F26&gt;=1,$F26&lt;=20),'Product status'!$A$5,AND($F26&gt;=21,$F26&lt;=100),'Product status'!$A$6,$F26&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>4</v>
       </c>
@@ -21682,15 +21987,15 @@
       <c r="C27" s="8">
         <v>802.36</v>
       </c>
-      <c r="D27" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A27,Entrada!$D$1)</f>
+      <c r="D27" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A27,In!$D$1)</f>
         <v>416</v>
       </c>
-      <c r="E27" s="13">
-        <f>SUMIF(Saida!$B:$B,$A27,Saida!$D:$D)</f>
+      <c r="E27" s="11">
+        <f>SUMIF(Out!$B:$B,$A27,Out!$D:$D)</f>
         <v>138</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>278</v>
       </c>
@@ -21698,8 +22003,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>223056.08000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H27" ca="1">_xlfn.IFS($F27=0,'Product status'!$A$3,$F27&lt;0,'Product status'!$A$4,AND($F27&gt;=1,$F27&lt;=20),'Product status'!$A$5,AND($F27&gt;=21,$F27&lt;=100),'Product status'!$A$6,$F27&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>135</v>
       </c>
@@ -21709,15 +22018,15 @@
       <c r="C28" s="8">
         <v>167.32</v>
       </c>
-      <c r="D28" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A28,Entrada!$D$1)</f>
+      <c r="D28" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A28,In!$D$1)</f>
         <v>211</v>
       </c>
-      <c r="E28" s="13">
-        <f>SUMIF(Saida!$B:$B,$A28,Saida!$D:$D)</f>
+      <c r="E28" s="11">
+        <f>SUMIF(Out!$B:$B,$A28,Out!$D:$D)</f>
         <v>135</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>76</v>
       </c>
@@ -21725,8 +22034,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>12716.32</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H28" ca="1">_xlfn.IFS($F28=0,'Product status'!$A$3,$F28&lt;0,'Product status'!$A$4,AND($F28&gt;=1,$F28&lt;=20),'Product status'!$A$5,AND($F28&gt;=21,$F28&lt;=100),'Product status'!$A$6,$F28&gt;100,'Product status'!$A$7)</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
@@ -21736,15 +22049,15 @@
       <c r="C29" s="8">
         <v>120.79</v>
       </c>
-      <c r="D29" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A29,Entrada!$D$1)</f>
+      <c r="D29" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A29,In!$D$1)</f>
         <v>252</v>
       </c>
-      <c r="E29" s="13">
-        <f>SUMIF(Saida!$B:$B,$A29,Saida!$D:$D)</f>
+      <c r="E29" s="11">
+        <f>SUMIF(Out!$B:$B,$A29,Out!$D:$D)</f>
         <v>194</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>58</v>
       </c>
@@ -21752,8 +22065,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>7005.8200000000006</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H29" ca="1">_xlfn.IFS($F29=0,'Product status'!$A$3,$F29&lt;0,'Product status'!$A$4,AND($F29&gt;=1,$F29&lt;=20),'Product status'!$A$5,AND($F29&gt;=21,$F29&lt;=100),'Product status'!$A$6,$F29&gt;100,'Product status'!$A$7)</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>71</v>
       </c>
@@ -21763,15 +22080,15 @@
       <c r="C30" s="8">
         <v>210.72</v>
       </c>
-      <c r="D30" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A30,Entrada!$D$1)</f>
+      <c r="D30" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A30,In!$D$1)</f>
         <v>921</v>
       </c>
-      <c r="E30" s="13">
-        <f>SUMIF(Saida!$B:$B,$A30,Saida!$D:$D)</f>
+      <c r="E30" s="11">
+        <f>SUMIF(Out!$B:$B,$A30,Out!$D:$D)</f>
         <v>365</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>556</v>
       </c>
@@ -21779,8 +22096,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>117160.31999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H30" ca="1">_xlfn.IFS($F30=0,'Product status'!$A$3,$F30&lt;0,'Product status'!$A$4,AND($F30&gt;=1,$F30&lt;=20),'Product status'!$A$5,AND($F30&gt;=21,$F30&lt;=100),'Product status'!$A$6,$F30&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>107</v>
       </c>
@@ -21790,15 +22111,15 @@
       <c r="C31" s="8">
         <v>270.27</v>
       </c>
-      <c r="D31" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A31,Entrada!$D$1)</f>
+      <c r="D31" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A31,In!$D$1)</f>
         <v>67</v>
       </c>
-      <c r="E31" s="13">
-        <f>SUMIF(Saida!$B:$B,$A31,Saida!$D:$D)</f>
+      <c r="E31" s="11">
+        <f>SUMIF(Out!$B:$B,$A31,Out!$D:$D)</f>
         <v>74</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>-7</v>
       </c>
@@ -21806,8 +22127,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>-1891.8899999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H31" ca="1">_xlfn.IFS($F31=0,'Product status'!$A$3,$F31&lt;0,'Product status'!$A$4,AND($F31&gt;=1,$F31&lt;=20),'Product status'!$A$5,AND($F31&gt;=21,$F31&lt;=100),'Product status'!$A$6,$F31&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Negative Stock	</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>136</v>
       </c>
@@ -21817,15 +22142,15 @@
       <c r="C32" s="8">
         <v>711.1</v>
       </c>
-      <c r="D32" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A32,Entrada!$D$1)</f>
+      <c r="D32" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A32,In!$D$1)</f>
         <v>312</v>
       </c>
-      <c r="E32" s="13">
-        <f>SUMIF(Saida!$B:$B,$A32,Saida!$D:$D)</f>
+      <c r="E32" s="11">
+        <f>SUMIF(Out!$B:$B,$A32,Out!$D:$D)</f>
         <v>289</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>23</v>
       </c>
@@ -21833,8 +22158,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>16355.300000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H32" ca="1">_xlfn.IFS($F32=0,'Product status'!$A$3,$F32&lt;0,'Product status'!$A$4,AND($F32&gt;=1,$F32&lt;=20),'Product status'!$A$5,AND($F32&gt;=21,$F32&lt;=100),'Product status'!$A$6,$F32&gt;100,'Product status'!$A$7)</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>88</v>
       </c>
@@ -21844,15 +22173,15 @@
       <c r="C33" s="8">
         <v>823.71</v>
       </c>
-      <c r="D33" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A33,Entrada!$D$1)</f>
+      <c r="D33" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A33,In!$D$1)</f>
         <v>404</v>
       </c>
-      <c r="E33" s="13">
-        <f>SUMIF(Saida!$B:$B,$A33,Saida!$D:$D)</f>
+      <c r="E33" s="11">
+        <f>SUMIF(Out!$B:$B,$A33,Out!$D:$D)</f>
         <v>108</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>296</v>
       </c>
@@ -21860,8 +22189,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>243818.16</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H33" ca="1">_xlfn.IFS($F33=0,'Product status'!$A$3,$F33&lt;0,'Product status'!$A$4,AND($F33&gt;=1,$F33&lt;=20),'Product status'!$A$5,AND($F33&gt;=21,$F33&lt;=100),'Product status'!$A$6,$F33&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>14</v>
       </c>
@@ -21871,15 +22204,15 @@
       <c r="C34" s="8">
         <v>107.76</v>
       </c>
-      <c r="D34" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A34,Entrada!$D$1)</f>
+      <c r="D34" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A34,In!$D$1)</f>
         <v>264</v>
       </c>
-      <c r="E34" s="13">
-        <f>SUMIF(Saida!$B:$B,$A34,Saida!$D:$D)</f>
+      <c r="E34" s="11">
+        <f>SUMIF(Out!$B:$B,$A34,Out!$D:$D)</f>
         <v>217</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>47</v>
       </c>
@@ -21887,8 +22220,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>5064.72</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H34" ca="1">_xlfn.IFS($F34=0,'Product status'!$A$3,$F34&lt;0,'Product status'!$A$4,AND($F34&gt;=1,$F34&lt;=20),'Product status'!$A$5,AND($F34&gt;=21,$F34&lt;=100),'Product status'!$A$6,$F34&gt;100,'Product status'!$A$7)</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>120</v>
       </c>
@@ -21898,15 +22235,15 @@
       <c r="C35" s="8">
         <v>653.64</v>
       </c>
-      <c r="D35" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A35,Entrada!$D$1)</f>
+      <c r="D35" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A35,In!$D$1)</f>
         <v>241</v>
       </c>
-      <c r="E35" s="13">
-        <f>SUMIF(Saida!$B:$B,$A35,Saida!$D:$D)</f>
+      <c r="E35" s="11">
+        <f>SUMIF(Out!$B:$B,$A35,Out!$D:$D)</f>
         <v>183</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>58</v>
       </c>
@@ -21914,8 +22251,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>37911.120000000003</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H35" ca="1">_xlfn.IFS($F35=0,'Product status'!$A$3,$F35&lt;0,'Product status'!$A$4,AND($F35&gt;=1,$F35&lt;=20),'Product status'!$A$5,AND($F35&gt;=21,$F35&lt;=100),'Product status'!$A$6,$F35&gt;100,'Product status'!$A$7)</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>133</v>
       </c>
@@ -21925,15 +22266,15 @@
       <c r="C36" s="8">
         <v>252.85</v>
       </c>
-      <c r="D36" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A36,Entrada!$D$1)</f>
+      <c r="D36" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A36,In!$D$1)</f>
         <v>11</v>
       </c>
-      <c r="E36" s="13">
-        <f>SUMIF(Saida!$B:$B,$A36,Saida!$D:$D)</f>
+      <c r="E36" s="11">
+        <f>SUMIF(Out!$B:$B,$A36,Out!$D:$D)</f>
         <v>272</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>-261</v>
       </c>
@@ -21941,8 +22282,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>-65993.849999999991</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H36" ca="1">_xlfn.IFS($F36=0,'Product status'!$A$3,$F36&lt;0,'Product status'!$A$4,AND($F36&gt;=1,$F36&lt;=20),'Product status'!$A$5,AND($F36&gt;=21,$F36&lt;=100),'Product status'!$A$6,$F36&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Negative Stock	</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -21952,15 +22297,15 @@
       <c r="C37" s="8">
         <v>775.44</v>
       </c>
-      <c r="D37" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A37,Entrada!$D$1)</f>
+      <c r="D37" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A37,In!$D$1)</f>
         <v>238</v>
       </c>
-      <c r="E37" s="13">
-        <f>SUMIF(Saida!$B:$B,$A37,Saida!$D:$D)</f>
+      <c r="E37" s="11">
+        <f>SUMIF(Out!$B:$B,$A37,Out!$D:$D)</f>
         <v>221</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
@@ -21968,8 +22313,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>13182.480000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H37" ca="1">_xlfn.IFS($F37=0,'Product status'!$A$3,$F37&lt;0,'Product status'!$A$4,AND($F37&gt;=1,$F37&lt;=20),'Product status'!$A$5,AND($F37&gt;=21,$F37&lt;=100),'Product status'!$A$6,$F37&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Critical	</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>12</v>
       </c>
@@ -21979,15 +22328,15 @@
       <c r="C38" s="8">
         <v>200.74</v>
       </c>
-      <c r="D38" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A38,Entrada!$D$1)</f>
+      <c r="D38" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A38,In!$D$1)</f>
         <v>428</v>
       </c>
-      <c r="E38" s="13">
-        <f>SUMIF(Saida!$B:$B,$A38,Saida!$D:$D)</f>
+      <c r="E38" s="11">
+        <f>SUMIF(Out!$B:$B,$A38,Out!$D:$D)</f>
         <v>133</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>295</v>
       </c>
@@ -21995,8 +22344,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>59218.3</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H38" ca="1">_xlfn.IFS($F38=0,'Product status'!$A$3,$F38&lt;0,'Product status'!$A$4,AND($F38&gt;=1,$F38&lt;=20),'Product status'!$A$5,AND($F38&gt;=21,$F38&lt;=100),'Product status'!$A$6,$F38&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>127</v>
       </c>
@@ -22006,15 +22359,15 @@
       <c r="C39" s="8">
         <v>347.43</v>
       </c>
-      <c r="D39" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A39,Entrada!$D$1)</f>
+      <c r="D39" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A39,In!$D$1)</f>
         <v>218</v>
       </c>
-      <c r="E39" s="13">
-        <f>SUMIF(Saida!$B:$B,$A39,Saida!$D:$D)</f>
+      <c r="E39" s="11">
+        <f>SUMIF(Out!$B:$B,$A39,Out!$D:$D)</f>
         <v>165</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>53</v>
       </c>
@@ -22022,8 +22375,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>18413.79</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H39" ca="1">_xlfn.IFS($F39=0,'Product status'!$A$3,$F39&lt;0,'Product status'!$A$4,AND($F39&gt;=1,$F39&lt;=20),'Product status'!$A$5,AND($F39&gt;=21,$F39&lt;=100),'Product status'!$A$6,$F39&gt;100,'Product status'!$A$7)</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>126</v>
       </c>
@@ -22033,15 +22390,15 @@
       <c r="C40" s="8">
         <v>705.93</v>
       </c>
-      <c r="D40" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A40,Entrada!$D$1)</f>
+      <c r="D40" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A40,In!$D$1)</f>
         <v>402</v>
       </c>
-      <c r="E40" s="13">
-        <f>SUMIF(Saida!$B:$B,$A40,Saida!$D:$D)</f>
+      <c r="E40" s="11">
+        <f>SUMIF(Out!$B:$B,$A40,Out!$D:$D)</f>
         <v>137</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F40" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>265</v>
       </c>
@@ -22049,8 +22406,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>187071.44999999998</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H40" ca="1">_xlfn.IFS($F40=0,'Product status'!$A$3,$F40&lt;0,'Product status'!$A$4,AND($F40&gt;=1,$F40&lt;=20),'Product status'!$A$5,AND($F40&gt;=21,$F40&lt;=100),'Product status'!$A$6,$F40&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>130</v>
       </c>
@@ -22060,15 +22421,15 @@
       <c r="C41" s="8">
         <v>365.28</v>
       </c>
-      <c r="D41" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A41,Entrada!$D$1)</f>
+      <c r="D41" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A41,In!$D$1)</f>
         <v>80</v>
       </c>
-      <c r="E41" s="13">
-        <f>SUMIF(Saida!$B:$B,$A41,Saida!$D:$D)</f>
+      <c r="E41" s="11">
+        <f>SUMIF(Out!$B:$B,$A41,Out!$D:$D)</f>
         <v>139</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F41" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>-59</v>
       </c>
@@ -22076,8 +22437,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>-21551.519999999997</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H41" ca="1">_xlfn.IFS($F41=0,'Product status'!$A$3,$F41&lt;0,'Product status'!$A$4,AND($F41&gt;=1,$F41&lt;=20),'Product status'!$A$5,AND($F41&gt;=21,$F41&lt;=100),'Product status'!$A$6,$F41&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Negative Stock	</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>76</v>
       </c>
@@ -22087,15 +22452,15 @@
       <c r="C42" s="8">
         <v>536.77</v>
       </c>
-      <c r="D42" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A42,Entrada!$D$1)</f>
+      <c r="D42" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A42,In!$D$1)</f>
         <v>242</v>
       </c>
-      <c r="E42" s="13">
-        <f>SUMIF(Saida!$B:$B,$A42,Saida!$D:$D)</f>
+      <c r="E42" s="11">
+        <f>SUMIF(Out!$B:$B,$A42,Out!$D:$D)</f>
         <v>97</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>145</v>
       </c>
@@ -22103,8 +22468,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>77831.649999999994</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H42" ca="1">_xlfn.IFS($F42=0,'Product status'!$A$3,$F42&lt;0,'Product status'!$A$4,AND($F42&gt;=1,$F42&lt;=20),'Product status'!$A$5,AND($F42&gt;=21,$F42&lt;=100),'Product status'!$A$6,$F42&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>112</v>
       </c>
@@ -22114,15 +22483,15 @@
       <c r="C43" s="8">
         <v>877.23</v>
       </c>
-      <c r="D43" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A43,Entrada!$D$1)</f>
+      <c r="D43" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A43,In!$D$1)</f>
         <v>258</v>
       </c>
-      <c r="E43" s="13">
-        <f>SUMIF(Saida!$B:$B,$A43,Saida!$D:$D)</f>
+      <c r="E43" s="11">
+        <f>SUMIF(Out!$B:$B,$A43,Out!$D:$D)</f>
         <v>231</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F43" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
@@ -22130,8 +22499,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>23685.21</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H43" ca="1">_xlfn.IFS($F43=0,'Product status'!$A$3,$F43&lt;0,'Product status'!$A$4,AND($F43&gt;=1,$F43&lt;=20),'Product status'!$A$5,AND($F43&gt;=21,$F43&lt;=100),'Product status'!$A$6,$F43&gt;100,'Product status'!$A$7)</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>139</v>
       </c>
@@ -22141,15 +22514,15 @@
       <c r="C44" s="8">
         <v>379.85</v>
       </c>
-      <c r="D44" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A44,Entrada!$D$1)</f>
+      <c r="D44" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A44,In!$D$1)</f>
         <v>129</v>
       </c>
-      <c r="E44" s="13">
-        <f>SUMIF(Saida!$B:$B,$A44,Saida!$D:$D)</f>
+      <c r="E44" s="11">
+        <f>SUMIF(Out!$B:$B,$A44,Out!$D:$D)</f>
         <v>176</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F44" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>-47</v>
       </c>
@@ -22157,8 +22530,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>-17852.95</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H44" ca="1">_xlfn.IFS($F44=0,'Product status'!$A$3,$F44&lt;0,'Product status'!$A$4,AND($F44&gt;=1,$F44&lt;=20),'Product status'!$A$5,AND($F44&gt;=21,$F44&lt;=100),'Product status'!$A$6,$F44&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Negative Stock	</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>101</v>
       </c>
@@ -22168,15 +22545,15 @@
       <c r="C45" s="8">
         <v>991.03</v>
       </c>
-      <c r="D45" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A45,Entrada!$D$1)</f>
+      <c r="D45" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A45,In!$D$1)</f>
         <v>348</v>
       </c>
-      <c r="E45" s="13">
-        <f>SUMIF(Saida!$B:$B,$A45,Saida!$D:$D)</f>
+      <c r="E45" s="11">
+        <f>SUMIF(Out!$B:$B,$A45,Out!$D:$D)</f>
         <v>153</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F45" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>195</v>
       </c>
@@ -22184,8 +22561,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>193250.85</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H45" ca="1">_xlfn.IFS($F45=0,'Product status'!$A$3,$F45&lt;0,'Product status'!$A$4,AND($F45&gt;=1,$F45&lt;=20),'Product status'!$A$5,AND($F45&gt;=21,$F45&lt;=100),'Product status'!$A$6,$F45&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>97</v>
       </c>
@@ -22195,15 +22576,15 @@
       <c r="C46" s="8">
         <v>174.26</v>
       </c>
-      <c r="D46" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A46,Entrada!$D$1)</f>
+      <c r="D46" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A46,In!$D$1)</f>
         <v>297</v>
       </c>
-      <c r="E46" s="13">
-        <f>SUMIF(Saida!$B:$B,$A46,Saida!$D:$D)</f>
+      <c r="E46" s="11">
+        <f>SUMIF(Out!$B:$B,$A46,Out!$D:$D)</f>
         <v>160</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F46" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>137</v>
       </c>
@@ -22211,8 +22592,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>23873.62</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H46" ca="1">_xlfn.IFS($F46=0,'Product status'!$A$3,$F46&lt;0,'Product status'!$A$4,AND($F46&gt;=1,$F46&lt;=20),'Product status'!$A$5,AND($F46&gt;=21,$F46&lt;=100),'Product status'!$A$6,$F46&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>15</v>
       </c>
@@ -22222,15 +22607,15 @@
       <c r="C47" s="8">
         <v>339.98</v>
       </c>
-      <c r="D47" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A47,Entrada!$D$1)</f>
+      <c r="D47" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A47,In!$D$1)</f>
         <v>116</v>
       </c>
-      <c r="E47" s="13">
-        <f>SUMIF(Saida!$B:$B,$A47,Saida!$D:$D)</f>
+      <c r="E47" s="11">
+        <f>SUMIF(Out!$B:$B,$A47,Out!$D:$D)</f>
         <v>154</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F47" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>-38</v>
       </c>
@@ -22238,8 +22623,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>-12919.240000000002</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H47" ca="1">_xlfn.IFS($F47=0,'Product status'!$A$3,$F47&lt;0,'Product status'!$A$4,AND($F47&gt;=1,$F47&lt;=20),'Product status'!$A$5,AND($F47&gt;=21,$F47&lt;=100),'Product status'!$A$6,$F47&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Negative Stock	</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>106</v>
       </c>
@@ -22249,15 +22638,15 @@
       <c r="C48" s="8">
         <v>143.75</v>
       </c>
-      <c r="D48" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A48,Entrada!$D$1)</f>
+      <c r="D48" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A48,In!$D$1)</f>
         <v>297</v>
       </c>
-      <c r="E48" s="13">
-        <f>SUMIF(Saida!$B:$B,$A48,Saida!$D:$D)</f>
+      <c r="E48" s="11">
+        <f>SUMIF(Out!$B:$B,$A48,Out!$D:$D)</f>
         <v>17</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F48" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>280</v>
       </c>
@@ -22265,8 +22654,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>40250</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H48" ca="1">_xlfn.IFS($F48=0,'Product status'!$A$3,$F48&lt;0,'Product status'!$A$4,AND($F48&gt;=1,$F48&lt;=20),'Product status'!$A$5,AND($F48&gt;=21,$F48&lt;=100),'Product status'!$A$6,$F48&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>142</v>
       </c>
@@ -22276,15 +22669,15 @@
       <c r="C49" s="8">
         <v>124.79</v>
       </c>
-      <c r="D49" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A49,Entrada!$D$1)</f>
+      <c r="D49" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A49,In!$D$1)</f>
         <v>0</v>
       </c>
-      <c r="E49" s="13">
-        <f>SUMIF(Saida!$B:$B,$A49,Saida!$D:$D)</f>
+      <c r="E49" s="11">
+        <f>SUMIF(Out!$B:$B,$A49,Out!$D:$D)</f>
         <v>99</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F49" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>-99</v>
       </c>
@@ -22292,8 +22685,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>-12354.210000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H49" ca="1">_xlfn.IFS($F49=0,'Product status'!$A$3,$F49&lt;0,'Product status'!$A$4,AND($F49&gt;=1,$F49&lt;=20),'Product status'!$A$5,AND($F49&gt;=21,$F49&lt;=100),'Product status'!$A$6,$F49&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Negative Stock	</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>21</v>
       </c>
@@ -22303,15 +22700,15 @@
       <c r="C50" s="8">
         <v>539.37</v>
       </c>
-      <c r="D50" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A50,Entrada!$D$1)</f>
+      <c r="D50" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A50,In!$D$1)</f>
         <v>407</v>
       </c>
-      <c r="E50" s="13">
-        <f>SUMIF(Saida!$B:$B,$A50,Saida!$D:$D)</f>
+      <c r="E50" s="11">
+        <f>SUMIF(Out!$B:$B,$A50,Out!$D:$D)</f>
         <v>212</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F50" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>195</v>
       </c>
@@ -22319,8 +22716,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>105177.15</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H50" ca="1">_xlfn.IFS($F50=0,'Product status'!$A$3,$F50&lt;0,'Product status'!$A$4,AND($F50&gt;=1,$F50&lt;=20),'Product status'!$A$5,AND($F50&gt;=21,$F50&lt;=100),'Product status'!$A$6,$F50&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>6</v>
       </c>
@@ -22330,15 +22731,15 @@
       <c r="C51" s="8">
         <v>121.42</v>
       </c>
-      <c r="D51" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A51,Entrada!$D$1)</f>
+      <c r="D51" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A51,In!$D$1)</f>
         <v>327</v>
       </c>
-      <c r="E51" s="13">
-        <f>SUMIF(Saida!$B:$B,$A51,Saida!$D:$D)</f>
+      <c r="E51" s="11">
+        <f>SUMIF(Out!$B:$B,$A51,Out!$D:$D)</f>
         <v>202</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F51" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>125</v>
       </c>
@@ -22346,8 +22747,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>15177.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H51" ca="1">_xlfn.IFS($F51=0,'Product status'!$A$3,$F51&lt;0,'Product status'!$A$4,AND($F51&gt;=1,$F51&lt;=20),'Product status'!$A$5,AND($F51&gt;=21,$F51&lt;=100),'Product status'!$A$6,$F51&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>54</v>
       </c>
@@ -22357,15 +22762,15 @@
       <c r="C52" s="8">
         <v>188.17</v>
       </c>
-      <c r="D52" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A52,Entrada!$D$1)</f>
+      <c r="D52" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A52,In!$D$1)</f>
         <v>169</v>
       </c>
-      <c r="E52" s="13">
-        <f>SUMIF(Saida!$B:$B,$A52,Saida!$D:$D)</f>
+      <c r="E52" s="11">
+        <f>SUMIF(Out!$B:$B,$A52,Out!$D:$D)</f>
         <v>107</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F52" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>62</v>
       </c>
@@ -22373,8 +22778,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>11666.539999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H52" ca="1">_xlfn.IFS($F52=0,'Product status'!$A$3,$F52&lt;0,'Product status'!$A$4,AND($F52&gt;=1,$F52&lt;=20),'Product status'!$A$5,AND($F52&gt;=21,$F52&lt;=100),'Product status'!$A$6,$F52&gt;100,'Product status'!$A$7)</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>11</v>
       </c>
@@ -22384,15 +22793,15 @@
       <c r="C53" s="8">
         <v>216.51</v>
       </c>
-      <c r="D53" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A53,Entrada!$D$1)</f>
+      <c r="D53" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A53,In!$D$1)</f>
         <v>405</v>
       </c>
-      <c r="E53" s="13">
-        <f>SUMIF(Saida!$B:$B,$A53,Saida!$D:$D)</f>
+      <c r="E53" s="11">
+        <f>SUMIF(Out!$B:$B,$A53,Out!$D:$D)</f>
         <v>45</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F53" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>360</v>
       </c>
@@ -22400,8 +22809,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>77943.599999999991</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H53" ca="1">_xlfn.IFS($F53=0,'Product status'!$A$3,$F53&lt;0,'Product status'!$A$4,AND($F53&gt;=1,$F53&lt;=20),'Product status'!$A$5,AND($F53&gt;=21,$F53&lt;=100),'Product status'!$A$6,$F53&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>55</v>
       </c>
@@ -22411,15 +22824,15 @@
       <c r="C54" s="8">
         <v>919.26</v>
       </c>
-      <c r="D54" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A54,Entrada!$D$1)</f>
+      <c r="D54" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A54,In!$D$1)</f>
         <v>324</v>
       </c>
-      <c r="E54" s="13">
-        <f>SUMIF(Saida!$B:$B,$A54,Saida!$D:$D)</f>
+      <c r="E54" s="11">
+        <f>SUMIF(Out!$B:$B,$A54,Out!$D:$D)</f>
         <v>95</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F54" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>229</v>
       </c>
@@ -22427,8 +22840,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>210510.54</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H54" ca="1">_xlfn.IFS($F54=0,'Product status'!$A$3,$F54&lt;0,'Product status'!$A$4,AND($F54&gt;=1,$F54&lt;=20),'Product status'!$A$5,AND($F54&gt;=21,$F54&lt;=100),'Product status'!$A$6,$F54&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>35</v>
       </c>
@@ -22438,15 +22855,15 @@
       <c r="C55" s="8">
         <v>504.18</v>
       </c>
-      <c r="D55" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A55,Entrada!$D$1)</f>
+      <c r="D55" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A55,In!$D$1)</f>
         <v>655</v>
       </c>
-      <c r="E55" s="13">
-        <f>SUMIF(Saida!$B:$B,$A55,Saida!$D:$D)</f>
+      <c r="E55" s="11">
+        <f>SUMIF(Out!$B:$B,$A55,Out!$D:$D)</f>
         <v>64</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F55" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>591</v>
       </c>
@@ -22454,8 +22871,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>297970.38</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H55" ca="1">_xlfn.IFS($F55=0,'Product status'!$A$3,$F55&lt;0,'Product status'!$A$4,AND($F55&gt;=1,$F55&lt;=20),'Product status'!$A$5,AND($F55&gt;=21,$F55&lt;=100),'Product status'!$A$6,$F55&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>25</v>
       </c>
@@ -22465,15 +22886,15 @@
       <c r="C56" s="8">
         <v>793.19</v>
       </c>
-      <c r="D56" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A56,Entrada!$D$1)</f>
+      <c r="D56" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A56,In!$D$1)</f>
         <v>555</v>
       </c>
-      <c r="E56" s="13">
-        <f>SUMIF(Saida!$B:$B,$A56,Saida!$D:$D)</f>
+      <c r="E56" s="11">
+        <f>SUMIF(Out!$B:$B,$A56,Out!$D:$D)</f>
         <v>26</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F56" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>529</v>
       </c>
@@ -22481,8 +22902,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>419597.51</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H56" ca="1">_xlfn.IFS($F56=0,'Product status'!$A$3,$F56&lt;0,'Product status'!$A$4,AND($F56&gt;=1,$F56&lt;=20),'Product status'!$A$5,AND($F56&gt;=21,$F56&lt;=100),'Product status'!$A$6,$F56&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>121</v>
       </c>
@@ -22492,15 +22917,15 @@
       <c r="C57" s="8">
         <v>542.75</v>
       </c>
-      <c r="D57" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A57,Entrada!$D$1)</f>
+      <c r="D57" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A57,In!$D$1)</f>
         <v>238</v>
       </c>
-      <c r="E57" s="13">
-        <f>SUMIF(Saida!$B:$B,$A57,Saida!$D:$D)</f>
+      <c r="E57" s="11">
+        <f>SUMIF(Out!$B:$B,$A57,Out!$D:$D)</f>
         <v>105</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F57" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>133</v>
       </c>
@@ -22508,8 +22933,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>72185.75</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H57" ca="1">_xlfn.IFS($F57=0,'Product status'!$A$3,$F57&lt;0,'Product status'!$A$4,AND($F57&gt;=1,$F57&lt;=20),'Product status'!$A$5,AND($F57&gt;=21,$F57&lt;=100),'Product status'!$A$6,$F57&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>96</v>
       </c>
@@ -22519,15 +22948,15 @@
       <c r="C58" s="8">
         <v>363.9</v>
       </c>
-      <c r="D58" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A58,Entrada!$D$1)</f>
+      <c r="D58" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A58,In!$D$1)</f>
         <v>523</v>
       </c>
-      <c r="E58" s="13">
-        <f>SUMIF(Saida!$B:$B,$A58,Saida!$D:$D)</f>
+      <c r="E58" s="11">
+        <f>SUMIF(Out!$B:$B,$A58,Out!$D:$D)</f>
         <v>179</v>
       </c>
-      <c r="F58" s="14">
+      <c r="F58" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>344</v>
       </c>
@@ -22535,8 +22964,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>125181.59999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H58" ca="1">_xlfn.IFS($F58=0,'Product status'!$A$3,$F58&lt;0,'Product status'!$A$4,AND($F58&gt;=1,$F58&lt;=20),'Product status'!$A$5,AND($F58&gt;=21,$F58&lt;=100),'Product status'!$A$6,$F58&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>81</v>
       </c>
@@ -22546,15 +22979,15 @@
       <c r="C59" s="8">
         <v>584.16999999999996</v>
       </c>
-      <c r="D59" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A59,Entrada!$D$1)</f>
+      <c r="D59" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A59,In!$D$1)</f>
         <v>354</v>
       </c>
-      <c r="E59" s="13">
-        <f>SUMIF(Saida!$B:$B,$A59,Saida!$D:$D)</f>
+      <c r="E59" s="11">
+        <f>SUMIF(Out!$B:$B,$A59,Out!$D:$D)</f>
         <v>238</v>
       </c>
-      <c r="F59" s="14">
+      <c r="F59" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>116</v>
       </c>
@@ -22562,8 +22995,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>67763.72</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H59" ca="1">_xlfn.IFS($F59=0,'Product status'!$A$3,$F59&lt;0,'Product status'!$A$4,AND($F59&gt;=1,$F59&lt;=20),'Product status'!$A$5,AND($F59&gt;=21,$F59&lt;=100),'Product status'!$A$6,$F59&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>17</v>
       </c>
@@ -22573,15 +23010,15 @@
       <c r="C60" s="8">
         <v>820.78</v>
       </c>
-      <c r="D60" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A60,Entrada!$D$1)</f>
+      <c r="D60" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A60,In!$D$1)</f>
         <v>406</v>
       </c>
-      <c r="E60" s="13">
-        <f>SUMIF(Saida!$B:$B,$A60,Saida!$D:$D)</f>
+      <c r="E60" s="11">
+        <f>SUMIF(Out!$B:$B,$A60,Out!$D:$D)</f>
         <v>346</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F60" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>60</v>
       </c>
@@ -22589,8 +23026,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>49246.799999999996</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H60" ca="1">_xlfn.IFS($F60=0,'Product status'!$A$3,$F60&lt;0,'Product status'!$A$4,AND($F60&gt;=1,$F60&lt;=20),'Product status'!$A$5,AND($F60&gt;=21,$F60&lt;=100),'Product status'!$A$6,$F60&gt;100,'Product status'!$A$7)</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>43</v>
       </c>
@@ -22600,15 +23041,15 @@
       <c r="C61" s="8">
         <v>92.41</v>
       </c>
-      <c r="D61" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A61,Entrada!$D$1)</f>
+      <c r="D61" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A61,In!$D$1)</f>
         <v>448</v>
       </c>
-      <c r="E61" s="13">
-        <f>SUMIF(Saida!$B:$B,$A61,Saida!$D:$D)</f>
+      <c r="E61" s="11">
+        <f>SUMIF(Out!$B:$B,$A61,Out!$D:$D)</f>
         <v>71</v>
       </c>
-      <c r="F61" s="14">
+      <c r="F61" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>377</v>
       </c>
@@ -22616,8 +23057,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>34838.57</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H61" ca="1">_xlfn.IFS($F61=0,'Product status'!$A$3,$F61&lt;0,'Product status'!$A$4,AND($F61&gt;=1,$F61&lt;=20),'Product status'!$A$5,AND($F61&gt;=21,$F61&lt;=100),'Product status'!$A$6,$F61&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>45</v>
       </c>
@@ -22627,15 +23072,15 @@
       <c r="C62" s="8">
         <v>977.6</v>
       </c>
-      <c r="D62" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A62,Entrada!$D$1)</f>
+      <c r="D62" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A62,In!$D$1)</f>
         <v>594</v>
       </c>
-      <c r="E62" s="13">
-        <f>SUMIF(Saida!$B:$B,$A62,Saida!$D:$D)</f>
+      <c r="E62" s="11">
+        <f>SUMIF(Out!$B:$B,$A62,Out!$D:$D)</f>
         <v>246</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F62" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>348</v>
       </c>
@@ -22643,8 +23088,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>340204.79999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H62" ca="1">_xlfn.IFS($F62=0,'Product status'!$A$3,$F62&lt;0,'Product status'!$A$4,AND($F62&gt;=1,$F62&lt;=20),'Product status'!$A$5,AND($F62&gt;=21,$F62&lt;=100),'Product status'!$A$6,$F62&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>118</v>
       </c>
@@ -22654,15 +23103,15 @@
       <c r="C63" s="8">
         <v>580.80999999999995</v>
       </c>
-      <c r="D63" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A63,Entrada!$D$1)</f>
+      <c r="D63" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A63,In!$D$1)</f>
         <v>73</v>
       </c>
-      <c r="E63" s="13">
-        <f>SUMIF(Saida!$B:$B,$A63,Saida!$D:$D)</f>
+      <c r="E63" s="11">
+        <f>SUMIF(Out!$B:$B,$A63,Out!$D:$D)</f>
         <v>180</v>
       </c>
-      <c r="F63" s="14">
+      <c r="F63" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>-107</v>
       </c>
@@ -22670,8 +23119,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>-62146.669999999991</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H63" ca="1">_xlfn.IFS($F63=0,'Product status'!$A$3,$F63&lt;0,'Product status'!$A$4,AND($F63&gt;=1,$F63&lt;=20),'Product status'!$A$5,AND($F63&gt;=21,$F63&lt;=100),'Product status'!$A$6,$F63&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Negative Stock	</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>117</v>
       </c>
@@ -22681,15 +23134,15 @@
       <c r="C64" s="8">
         <v>383.87</v>
       </c>
-      <c r="D64" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A64,Entrada!$D$1)</f>
+      <c r="D64" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A64,In!$D$1)</f>
         <v>174</v>
       </c>
-      <c r="E64" s="13">
-        <f>SUMIF(Saida!$B:$B,$A64,Saida!$D:$D)</f>
+      <c r="E64" s="11">
+        <f>SUMIF(Out!$B:$B,$A64,Out!$D:$D)</f>
         <v>281</v>
       </c>
-      <c r="F64" s="14">
+      <c r="F64" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>-107</v>
       </c>
@@ -22697,8 +23150,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>-41074.090000000004</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H64" ca="1">_xlfn.IFS($F64=0,'Product status'!$A$3,$F64&lt;0,'Product status'!$A$4,AND($F64&gt;=1,$F64&lt;=20),'Product status'!$A$5,AND($F64&gt;=21,$F64&lt;=100),'Product status'!$A$6,$F64&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Negative Stock	</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>53</v>
       </c>
@@ -22708,15 +23165,15 @@
       <c r="C65" s="8">
         <v>723.8</v>
       </c>
-      <c r="D65" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A65,Entrada!$D$1)</f>
+      <c r="D65" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A65,In!$D$1)</f>
         <v>294</v>
       </c>
-      <c r="E65" s="13">
-        <f>SUMIF(Saida!$B:$B,$A65,Saida!$D:$D)</f>
+      <c r="E65" s="11">
+        <f>SUMIF(Out!$B:$B,$A65,Out!$D:$D)</f>
         <v>276</v>
       </c>
-      <c r="F65" s="14">
+      <c r="F65" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>18</v>
       </c>
@@ -22724,8 +23181,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>13028.4</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H65" ca="1">_xlfn.IFS($F65=0,'Product status'!$A$3,$F65&lt;0,'Product status'!$A$4,AND($F65&gt;=1,$F65&lt;=20),'Product status'!$A$5,AND($F65&gt;=21,$F65&lt;=100),'Product status'!$A$6,$F65&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Critical	</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>72</v>
       </c>
@@ -22735,15 +23196,15 @@
       <c r="C66" s="8">
         <v>503.07</v>
       </c>
-      <c r="D66" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A66,Entrada!$D$1)</f>
+      <c r="D66" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A66,In!$D$1)</f>
         <v>209</v>
       </c>
-      <c r="E66" s="13">
-        <f>SUMIF(Saida!$B:$B,$A66,Saida!$D:$D)</f>
+      <c r="E66" s="11">
+        <f>SUMIF(Out!$B:$B,$A66,Out!$D:$D)</f>
         <v>273</v>
       </c>
-      <c r="F66" s="14">
+      <c r="F66" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>-64</v>
       </c>
@@ -22751,8 +23212,12 @@
         <f t="shared" ca="1" si="1"/>
         <v>-32196.48</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H66" ca="1">_xlfn.IFS($F66=0,'Product status'!$A$3,$F66&lt;0,'Product status'!$A$4,AND($F66&gt;=1,$F66&lt;=20),'Product status'!$A$5,AND($F66&gt;=21,$F66&lt;=100),'Product status'!$A$6,$F66&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Negative Stock	</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>64</v>
       </c>
@@ -22762,15 +23227,15 @@
       <c r="C67" s="8">
         <v>742.3</v>
       </c>
-      <c r="D67" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A67,Entrada!$D$1)</f>
+      <c r="D67" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A67,In!$D$1)</f>
         <v>392</v>
       </c>
-      <c r="E67" s="13">
-        <f>SUMIF(Saida!$B:$B,$A67,Saida!$D:$D)</f>
+      <c r="E67" s="11">
+        <f>SUMIF(Out!$B:$B,$A67,Out!$D:$D)</f>
         <v>152</v>
       </c>
-      <c r="F67" s="14">
+      <c r="F67" s="12">
         <f t="shared" ref="F67:F121" ca="1" si="2">D67-E67</f>
         <v>240</v>
       </c>
@@ -22778,8 +23243,12 @@
         <f t="shared" ref="G67:G121" ca="1" si="3">$F67*C67</f>
         <v>178152</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H67" ca="1">_xlfn.IFS($F67=0,'Product status'!$A$3,$F67&lt;0,'Product status'!$A$4,AND($F67&gt;=1,$F67&lt;=20),'Product status'!$A$5,AND($F67&gt;=21,$F67&lt;=100),'Product status'!$A$6,$F67&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>37</v>
       </c>
@@ -22789,15 +23258,15 @@
       <c r="C68" s="8">
         <v>506.5</v>
       </c>
-      <c r="D68" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A68,Entrada!$D$1)</f>
+      <c r="D68" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A68,In!$D$1)</f>
         <v>291</v>
       </c>
-      <c r="E68" s="13">
-        <f>SUMIF(Saida!$B:$B,$A68,Saida!$D:$D)</f>
+      <c r="E68" s="11">
+        <f>SUMIF(Out!$B:$B,$A68,Out!$D:$D)</f>
         <v>70</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F68" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>221</v>
       </c>
@@ -22805,8 +23274,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>111936.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H68" ca="1">_xlfn.IFS($F68=0,'Product status'!$A$3,$F68&lt;0,'Product status'!$A$4,AND($F68&gt;=1,$F68&lt;=20),'Product status'!$A$5,AND($F68&gt;=21,$F68&lt;=100),'Product status'!$A$6,$F68&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>57</v>
       </c>
@@ -22816,15 +23289,15 @@
       <c r="C69" s="8">
         <v>863.63</v>
       </c>
-      <c r="D69" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A69,Entrada!$D$1)</f>
+      <c r="D69" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A69,In!$D$1)</f>
         <v>394</v>
       </c>
-      <c r="E69" s="13">
-        <f>SUMIF(Saida!$B:$B,$A69,Saida!$D:$D)</f>
+      <c r="E69" s="11">
+        <f>SUMIF(Out!$B:$B,$A69,Out!$D:$D)</f>
         <v>138</v>
       </c>
-      <c r="F69" s="14">
+      <c r="F69" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>256</v>
       </c>
@@ -22832,8 +23305,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>221089.28</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H69" ca="1">_xlfn.IFS($F69=0,'Product status'!$A$3,$F69&lt;0,'Product status'!$A$4,AND($F69&gt;=1,$F69&lt;=20),'Product status'!$A$5,AND($F69&gt;=21,$F69&lt;=100),'Product status'!$A$6,$F69&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>9</v>
       </c>
@@ -22843,15 +23320,15 @@
       <c r="C70" s="8">
         <v>577.42999999999995</v>
       </c>
-      <c r="D70" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A70,Entrada!$D$1)</f>
+      <c r="D70" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A70,In!$D$1)</f>
         <v>298</v>
       </c>
-      <c r="E70" s="13">
-        <f>SUMIF(Saida!$B:$B,$A70,Saida!$D:$D)</f>
+      <c r="E70" s="11">
+        <f>SUMIF(Out!$B:$B,$A70,Out!$D:$D)</f>
         <v>244</v>
       </c>
-      <c r="F70" s="14">
+      <c r="F70" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>54</v>
       </c>
@@ -22859,8 +23336,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>31181.219999999998</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H70" ca="1">_xlfn.IFS($F70=0,'Product status'!$A$3,$F70&lt;0,'Product status'!$A$4,AND($F70&gt;=1,$F70&lt;=20),'Product status'!$A$5,AND($F70&gt;=21,$F70&lt;=100),'Product status'!$A$6,$F70&gt;100,'Product status'!$A$7)</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>68</v>
       </c>
@@ -22870,15 +23351,15 @@
       <c r="C71" s="8">
         <v>588.87</v>
       </c>
-      <c r="D71" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A71,Entrada!$D$1)</f>
+      <c r="D71" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A71,In!$D$1)</f>
         <v>321</v>
       </c>
-      <c r="E71" s="13">
-        <f>SUMIF(Saida!$B:$B,$A71,Saida!$D:$D)</f>
+      <c r="E71" s="11">
+        <f>SUMIF(Out!$B:$B,$A71,Out!$D:$D)</f>
         <v>193</v>
       </c>
-      <c r="F71" s="14">
+      <c r="F71" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>128</v>
       </c>
@@ -22886,8 +23367,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>75375.360000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H71" ca="1">_xlfn.IFS($F71=0,'Product status'!$A$3,$F71&lt;0,'Product status'!$A$4,AND($F71&gt;=1,$F71&lt;=20),'Product status'!$A$5,AND($F71&gt;=21,$F71&lt;=100),'Product status'!$A$6,$F71&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>138</v>
       </c>
@@ -22897,15 +23382,15 @@
       <c r="C72" s="8">
         <v>741.36</v>
       </c>
-      <c r="D72" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A72,Entrada!$D$1)</f>
+      <c r="D72" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A72,In!$D$1)</f>
         <v>131</v>
       </c>
-      <c r="E72" s="13">
-        <f>SUMIF(Saida!$B:$B,$A72,Saida!$D:$D)</f>
+      <c r="E72" s="11">
+        <f>SUMIF(Out!$B:$B,$A72,Out!$D:$D)</f>
         <v>197</v>
       </c>
-      <c r="F72" s="14">
+      <c r="F72" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>-66</v>
       </c>
@@ -22913,8 +23398,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>-48929.760000000002</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H72" ca="1">_xlfn.IFS($F72=0,'Product status'!$A$3,$F72&lt;0,'Product status'!$A$4,AND($F72&gt;=1,$F72&lt;=20),'Product status'!$A$5,AND($F72&gt;=21,$F72&lt;=100),'Product status'!$A$6,$F72&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Negative Stock	</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>49</v>
       </c>
@@ -22924,15 +23413,15 @@
       <c r="C73" s="8">
         <v>89.57</v>
       </c>
-      <c r="D73" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A73,Entrada!$D$1)</f>
+      <c r="D73" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A73,In!$D$1)</f>
         <v>404</v>
       </c>
-      <c r="E73" s="13">
-        <f>SUMIF(Saida!$B:$B,$A73,Saida!$D:$D)</f>
+      <c r="E73" s="11">
+        <f>SUMIF(Out!$B:$B,$A73,Out!$D:$D)</f>
         <v>208</v>
       </c>
-      <c r="F73" s="14">
+      <c r="F73" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>196</v>
       </c>
@@ -22940,8 +23429,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>17555.719999999998</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H73" ca="1">_xlfn.IFS($F73=0,'Product status'!$A$3,$F73&lt;0,'Product status'!$A$4,AND($F73&gt;=1,$F73&lt;=20),'Product status'!$A$5,AND($F73&gt;=21,$F73&lt;=100),'Product status'!$A$6,$F73&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>42</v>
       </c>
@@ -22951,15 +23444,15 @@
       <c r="C74" s="8">
         <v>560.16</v>
       </c>
-      <c r="D74" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A74,Entrada!$D$1)</f>
+      <c r="D74" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A74,In!$D$1)</f>
         <v>495</v>
       </c>
-      <c r="E74" s="13">
-        <f>SUMIF(Saida!$B:$B,$A74,Saida!$D:$D)</f>
+      <c r="E74" s="11">
+        <f>SUMIF(Out!$B:$B,$A74,Out!$D:$D)</f>
         <v>201</v>
       </c>
-      <c r="F74" s="14">
+      <c r="F74" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>294</v>
       </c>
@@ -22967,8 +23460,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>164687.03999999998</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H74" ca="1">_xlfn.IFS($F74=0,'Product status'!$A$3,$F74&lt;0,'Product status'!$A$4,AND($F74&gt;=1,$F74&lt;=20),'Product status'!$A$5,AND($F74&gt;=21,$F74&lt;=100),'Product status'!$A$6,$F74&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>140</v>
       </c>
@@ -22978,15 +23475,15 @@
       <c r="C75" s="8">
         <v>306.18</v>
       </c>
-      <c r="D75" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A75,Entrada!$D$1)</f>
+      <c r="D75" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A75,In!$D$1)</f>
         <v>8</v>
       </c>
-      <c r="E75" s="13">
-        <f>SUMIF(Saida!$B:$B,$A75,Saida!$D:$D)</f>
+      <c r="E75" s="11">
+        <f>SUMIF(Out!$B:$B,$A75,Out!$D:$D)</f>
         <v>215</v>
       </c>
-      <c r="F75" s="14">
+      <c r="F75" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>-207</v>
       </c>
@@ -22994,8 +23491,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>-63379.26</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H75" ca="1">_xlfn.IFS($F75=0,'Product status'!$A$3,$F75&lt;0,'Product status'!$A$4,AND($F75&gt;=1,$F75&lt;=20),'Product status'!$A$5,AND($F75&gt;=21,$F75&lt;=100),'Product status'!$A$6,$F75&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Negative Stock	</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>58</v>
       </c>
@@ -23005,15 +23506,15 @@
       <c r="C76" s="8">
         <v>499.23</v>
       </c>
-      <c r="D76" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A76,Entrada!$D$1)</f>
+      <c r="D76" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A76,In!$D$1)</f>
         <v>475</v>
       </c>
-      <c r="E76" s="13">
-        <f>SUMIF(Saida!$B:$B,$A76,Saida!$D:$D)</f>
+      <c r="E76" s="11">
+        <f>SUMIF(Out!$B:$B,$A76,Out!$D:$D)</f>
         <v>112</v>
       </c>
-      <c r="F76" s="14">
+      <c r="F76" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>363</v>
       </c>
@@ -23021,8 +23522,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>181220.49000000002</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H76" ca="1">_xlfn.IFS($F76=0,'Product status'!$A$3,$F76&lt;0,'Product status'!$A$4,AND($F76&gt;=1,$F76&lt;=20),'Product status'!$A$5,AND($F76&gt;=21,$F76&lt;=100),'Product status'!$A$6,$F76&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>77</v>
       </c>
@@ -23032,15 +23537,15 @@
       <c r="C77" s="8">
         <v>833.87</v>
       </c>
-      <c r="D77" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A77,Entrada!$D$1)</f>
+      <c r="D77" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A77,In!$D$1)</f>
         <v>424</v>
       </c>
-      <c r="E77" s="13">
-        <f>SUMIF(Saida!$B:$B,$A77,Saida!$D:$D)</f>
+      <c r="E77" s="11">
+        <f>SUMIF(Out!$B:$B,$A77,Out!$D:$D)</f>
         <v>232</v>
       </c>
-      <c r="F77" s="14">
+      <c r="F77" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>192</v>
       </c>
@@ -23048,8 +23553,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>160103.04000000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H77" ca="1">_xlfn.IFS($F77=0,'Product status'!$A$3,$F77&lt;0,'Product status'!$A$4,AND($F77&gt;=1,$F77&lt;=20),'Product status'!$A$5,AND($F77&gt;=21,$F77&lt;=100),'Product status'!$A$6,$F77&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>94</v>
       </c>
@@ -23059,15 +23568,15 @@
       <c r="C78" s="8">
         <v>280.29000000000002</v>
       </c>
-      <c r="D78" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A78,Entrada!$D$1)</f>
+      <c r="D78" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A78,In!$D$1)</f>
         <v>126</v>
       </c>
-      <c r="E78" s="13">
-        <f>SUMIF(Saida!$B:$B,$A78,Saida!$D:$D)</f>
+      <c r="E78" s="11">
+        <f>SUMIF(Out!$B:$B,$A78,Out!$D:$D)</f>
         <v>172</v>
       </c>
-      <c r="F78" s="14">
+      <c r="F78" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>-46</v>
       </c>
@@ -23075,8 +23584,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>-12893.34</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H78" ca="1">_xlfn.IFS($F78=0,'Product status'!$A$3,$F78&lt;0,'Product status'!$A$4,AND($F78&gt;=1,$F78&lt;=20),'Product status'!$A$5,AND($F78&gt;=21,$F78&lt;=100),'Product status'!$A$6,$F78&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Negative Stock	</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>83</v>
       </c>
@@ -23086,15 +23599,15 @@
       <c r="C79" s="8">
         <v>818.42</v>
       </c>
-      <c r="D79" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A79,Entrada!$D$1)</f>
+      <c r="D79" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A79,In!$D$1)</f>
         <v>410</v>
       </c>
-      <c r="E79" s="13">
-        <f>SUMIF(Saida!$B:$B,$A79,Saida!$D:$D)</f>
+      <c r="E79" s="11">
+        <f>SUMIF(Out!$B:$B,$A79,Out!$D:$D)</f>
         <v>154</v>
       </c>
-      <c r="F79" s="14">
+      <c r="F79" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>256</v>
       </c>
@@ -23102,8 +23615,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>209515.51999999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H79" ca="1">_xlfn.IFS($F79=0,'Product status'!$A$3,$F79&lt;0,'Product status'!$A$4,AND($F79&gt;=1,$F79&lt;=20),'Product status'!$A$5,AND($F79&gt;=21,$F79&lt;=100),'Product status'!$A$6,$F79&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>111</v>
       </c>
@@ -23113,15 +23630,15 @@
       <c r="C80" s="8">
         <v>830.71</v>
       </c>
-      <c r="D80" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A80,Entrada!$D$1)</f>
+      <c r="D80" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A80,In!$D$1)</f>
         <v>193</v>
       </c>
-      <c r="E80" s="13">
-        <f>SUMIF(Saida!$B:$B,$A80,Saida!$D:$D)</f>
+      <c r="E80" s="11">
+        <f>SUMIF(Out!$B:$B,$A80,Out!$D:$D)</f>
         <v>74</v>
       </c>
-      <c r="F80" s="14">
+      <c r="F80" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>119</v>
       </c>
@@ -23129,8 +23646,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>98854.49</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H80" ca="1">_xlfn.IFS($F80=0,'Product status'!$A$3,$F80&lt;0,'Product status'!$A$4,AND($F80&gt;=1,$F80&lt;=20),'Product status'!$A$5,AND($F80&gt;=21,$F80&lt;=100),'Product status'!$A$6,$F80&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>103</v>
       </c>
@@ -23140,15 +23661,15 @@
       <c r="C81" s="8">
         <v>306.2</v>
       </c>
-      <c r="D81" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A81,Entrada!$D$1)</f>
+      <c r="D81" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A81,In!$D$1)</f>
         <v>447</v>
       </c>
-      <c r="E81" s="13">
-        <f>SUMIF(Saida!$B:$B,$A81,Saida!$D:$D)</f>
+      <c r="E81" s="11">
+        <f>SUMIF(Out!$B:$B,$A81,Out!$D:$D)</f>
         <v>131</v>
       </c>
-      <c r="F81" s="14">
+      <c r="F81" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>316</v>
       </c>
@@ -23156,8 +23677,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>96759.2</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H81" ca="1">_xlfn.IFS($F81=0,'Product status'!$A$3,$F81&lt;0,'Product status'!$A$4,AND($F81&gt;=1,$F81&lt;=20),'Product status'!$A$5,AND($F81&gt;=21,$F81&lt;=100),'Product status'!$A$6,$F81&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>51</v>
       </c>
@@ -23167,15 +23692,15 @@
       <c r="C82" s="8">
         <v>576.61</v>
       </c>
-      <c r="D82" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A82,Entrada!$D$1)</f>
+      <c r="D82" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A82,In!$D$1)</f>
         <v>698</v>
       </c>
-      <c r="E82" s="13">
-        <f>SUMIF(Saida!$B:$B,$A82,Saida!$D:$D)</f>
+      <c r="E82" s="11">
+        <f>SUMIF(Out!$B:$B,$A82,Out!$D:$D)</f>
         <v>107</v>
       </c>
-      <c r="F82" s="14">
+      <c r="F82" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>591</v>
       </c>
@@ -23183,8 +23708,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>340776.51</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H82" ca="1">_xlfn.IFS($F82=0,'Product status'!$A$3,$F82&lt;0,'Product status'!$A$4,AND($F82&gt;=1,$F82&lt;=20),'Product status'!$A$5,AND($F82&gt;=21,$F82&lt;=100),'Product status'!$A$6,$F82&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>74</v>
       </c>
@@ -23194,15 +23723,15 @@
       <c r="C83" s="8">
         <v>188.01</v>
       </c>
-      <c r="D83" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A83,Entrada!$D$1)</f>
+      <c r="D83" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A83,In!$D$1)</f>
         <v>310</v>
       </c>
-      <c r="E83" s="13">
-        <f>SUMIF(Saida!$B:$B,$A83,Saida!$D:$D)</f>
+      <c r="E83" s="11">
+        <f>SUMIF(Out!$B:$B,$A83,Out!$D:$D)</f>
         <v>207</v>
       </c>
-      <c r="F83" s="14">
+      <c r="F83" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>103</v>
       </c>
@@ -23210,8 +23739,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>19365.03</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H83" ca="1">_xlfn.IFS($F83=0,'Product status'!$A$3,$F83&lt;0,'Product status'!$A$4,AND($F83&gt;=1,$F83&lt;=20),'Product status'!$A$5,AND($F83&gt;=21,$F83&lt;=100),'Product status'!$A$6,$F83&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>33</v>
       </c>
@@ -23221,15 +23754,15 @@
       <c r="C84" s="8">
         <v>401.23</v>
       </c>
-      <c r="D84" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A84,Entrada!$D$1)</f>
+      <c r="D84" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A84,In!$D$1)</f>
         <v>303</v>
       </c>
-      <c r="E84" s="13">
-        <f>SUMIF(Saida!$B:$B,$A84,Saida!$D:$D)</f>
+      <c r="E84" s="11">
+        <f>SUMIF(Out!$B:$B,$A84,Out!$D:$D)</f>
         <v>13</v>
       </c>
-      <c r="F84" s="14">
+      <c r="F84" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>290</v>
       </c>
@@ -23237,8 +23770,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>116356.70000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H84" ca="1">_xlfn.IFS($F84=0,'Product status'!$A$3,$F84&lt;0,'Product status'!$A$4,AND($F84&gt;=1,$F84&lt;=20),'Product status'!$A$5,AND($F84&gt;=21,$F84&lt;=100),'Product status'!$A$6,$F84&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>128</v>
       </c>
@@ -23248,15 +23785,15 @@
       <c r="C85" s="8">
         <v>811.47</v>
       </c>
-      <c r="D85" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A85,Entrada!$D$1)</f>
+      <c r="D85" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A85,In!$D$1)</f>
         <v>257</v>
       </c>
-      <c r="E85" s="13">
-        <f>SUMIF(Saida!$B:$B,$A85,Saida!$D:$D)</f>
+      <c r="E85" s="11">
+        <f>SUMIF(Out!$B:$B,$A85,Out!$D:$D)</f>
         <v>196</v>
       </c>
-      <c r="F85" s="14">
+      <c r="F85" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>61</v>
       </c>
@@ -23264,8 +23801,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>49499.67</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H85" ca="1">_xlfn.IFS($F85=0,'Product status'!$A$3,$F85&lt;0,'Product status'!$A$4,AND($F85&gt;=1,$F85&lt;=20),'Product status'!$A$5,AND($F85&gt;=21,$F85&lt;=100),'Product status'!$A$6,$F85&gt;100,'Product status'!$A$7)</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>104</v>
       </c>
@@ -23275,15 +23816,15 @@
       <c r="C86" s="8">
         <v>447.66</v>
       </c>
-      <c r="D86" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A86,Entrada!$D$1)</f>
+      <c r="D86" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A86,In!$D$1)</f>
         <v>353</v>
       </c>
-      <c r="E86" s="13">
-        <f>SUMIF(Saida!$B:$B,$A86,Saida!$D:$D)</f>
+      <c r="E86" s="11">
+        <f>SUMIF(Out!$B:$B,$A86,Out!$D:$D)</f>
         <v>159</v>
       </c>
-      <c r="F86" s="14">
+      <c r="F86" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>194</v>
       </c>
@@ -23291,8 +23832,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>86846.040000000008</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H86" ca="1">_xlfn.IFS($F86=0,'Product status'!$A$3,$F86&lt;0,'Product status'!$A$4,AND($F86&gt;=1,$F86&lt;=20),'Product status'!$A$5,AND($F86&gt;=21,$F86&lt;=100),'Product status'!$A$6,$F86&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>93</v>
       </c>
@@ -23302,15 +23847,15 @@
       <c r="C87" s="8">
         <v>670.72</v>
       </c>
-      <c r="D87" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A87,Entrada!$D$1)</f>
+      <c r="D87" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A87,In!$D$1)</f>
         <v>552</v>
       </c>
-      <c r="E87" s="13">
-        <f>SUMIF(Saida!$B:$B,$A87,Saida!$D:$D)</f>
+      <c r="E87" s="11">
+        <f>SUMIF(Out!$B:$B,$A87,Out!$D:$D)</f>
         <v>316</v>
       </c>
-      <c r="F87" s="14">
+      <c r="F87" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>236</v>
       </c>
@@ -23318,8 +23863,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>158289.92000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H87" ca="1">_xlfn.IFS($F87=0,'Product status'!$A$3,$F87&lt;0,'Product status'!$A$4,AND($F87&gt;=1,$F87&lt;=20),'Product status'!$A$5,AND($F87&gt;=21,$F87&lt;=100),'Product status'!$A$6,$F87&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>132</v>
       </c>
@@ -23329,15 +23878,15 @@
       <c r="C88" s="8">
         <v>302.33999999999997</v>
       </c>
-      <c r="D88" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A88,Entrada!$D$1)</f>
+      <c r="D88" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A88,In!$D$1)</f>
         <v>439</v>
       </c>
-      <c r="E88" s="13">
-        <f>SUMIF(Saida!$B:$B,$A88,Saida!$D:$D)</f>
+      <c r="E88" s="11">
+        <f>SUMIF(Out!$B:$B,$A88,Out!$D:$D)</f>
         <v>147</v>
       </c>
-      <c r="F88" s="14">
+      <c r="F88" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>292</v>
       </c>
@@ -23345,8 +23894,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>88283.28</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H88" ca="1">_xlfn.IFS($F88=0,'Product status'!$A$3,$F88&lt;0,'Product status'!$A$4,AND($F88&gt;=1,$F88&lt;=20),'Product status'!$A$5,AND($F88&gt;=21,$F88&lt;=100),'Product status'!$A$6,$F88&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>80</v>
       </c>
@@ -23356,15 +23909,15 @@
       <c r="C89" s="8">
         <v>658.98</v>
       </c>
-      <c r="D89" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A89,Entrada!$D$1)</f>
+      <c r="D89" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A89,In!$D$1)</f>
         <v>45</v>
       </c>
-      <c r="E89" s="13">
-        <f>SUMIF(Saida!$B:$B,$A89,Saida!$D:$D)</f>
+      <c r="E89" s="11">
+        <f>SUMIF(Out!$B:$B,$A89,Out!$D:$D)</f>
         <v>205</v>
       </c>
-      <c r="F89" s="14">
+      <c r="F89" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>-160</v>
       </c>
@@ -23372,8 +23925,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>-105436.8</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H89" ca="1">_xlfn.IFS($F89=0,'Product status'!$A$3,$F89&lt;0,'Product status'!$A$4,AND($F89&gt;=1,$F89&lt;=20),'Product status'!$A$5,AND($F89&gt;=21,$F89&lt;=100),'Product status'!$A$6,$F89&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Negative Stock	</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>61</v>
       </c>
@@ -23383,15 +23940,15 @@
       <c r="C90" s="8">
         <v>294.33</v>
       </c>
-      <c r="D90" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A90,Entrada!$D$1)</f>
+      <c r="D90" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A90,In!$D$1)</f>
         <v>799</v>
       </c>
-      <c r="E90" s="13">
-        <f>SUMIF(Saida!$B:$B,$A90,Saida!$D:$D)</f>
+      <c r="E90" s="11">
+        <f>SUMIF(Out!$B:$B,$A90,Out!$D:$D)</f>
         <v>18</v>
       </c>
-      <c r="F90" s="14">
+      <c r="F90" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>781</v>
       </c>
@@ -23399,8 +23956,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>229871.72999999998</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H90" ca="1">_xlfn.IFS($F90=0,'Product status'!$A$3,$F90&lt;0,'Product status'!$A$4,AND($F90&gt;=1,$F90&lt;=20),'Product status'!$A$5,AND($F90&gt;=21,$F90&lt;=100),'Product status'!$A$6,$F90&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>141</v>
       </c>
@@ -23410,15 +23971,15 @@
       <c r="C91" s="8">
         <v>499.44</v>
       </c>
-      <c r="D91" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A91,Entrada!$D$1)</f>
+      <c r="D91" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A91,In!$D$1)</f>
         <v>0</v>
       </c>
-      <c r="E91" s="13">
-        <f>SUMIF(Saida!$B:$B,$A91,Saida!$D:$D)</f>
+      <c r="E91" s="11">
+        <f>SUMIF(Out!$B:$B,$A91,Out!$D:$D)</f>
         <v>277</v>
       </c>
-      <c r="F91" s="14">
+      <c r="F91" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>-277</v>
       </c>
@@ -23426,8 +23987,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>-138344.88</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H91" ca="1">_xlfn.IFS($F91=0,'Product status'!$A$3,$F91&lt;0,'Product status'!$A$4,AND($F91&gt;=1,$F91&lt;=20),'Product status'!$A$5,AND($F91&gt;=21,$F91&lt;=100),'Product status'!$A$6,$F91&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Negative Stock	</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>18</v>
       </c>
@@ -23437,15 +24002,15 @@
       <c r="C92" s="8">
         <v>787.03</v>
       </c>
-      <c r="D92" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A92,Entrada!$D$1)</f>
+      <c r="D92" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A92,In!$D$1)</f>
         <v>356</v>
       </c>
-      <c r="E92" s="13">
-        <f>SUMIF(Saida!$B:$B,$A92,Saida!$D:$D)</f>
+      <c r="E92" s="11">
+        <f>SUMIF(Out!$B:$B,$A92,Out!$D:$D)</f>
         <v>169</v>
       </c>
-      <c r="F92" s="14">
+      <c r="F92" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>187</v>
       </c>
@@ -23453,8 +24018,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>147174.60999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H92" ca="1">_xlfn.IFS($F92=0,'Product status'!$A$3,$F92&lt;0,'Product status'!$A$4,AND($F92&gt;=1,$F92&lt;=20),'Product status'!$A$5,AND($F92&gt;=21,$F92&lt;=100),'Product status'!$A$6,$F92&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>46</v>
       </c>
@@ -23464,15 +24033,15 @@
       <c r="C93" s="8">
         <v>806.69</v>
       </c>
-      <c r="D93" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A93,Entrada!$D$1)</f>
+      <c r="D93" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A93,In!$D$1)</f>
         <v>355</v>
       </c>
-      <c r="E93" s="13">
-        <f>SUMIF(Saida!$B:$B,$A93,Saida!$D:$D)</f>
+      <c r="E93" s="11">
+        <f>SUMIF(Out!$B:$B,$A93,Out!$D:$D)</f>
         <v>196</v>
       </c>
-      <c r="F93" s="14">
+      <c r="F93" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>159</v>
       </c>
@@ -23480,8 +24049,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>128263.71</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H93" ca="1">_xlfn.IFS($F93=0,'Product status'!$A$3,$F93&lt;0,'Product status'!$A$4,AND($F93&gt;=1,$F93&lt;=20),'Product status'!$A$5,AND($F93&gt;=21,$F93&lt;=100),'Product status'!$A$6,$F93&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>124</v>
       </c>
@@ -23491,15 +24064,15 @@
       <c r="C94" s="8">
         <v>334.38</v>
       </c>
-      <c r="D94" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A94,Entrada!$D$1)</f>
+      <c r="D94" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A94,In!$D$1)</f>
         <v>222</v>
       </c>
-      <c r="E94" s="13">
-        <f>SUMIF(Saida!$B:$B,$A94,Saida!$D:$D)</f>
+      <c r="E94" s="11">
+        <f>SUMIF(Out!$B:$B,$A94,Out!$D:$D)</f>
         <v>297</v>
       </c>
-      <c r="F94" s="14">
+      <c r="F94" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>-75</v>
       </c>
@@ -23507,8 +24080,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>-25078.5</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H94" ca="1">_xlfn.IFS($F94=0,'Product status'!$A$3,$F94&lt;0,'Product status'!$A$4,AND($F94&gt;=1,$F94&lt;=20),'Product status'!$A$5,AND($F94&gt;=21,$F94&lt;=100),'Product status'!$A$6,$F94&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Negative Stock	</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>143</v>
       </c>
@@ -23518,15 +24095,15 @@
       <c r="C95" s="8">
         <v>912.84</v>
       </c>
-      <c r="D95" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A95,Entrada!$D$1)</f>
+      <c r="D95" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A95,In!$D$1)</f>
         <v>0</v>
       </c>
-      <c r="E95" s="13">
-        <f>SUMIF(Saida!$B:$B,$A95,Saida!$D:$D)</f>
+      <c r="E95" s="11">
+        <f>SUMIF(Out!$B:$B,$A95,Out!$D:$D)</f>
         <v>51</v>
       </c>
-      <c r="F95" s="14">
+      <c r="F95" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>-51</v>
       </c>
@@ -23534,8 +24111,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>-46554.840000000004</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H95" ca="1">_xlfn.IFS($F95=0,'Product status'!$A$3,$F95&lt;0,'Product status'!$A$4,AND($F95&gt;=1,$F95&lt;=20),'Product status'!$A$5,AND($F95&gt;=21,$F95&lt;=100),'Product status'!$A$6,$F95&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Negative Stock	</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>48</v>
       </c>
@@ -23545,15 +24126,15 @@
       <c r="C96" s="8">
         <v>349.59</v>
       </c>
-      <c r="D96" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A96,Entrada!$D$1)</f>
+      <c r="D96" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A96,In!$D$1)</f>
         <v>335</v>
       </c>
-      <c r="E96" s="13">
-        <f>SUMIF(Saida!$B:$B,$A96,Saida!$D:$D)</f>
+      <c r="E96" s="11">
+        <f>SUMIF(Out!$B:$B,$A96,Out!$D:$D)</f>
         <v>179</v>
       </c>
-      <c r="F96" s="14">
+      <c r="F96" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>156</v>
       </c>
@@ -23561,8 +24142,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>54536.039999999994</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H96" ca="1">_xlfn.IFS($F96=0,'Product status'!$A$3,$F96&lt;0,'Product status'!$A$4,AND($F96&gt;=1,$F96&lt;=20),'Product status'!$A$5,AND($F96&gt;=21,$F96&lt;=100),'Product status'!$A$6,$F96&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>44</v>
       </c>
@@ -23572,15 +24157,15 @@
       <c r="C97" s="8">
         <v>959.82</v>
       </c>
-      <c r="D97" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A97,Entrada!$D$1)</f>
+      <c r="D97" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A97,In!$D$1)</f>
         <v>509</v>
       </c>
-      <c r="E97" s="13">
-        <f>SUMIF(Saida!$B:$B,$A97,Saida!$D:$D)</f>
+      <c r="E97" s="11">
+        <f>SUMIF(Out!$B:$B,$A97,Out!$D:$D)</f>
         <v>54</v>
       </c>
-      <c r="F97" s="14">
+      <c r="F97" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>455</v>
       </c>
@@ -23588,8 +24173,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>436718.10000000003</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H97" ca="1">_xlfn.IFS($F97=0,'Product status'!$A$3,$F97&lt;0,'Product status'!$A$4,AND($F97&gt;=1,$F97&lt;=20),'Product status'!$A$5,AND($F97&gt;=21,$F97&lt;=100),'Product status'!$A$6,$F97&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>90</v>
       </c>
@@ -23599,15 +24188,15 @@
       <c r="C98" s="8">
         <v>970.1</v>
       </c>
-      <c r="D98" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A98,Entrada!$D$1)</f>
+      <c r="D98" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A98,In!$D$1)</f>
         <v>376</v>
       </c>
-      <c r="E98" s="13">
-        <f>SUMIF(Saida!$B:$B,$A98,Saida!$D:$D)</f>
+      <c r="E98" s="11">
+        <f>SUMIF(Out!$B:$B,$A98,Out!$D:$D)</f>
         <v>182</v>
       </c>
-      <c r="F98" s="14">
+      <c r="F98" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>194</v>
       </c>
@@ -23615,8 +24204,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>188199.4</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H98" ca="1">_xlfn.IFS($F98=0,'Product status'!$A$3,$F98&lt;0,'Product status'!$A$4,AND($F98&gt;=1,$F98&lt;=20),'Product status'!$A$5,AND($F98&gt;=21,$F98&lt;=100),'Product status'!$A$6,$F98&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>95</v>
       </c>
@@ -23626,15 +24219,15 @@
       <c r="C99" s="8">
         <v>950.74</v>
       </c>
-      <c r="D99" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A99,Entrada!$D$1)</f>
+      <c r="D99" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A99,In!$D$1)</f>
         <v>187</v>
       </c>
-      <c r="E99" s="13">
-        <f>SUMIF(Saida!$B:$B,$A99,Saida!$D:$D)</f>
+      <c r="E99" s="11">
+        <f>SUMIF(Out!$B:$B,$A99,Out!$D:$D)</f>
         <v>64</v>
       </c>
-      <c r="F99" s="14">
+      <c r="F99" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>123</v>
       </c>
@@ -23642,8 +24235,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>116941.02</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H99" ca="1">_xlfn.IFS($F99=0,'Product status'!$A$3,$F99&lt;0,'Product status'!$A$4,AND($F99&gt;=1,$F99&lt;=20),'Product status'!$A$5,AND($F99&gt;=21,$F99&lt;=100),'Product status'!$A$6,$F99&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>114</v>
       </c>
@@ -23653,15 +24250,15 @@
       <c r="C100" s="8">
         <v>405.92</v>
       </c>
-      <c r="D100" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A100,Entrada!$D$1)</f>
+      <c r="D100" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A100,In!$D$1)</f>
         <v>413</v>
       </c>
-      <c r="E100" s="13">
-        <f>SUMIF(Saida!$B:$B,$A100,Saida!$D:$D)</f>
+      <c r="E100" s="11">
+        <f>SUMIF(Out!$B:$B,$A100,Out!$D:$D)</f>
         <v>132</v>
       </c>
-      <c r="F100" s="14">
+      <c r="F100" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>281</v>
       </c>
@@ -23669,8 +24266,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>114063.52</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H100" ca="1">_xlfn.IFS($F100=0,'Product status'!$A$3,$F100&lt;0,'Product status'!$A$4,AND($F100&gt;=1,$F100&lt;=20),'Product status'!$A$5,AND($F100&gt;=21,$F100&lt;=100),'Product status'!$A$6,$F100&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>87</v>
       </c>
@@ -23680,15 +24281,15 @@
       <c r="C101" s="8">
         <v>510.54</v>
       </c>
-      <c r="D101" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A101,Entrada!$D$1)</f>
+      <c r="D101" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A101,In!$D$1)</f>
         <v>686</v>
       </c>
-      <c r="E101" s="13">
-        <f>SUMIF(Saida!$B:$B,$A101,Saida!$D:$D)</f>
+      <c r="E101" s="11">
+        <f>SUMIF(Out!$B:$B,$A101,Out!$D:$D)</f>
         <v>205</v>
       </c>
-      <c r="F101" s="14">
+      <c r="F101" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>481</v>
       </c>
@@ -23696,8 +24297,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>245569.74000000002</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H101" ca="1">_xlfn.IFS($F101=0,'Product status'!$A$3,$F101&lt;0,'Product status'!$A$4,AND($F101&gt;=1,$F101&lt;=20),'Product status'!$A$5,AND($F101&gt;=21,$F101&lt;=100),'Product status'!$A$6,$F101&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>123</v>
       </c>
@@ -23707,15 +24312,15 @@
       <c r="C102" s="8">
         <v>950.93</v>
       </c>
-      <c r="D102" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A102,Entrada!$D$1)</f>
+      <c r="D102" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A102,In!$D$1)</f>
         <v>190</v>
       </c>
-      <c r="E102" s="13">
-        <f>SUMIF(Saida!$B:$B,$A102,Saida!$D:$D)</f>
+      <c r="E102" s="11">
+        <f>SUMIF(Out!$B:$B,$A102,Out!$D:$D)</f>
         <v>213</v>
       </c>
-      <c r="F102" s="14">
+      <c r="F102" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>-23</v>
       </c>
@@ -23723,8 +24328,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>-21871.39</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H102" ca="1">_xlfn.IFS($F102=0,'Product status'!$A$3,$F102&lt;0,'Product status'!$A$4,AND($F102&gt;=1,$F102&lt;=20),'Product status'!$A$5,AND($F102&gt;=21,$F102&lt;=100),'Product status'!$A$6,$F102&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Negative Stock	</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>105</v>
       </c>
@@ -23734,15 +24343,15 @@
       <c r="C103" s="8">
         <v>676.7</v>
       </c>
-      <c r="D103" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A103,Entrada!$D$1)</f>
+      <c r="D103" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A103,In!$D$1)</f>
         <v>570</v>
       </c>
-      <c r="E103" s="13">
-        <f>SUMIF(Saida!$B:$B,$A103,Saida!$D:$D)</f>
+      <c r="E103" s="11">
+        <f>SUMIF(Out!$B:$B,$A103,Out!$D:$D)</f>
         <v>152</v>
       </c>
-      <c r="F103" s="14">
+      <c r="F103" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>418</v>
       </c>
@@ -23750,8 +24359,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>282860.60000000003</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H103" ca="1">_xlfn.IFS($F103=0,'Product status'!$A$3,$F103&lt;0,'Product status'!$A$4,AND($F103&gt;=1,$F103&lt;=20),'Product status'!$A$5,AND($F103&gt;=21,$F103&lt;=100),'Product status'!$A$6,$F103&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>69</v>
       </c>
@@ -23761,15 +24374,15 @@
       <c r="C104" s="8">
         <v>383.27</v>
       </c>
-      <c r="D104" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A104,Entrada!$D$1)</f>
+      <c r="D104" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A104,In!$D$1)</f>
         <v>413</v>
       </c>
-      <c r="E104" s="13">
-        <f>SUMIF(Saida!$B:$B,$A104,Saida!$D:$D)</f>
+      <c r="E104" s="11">
+        <f>SUMIF(Out!$B:$B,$A104,Out!$D:$D)</f>
         <v>274</v>
       </c>
-      <c r="F104" s="14">
+      <c r="F104" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>139</v>
       </c>
@@ -23777,8 +24390,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>53274.53</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H104" ca="1">_xlfn.IFS($F104=0,'Product status'!$A$3,$F104&lt;0,'Product status'!$A$4,AND($F104&gt;=1,$F104&lt;=20),'Product status'!$A$5,AND($F104&gt;=21,$F104&lt;=100),'Product status'!$A$6,$F104&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>56</v>
       </c>
@@ -23788,15 +24405,15 @@
       <c r="C105" s="8">
         <v>597.80999999999995</v>
       </c>
-      <c r="D105" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A105,Entrada!$D$1)</f>
+      <c r="D105" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A105,In!$D$1)</f>
         <v>168</v>
       </c>
-      <c r="E105" s="13">
-        <f>SUMIF(Saida!$B:$B,$A105,Saida!$D:$D)</f>
+      <c r="E105" s="11">
+        <f>SUMIF(Out!$B:$B,$A105,Out!$D:$D)</f>
         <v>239</v>
       </c>
-      <c r="F105" s="14">
+      <c r="F105" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>-71</v>
       </c>
@@ -23804,8 +24421,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>-42444.509999999995</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H105" ca="1">_xlfn.IFS($F105=0,'Product status'!$A$3,$F105&lt;0,'Product status'!$A$4,AND($F105&gt;=1,$F105&lt;=20),'Product status'!$A$5,AND($F105&gt;=21,$F105&lt;=100),'Product status'!$A$6,$F105&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Negative Stock	</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>100</v>
       </c>
@@ -23815,15 +24436,15 @@
       <c r="C106" s="8">
         <v>549.75</v>
       </c>
-      <c r="D106" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A106,Entrada!$D$1)</f>
+      <c r="D106" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A106,In!$D$1)</f>
         <v>223</v>
       </c>
-      <c r="E106" s="13">
-        <f>SUMIF(Saida!$B:$B,$A106,Saida!$D:$D)</f>
+      <c r="E106" s="11">
+        <f>SUMIF(Out!$B:$B,$A106,Out!$D:$D)</f>
         <v>0</v>
       </c>
-      <c r="F106" s="14">
+      <c r="F106" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>223</v>
       </c>
@@ -23831,8 +24452,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>122594.25</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H106" ca="1">_xlfn.IFS($F106=0,'Product status'!$A$3,$F106&lt;0,'Product status'!$A$4,AND($F106&gt;=1,$F106&lt;=20),'Product status'!$A$5,AND($F106&gt;=21,$F106&lt;=100),'Product status'!$A$6,$F106&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>115</v>
       </c>
@@ -23842,15 +24467,15 @@
       <c r="C107" s="8">
         <v>576.48</v>
       </c>
-      <c r="D107" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A107,Entrada!$D$1)</f>
+      <c r="D107" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A107,In!$D$1)</f>
         <v>322</v>
       </c>
-      <c r="E107" s="13">
-        <f>SUMIF(Saida!$B:$B,$A107,Saida!$D:$D)</f>
+      <c r="E107" s="11">
+        <f>SUMIF(Out!$B:$B,$A107,Out!$D:$D)</f>
         <v>158</v>
       </c>
-      <c r="F107" s="14">
+      <c r="F107" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>164</v>
       </c>
@@ -23858,8 +24483,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>94542.720000000001</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H107" ca="1">_xlfn.IFS($F107=0,'Product status'!$A$3,$F107&lt;0,'Product status'!$A$4,AND($F107&gt;=1,$F107&lt;=20),'Product status'!$A$5,AND($F107&gt;=21,$F107&lt;=100),'Product status'!$A$6,$F107&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>122</v>
       </c>
@@ -23869,15 +24498,15 @@
       <c r="C108" s="8">
         <v>931.11</v>
       </c>
-      <c r="D108" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A108,Entrada!$D$1)</f>
+      <c r="D108" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A108,In!$D$1)</f>
         <v>323</v>
       </c>
-      <c r="E108" s="13">
-        <f>SUMIF(Saida!$B:$B,$A108,Saida!$D:$D)</f>
+      <c r="E108" s="11">
+        <f>SUMIF(Out!$B:$B,$A108,Out!$D:$D)</f>
         <v>104</v>
       </c>
-      <c r="F108" s="14">
+      <c r="F108" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>219</v>
       </c>
@@ -23885,8 +24514,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>203913.09</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H108" ca="1">_xlfn.IFS($F108=0,'Product status'!$A$3,$F108&lt;0,'Product status'!$A$4,AND($F108&gt;=1,$F108&lt;=20),'Product status'!$A$5,AND($F108&gt;=21,$F108&lt;=100),'Product status'!$A$6,$F108&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>27</v>
       </c>
@@ -23896,15 +24529,15 @@
       <c r="C109" s="8">
         <v>967.84</v>
       </c>
-      <c r="D109" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A109,Entrada!$D$1)</f>
+      <c r="D109" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A109,In!$D$1)</f>
         <v>117</v>
       </c>
-      <c r="E109" s="13">
-        <f>SUMIF(Saida!$B:$B,$A109,Saida!$D:$D)</f>
+      <c r="E109" s="11">
+        <f>SUMIF(Out!$B:$B,$A109,Out!$D:$D)</f>
         <v>0</v>
       </c>
-      <c r="F109" s="14">
+      <c r="F109" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>117</v>
       </c>
@@ -23912,8 +24545,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>113237.28</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H109" ca="1">_xlfn.IFS($F109=0,'Product status'!$A$3,$F109&lt;0,'Product status'!$A$4,AND($F109&gt;=1,$F109&lt;=20),'Product status'!$A$5,AND($F109&gt;=21,$F109&lt;=100),'Product status'!$A$6,$F109&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>134</v>
       </c>
@@ -23923,15 +24560,15 @@
       <c r="C110" s="8">
         <v>682.72</v>
       </c>
-      <c r="D110" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A110,Entrada!$D$1)</f>
+      <c r="D110" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A110,In!$D$1)</f>
         <v>244</v>
       </c>
-      <c r="E110" s="13">
-        <f>SUMIF(Saida!$B:$B,$A110,Saida!$D:$D)</f>
+      <c r="E110" s="11">
+        <f>SUMIF(Out!$B:$B,$A110,Out!$D:$D)</f>
         <v>94</v>
       </c>
-      <c r="F110" s="14">
+      <c r="F110" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>150</v>
       </c>
@@ -23939,8 +24576,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>102408</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H110" ca="1">_xlfn.IFS($F110=0,'Product status'!$A$3,$F110&lt;0,'Product status'!$A$4,AND($F110&gt;=1,$F110&lt;=20),'Product status'!$A$5,AND($F110&gt;=21,$F110&lt;=100),'Product status'!$A$6,$F110&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>86</v>
       </c>
@@ -23950,15 +24591,15 @@
       <c r="C111" s="8">
         <v>418.89</v>
       </c>
-      <c r="D111" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A111,Entrada!$D$1)</f>
+      <c r="D111" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A111,In!$D$1)</f>
         <v>196</v>
       </c>
-      <c r="E111" s="13">
-        <f>SUMIF(Saida!$B:$B,$A111,Saida!$D:$D)</f>
+      <c r="E111" s="11">
+        <f>SUMIF(Out!$B:$B,$A111,Out!$D:$D)</f>
         <v>132</v>
       </c>
-      <c r="F111" s="14">
+      <c r="F111" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>64</v>
       </c>
@@ -23966,8 +24607,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>26808.959999999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H111" ca="1">_xlfn.IFS($F111=0,'Product status'!$A$3,$F111&lt;0,'Product status'!$A$4,AND($F111&gt;=1,$F111&lt;=20),'Product status'!$A$5,AND($F111&gt;=21,$F111&lt;=100),'Product status'!$A$6,$F111&gt;100,'Product status'!$A$7)</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>102</v>
       </c>
@@ -23977,15 +24622,15 @@
       <c r="C112" s="8">
         <v>927.57</v>
       </c>
-      <c r="D112" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A112,Entrada!$D$1)</f>
+      <c r="D112" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A112,In!$D$1)</f>
         <v>203</v>
       </c>
-      <c r="E112" s="13">
-        <f>SUMIF(Saida!$B:$B,$A112,Saida!$D:$D)</f>
+      <c r="E112" s="11">
+        <f>SUMIF(Out!$B:$B,$A112,Out!$D:$D)</f>
         <v>118</v>
       </c>
-      <c r="F112" s="14">
+      <c r="F112" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>85</v>
       </c>
@@ -23993,8 +24638,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>78843.45</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H112" ca="1">_xlfn.IFS($F112=0,'Product status'!$A$3,$F112&lt;0,'Product status'!$A$4,AND($F112&gt;=1,$F112&lt;=20),'Product status'!$A$5,AND($F112&gt;=21,$F112&lt;=100),'Product status'!$A$6,$F112&gt;100,'Product status'!$A$7)</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>84</v>
       </c>
@@ -24004,15 +24653,15 @@
       <c r="C113" s="8">
         <v>898.39</v>
       </c>
-      <c r="D113" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A113,Entrada!$D$1)</f>
+      <c r="D113" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A113,In!$D$1)</f>
         <v>180</v>
       </c>
-      <c r="E113" s="13">
-        <f>SUMIF(Saida!$B:$B,$A113,Saida!$D:$D)</f>
+      <c r="E113" s="11">
+        <f>SUMIF(Out!$B:$B,$A113,Out!$D:$D)</f>
         <v>3</v>
       </c>
-      <c r="F113" s="14">
+      <c r="F113" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>177</v>
       </c>
@@ -24020,8 +24669,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>159015.03</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H113" ca="1">_xlfn.IFS($F113=0,'Product status'!$A$3,$F113&lt;0,'Product status'!$A$4,AND($F113&gt;=1,$F113&lt;=20),'Product status'!$A$5,AND($F113&gt;=21,$F113&lt;=100),'Product status'!$A$6,$F113&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>92</v>
       </c>
@@ -24031,15 +24684,15 @@
       <c r="C114" s="8">
         <v>333.64</v>
       </c>
-      <c r="D114" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A114,Entrada!$D$1)</f>
+      <c r="D114" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A114,In!$D$1)</f>
         <v>337</v>
       </c>
-      <c r="E114" s="13">
-        <f>SUMIF(Saida!$B:$B,$A114,Saida!$D:$D)</f>
+      <c r="E114" s="11">
+        <f>SUMIF(Out!$B:$B,$A114,Out!$D:$D)</f>
         <v>150</v>
       </c>
-      <c r="F114" s="14">
+      <c r="F114" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>187</v>
       </c>
@@ -24047,8 +24700,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>62390.68</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H114" ca="1">_xlfn.IFS($F114=0,'Product status'!$A$3,$F114&lt;0,'Product status'!$A$4,AND($F114&gt;=1,$F114&lt;=20),'Product status'!$A$5,AND($F114&gt;=21,$F114&lt;=100),'Product status'!$A$6,$F114&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>108</v>
       </c>
@@ -24058,15 +24715,15 @@
       <c r="C115" s="8">
         <v>285.57</v>
       </c>
-      <c r="D115" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A115,Entrada!$D$1)</f>
+      <c r="D115" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A115,In!$D$1)</f>
         <v>304</v>
       </c>
-      <c r="E115" s="13">
-        <f>SUMIF(Saida!$B:$B,$A115,Saida!$D:$D)</f>
+      <c r="E115" s="11">
+        <f>SUMIF(Out!$B:$B,$A115,Out!$D:$D)</f>
         <v>283</v>
       </c>
-      <c r="F115" s="14">
+      <c r="F115" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>21</v>
       </c>
@@ -24074,8 +24731,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>5996.97</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H115" ca="1">_xlfn.IFS($F115=0,'Product status'!$A$3,$F115&lt;0,'Product status'!$A$4,AND($F115&gt;=1,$F115&lt;=20),'Product status'!$A$5,AND($F115&gt;=21,$F115&lt;=100),'Product status'!$A$6,$F115&gt;100,'Product status'!$A$7)</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>113</v>
       </c>
@@ -24085,15 +24746,15 @@
       <c r="C116" s="8">
         <v>143.22</v>
       </c>
-      <c r="D116" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A116,Entrada!$D$1)</f>
+      <c r="D116" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A116,In!$D$1)</f>
         <v>436</v>
       </c>
-      <c r="E116" s="13">
-        <f>SUMIF(Saida!$B:$B,$A116,Saida!$D:$D)</f>
+      <c r="E116" s="11">
+        <f>SUMIF(Out!$B:$B,$A116,Out!$D:$D)</f>
         <v>197</v>
       </c>
-      <c r="F116" s="14">
+      <c r="F116" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>239</v>
       </c>
@@ -24101,8 +24762,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>34229.58</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H116" ca="1">_xlfn.IFS($F116=0,'Product status'!$A$3,$F116&lt;0,'Product status'!$A$4,AND($F116&gt;=1,$F116&lt;=20),'Product status'!$A$5,AND($F116&gt;=21,$F116&lt;=100),'Product status'!$A$6,$F116&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>66</v>
       </c>
@@ -24112,15 +24777,15 @@
       <c r="C117" s="8">
         <v>914.49</v>
       </c>
-      <c r="D117" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A117,Entrada!$D$1)</f>
+      <c r="D117" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A117,In!$D$1)</f>
         <v>550</v>
       </c>
-      <c r="E117" s="13">
-        <f>SUMIF(Saida!$B:$B,$A117,Saida!$D:$D)</f>
+      <c r="E117" s="11">
+        <f>SUMIF(Out!$B:$B,$A117,Out!$D:$D)</f>
         <v>391</v>
       </c>
-      <c r="F117" s="14">
+      <c r="F117" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>159</v>
       </c>
@@ -24128,8 +24793,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>145403.91</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H117" ca="1">_xlfn.IFS($F117=0,'Product status'!$A$3,$F117&lt;0,'Product status'!$A$4,AND($F117&gt;=1,$F117&lt;=20),'Product status'!$A$5,AND($F117&gt;=21,$F117&lt;=100),'Product status'!$A$6,$F117&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>19</v>
       </c>
@@ -24139,15 +24808,15 @@
       <c r="C118" s="8">
         <v>546.58000000000004</v>
       </c>
-      <c r="D118" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A118,Entrada!$D$1)</f>
+      <c r="D118" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A118,In!$D$1)</f>
         <v>237</v>
       </c>
-      <c r="E118" s="13">
-        <f>SUMIF(Saida!$B:$B,$A118,Saida!$D:$D)</f>
+      <c r="E118" s="11">
+        <f>SUMIF(Out!$B:$B,$A118,Out!$D:$D)</f>
         <v>462</v>
       </c>
-      <c r="F118" s="14">
+      <c r="F118" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>-225</v>
       </c>
@@ -24155,8 +24824,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>-122980.50000000001</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H118" ca="1">_xlfn.IFS($F118=0,'Product status'!$A$3,$F118&lt;0,'Product status'!$A$4,AND($F118&gt;=1,$F118&lt;=20),'Product status'!$A$5,AND($F118&gt;=21,$F118&lt;=100),'Product status'!$A$6,$F118&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Negative Stock	</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>131</v>
       </c>
@@ -24166,15 +24839,15 @@
       <c r="C119" s="8">
         <v>551.52</v>
       </c>
-      <c r="D119" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A119,Entrada!$D$1)</f>
+      <c r="D119" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A119,In!$D$1)</f>
         <v>313</v>
       </c>
-      <c r="E119" s="13">
-        <f>SUMIF(Saida!$B:$B,$A119,Saida!$D:$D)</f>
+      <c r="E119" s="11">
+        <f>SUMIF(Out!$B:$B,$A119,Out!$D:$D)</f>
         <v>23</v>
       </c>
-      <c r="F119" s="14">
+      <c r="F119" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>290</v>
       </c>
@@ -24182,8 +24855,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>159940.79999999999</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H119" ca="1">_xlfn.IFS($F119=0,'Product status'!$A$3,$F119&lt;0,'Product status'!$A$4,AND($F119&gt;=1,$F119&lt;=20),'Product status'!$A$5,AND($F119&gt;=21,$F119&lt;=100),'Product status'!$A$6,$F119&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>137</v>
       </c>
@@ -24193,15 +24870,15 @@
       <c r="C120" s="8">
         <v>793.28</v>
       </c>
-      <c r="D120" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A120,Entrada!$D$1)</f>
+      <c r="D120" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A120,In!$D$1)</f>
         <v>418</v>
       </c>
-      <c r="E120" s="13">
-        <f>SUMIF(Saida!$B:$B,$A120,Saida!$D:$D)</f>
+      <c r="E120" s="11">
+        <f>SUMIF(Out!$B:$B,$A120,Out!$D:$D)</f>
         <v>186</v>
       </c>
-      <c r="F120" s="14">
+      <c r="F120" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>232</v>
       </c>
@@ -24209,8 +24886,12 @@
         <f t="shared" ca="1" si="3"/>
         <v>184040.95999999999</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H120" ca="1">_xlfn.IFS($F120=0,'Product status'!$A$3,$F120&lt;0,'Product status'!$A$4,AND($F120&gt;=1,$F120&lt;=20),'Product status'!$A$5,AND($F120&gt;=21,$F120&lt;=100),'Product status'!$A$6,$F120&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>91</v>
       </c>
@@ -24220,15 +24901,15 @@
       <c r="C121" s="8">
         <v>479.4</v>
       </c>
-      <c r="D121" s="13">
-        <f ca="1">SUMIF(Entrada!$B:$B,$A121,Entrada!$D$1)</f>
+      <c r="D121" s="11">
+        <f ca="1">SUMIF(In!$B:$B,$A121,In!$D$1)</f>
         <v>414</v>
       </c>
-      <c r="E121" s="13">
-        <f>SUMIF(Saida!$B:$B,$A121,Saida!$D:$D)</f>
+      <c r="E121" s="11">
+        <f>SUMIF(Out!$B:$B,$A121,Out!$D:$D)</f>
         <v>66</v>
       </c>
-      <c r="F121" s="14">
+      <c r="F121" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>348</v>
       </c>
@@ -24236,8 +24917,91 @@
         <f t="shared" ca="1" si="3"/>
         <v>166831.19999999998</v>
       </c>
+      <c r="H121" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="H121" ca="1">_xlfn.IFS($F121=0,'Product status'!$A$3,$F121&lt;0,'Product status'!$A$4,AND($F121&gt;=1,$F121&lt;=20),'Product status'!$A$5,AND($F121&gt;=21,$F121&lt;=100),'Product status'!$A$6,$F121&gt;100,'Product status'!$A$7)</f>
+        <v xml:space="preserve">Excess	</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3723B844-8C71-464F-9CC6-C13A2EA0052A}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="16"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,24 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/553108eeb9382e97/Documents/1-Estudos/2-DNC/1-Data Science/2-Desafios/Desafio02/Structuring_Company-s_stock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="233" documentId="11_F420B32E487569F1B7B6394F1C56B10202309DC8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{024A3364-7CCB-47A4-A7E2-D2F69BF574F4}"/>
+  <xr:revisionPtr revIDLastSave="286" documentId="11_F420B32E487569F1B7B6394F1C56B10202309DC8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2D70F87-D8E7-4FD6-A479-8678D969E8FB}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="In" sheetId="1" r:id="rId1"/>
     <sheet name="Out" sheetId="2" r:id="rId2"/>
     <sheet name="Register" sheetId="3" r:id="rId3"/>
     <sheet name="Stock Summary" sheetId="4" r:id="rId4"/>
-    <sheet name="Product status" sheetId="5" r:id="rId5"/>
-    <sheet name="Category" sheetId="6" r:id="rId6"/>
+    <sheet name="Dashboard" sheetId="7" r:id="rId5"/>
+    <sheet name="Product status" sheetId="5" r:id="rId6"/>
+    <sheet name="Category" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">In!$A$1:$D$1000</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Out!$A$1:$D$501</definedName>
+    <definedName name="SegmentaçãodeDados_Category">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId8"/>
+  </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId9"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -64,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2762" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2802" uniqueCount="200">
   <si>
     <t>Data</t>
   </si>
@@ -647,6 +660,24 @@
   <si>
     <t>Stock Value(R$)</t>
   </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>Soma de Stock Value(R$)</t>
+  </si>
+  <si>
+    <t>Contagem de SKU</t>
+  </si>
+  <si>
+    <t>Média de Price</t>
+  </si>
+  <si>
+    <t>Soma de Total Out</t>
+  </si>
 </sst>
 </file>
 
@@ -894,7 +925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -962,16 +993,22 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1011,8 +1048,2150 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Category">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D59FEE6E-2947-784C-DD2C-CDFB6188843B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Category"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4562475" y="581024"/>
+              <a:ext cx="1866899" cy="2305051"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Lorenzo Bianchi" refreshedDate="45850.766422685185" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="120" xr:uid="{D4977EDA-2371-4C13-8772-865CE323801F}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:H121" sheet="Stock Summary"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="SKU" numFmtId="0">
+      <sharedItems count="120">
+        <s v="3975C"/>
+        <s v="5827A"/>
+        <s v="3633A"/>
+        <s v="9491C"/>
+        <s v="5712D"/>
+        <s v="7824D"/>
+        <s v="9485C"/>
+        <s v="2192C"/>
+        <s v="3127C"/>
+        <s v="9527D"/>
+        <s v="8828D"/>
+        <s v="8679B"/>
+        <s v="1797D"/>
+        <s v="7928A"/>
+        <s v="3265C"/>
+        <s v="3608A"/>
+        <s v="2083A"/>
+        <s v="6321A"/>
+        <s v="5968B"/>
+        <s v="1885B"/>
+        <s v="4002D"/>
+        <s v="5264C"/>
+        <s v="8367A"/>
+        <s v="1256C"/>
+        <s v="9853A"/>
+        <s v="2085A"/>
+        <s v="9559A"/>
+        <s v="3898B"/>
+        <s v="5941A"/>
+        <s v="1120C"/>
+        <s v="4592D"/>
+        <s v="1389D"/>
+        <s v="5470C"/>
+        <s v="8593C"/>
+        <s v="7568D"/>
+        <s v="6331D"/>
+        <s v="8046A"/>
+        <s v="7919C"/>
+        <s v="9019C"/>
+        <s v="4528D"/>
+        <s v="4269B"/>
+        <s v="6100C"/>
+        <s v="2463C"/>
+        <s v="3891C"/>
+        <s v="7085A"/>
+        <s v="6656A"/>
+        <s v="7580B"/>
+        <s v="2525B"/>
+        <s v="9530B"/>
+        <s v="1679C"/>
+        <s v="3984B"/>
+        <s v="3443C"/>
+        <s v="5564B"/>
+        <s v="5949A"/>
+        <s v="7076B"/>
+        <s v="8214A"/>
+        <s v="4154D"/>
+        <s v="4439B"/>
+        <s v="7435B"/>
+        <s v="9079D"/>
+        <s v="9002A"/>
+        <s v="2286C"/>
+        <s v="9591C"/>
+        <s v="5337A"/>
+        <s v="6867A"/>
+        <s v="4877A"/>
+        <s v="5437A"/>
+        <s v="5334B"/>
+        <s v="2580D"/>
+        <s v="9161D"/>
+        <s v="6300B"/>
+        <s v="1675A"/>
+        <s v="5959C"/>
+        <s v="1751D"/>
+        <s v="1466B"/>
+        <s v="9068A"/>
+        <s v="2558A"/>
+        <s v="8445C"/>
+        <s v="3880C"/>
+        <s v="2362D"/>
+        <s v="6959C"/>
+        <s v="5063B"/>
+        <s v="7774B"/>
+        <s v="2651C"/>
+        <s v="4025A"/>
+        <s v="3059A"/>
+        <s v="1698D"/>
+        <s v="5021C"/>
+        <s v="6150C"/>
+        <s v="8468C"/>
+        <s v="4177B"/>
+        <s v="6492A"/>
+        <s v="4159D"/>
+        <s v="3318C"/>
+        <s v="9646A"/>
+        <s v="2168A"/>
+        <s v="8322C"/>
+        <s v="5118D"/>
+        <s v="4836D"/>
+        <s v="3657A"/>
+        <s v="6004A"/>
+        <s v="1220D"/>
+        <s v="1465D"/>
+        <s v="2485D"/>
+        <s v="5320D"/>
+        <s v="8866B"/>
+        <s v="8345D"/>
+        <s v="3760A"/>
+        <s v="6932D"/>
+        <s v="8756C"/>
+        <s v="6580A"/>
+        <s v="5262B"/>
+        <s v="4259C"/>
+        <s v="1534A"/>
+        <s v="3321A"/>
+        <s v="8023A"/>
+        <s v="2443D"/>
+        <s v="6957A"/>
+        <s v="5766B"/>
+        <s v="9150D"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems count="7">
+        <s v="Componentes"/>
+        <s v="Redes"/>
+        <s v="Periféricos"/>
+        <s v="Acessórios"/>
+        <s v="Imagem e Som"/>
+        <s v="Hardware"/>
+        <s v="Armazenamento"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Price" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="89.57" maxValue="991.03"/>
+    </cacheField>
+    <cacheField name="Total In" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="921"/>
+    </cacheField>
+    <cacheField name="Total Out" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="462"/>
+    </cacheField>
+    <cacheField name="Current Balance" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-277" maxValue="781"/>
+    </cacheField>
+    <cacheField name="Stock Value(R$)" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-138344.88" maxValue="436718.10000000003"/>
+    </cacheField>
+    <cacheField name="Product status" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="1694330241"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="120">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="976.36"/>
+    <n v="233"/>
+    <n v="227"/>
+    <n v="6"/>
+    <n v="5858.16"/>
+    <s v="Critical_x0009_"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="652.16999999999996"/>
+    <n v="347"/>
+    <n v="89"/>
+    <n v="258"/>
+    <n v="168259.86"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="523.33000000000004"/>
+    <n v="291"/>
+    <n v="198"/>
+    <n v="93"/>
+    <n v="48669.69"/>
+    <s v="OK"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="101.03"/>
+    <n v="266"/>
+    <n v="180"/>
+    <n v="86"/>
+    <n v="8688.58"/>
+    <s v="OK"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="389.93"/>
+    <n v="238"/>
+    <n v="29"/>
+    <n v="209"/>
+    <n v="81495.37"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="238.68"/>
+    <n v="317"/>
+    <n v="55"/>
+    <n v="262"/>
+    <n v="62534.16"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="395.54"/>
+    <n v="262"/>
+    <n v="161"/>
+    <n v="101"/>
+    <n v="39949.54"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="97.2"/>
+    <n v="380"/>
+    <n v="235"/>
+    <n v="145"/>
+    <n v="14094"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="938.68"/>
+    <n v="171"/>
+    <n v="88"/>
+    <n v="83"/>
+    <n v="77910.44"/>
+    <s v="OK"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="5"/>
+    <n v="536.84"/>
+    <n v="376"/>
+    <n v="57"/>
+    <n v="319"/>
+    <n v="171251.96000000002"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <n v="482.7"/>
+    <n v="657"/>
+    <n v="338"/>
+    <n v="319"/>
+    <n v="153981.29999999999"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="5"/>
+    <n v="756.15"/>
+    <n v="277"/>
+    <n v="241"/>
+    <n v="36"/>
+    <n v="27221.399999999998"/>
+    <s v="OK"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="966.44"/>
+    <n v="222"/>
+    <n v="261"/>
+    <n v="-39"/>
+    <n v="-37691.160000000003"/>
+    <s v="Negative Stock_x0009_"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="223.56"/>
+    <n v="577"/>
+    <n v="189"/>
+    <n v="388"/>
+    <n v="86741.28"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="0"/>
+    <n v="257.3"/>
+    <n v="284"/>
+    <n v="127"/>
+    <n v="157"/>
+    <n v="40396.1"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+    <n v="381.51"/>
+    <n v="104"/>
+    <n v="57"/>
+    <n v="47"/>
+    <n v="17930.97"/>
+    <s v="OK"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="3"/>
+    <n v="837.9"/>
+    <n v="336"/>
+    <n v="188"/>
+    <n v="148"/>
+    <n v="124009.2"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="1"/>
+    <n v="715.01"/>
+    <n v="207"/>
+    <n v="217"/>
+    <n v="-10"/>
+    <n v="-7150.1"/>
+    <s v="Negative Stock_x0009_"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="1"/>
+    <n v="393.32"/>
+    <n v="335"/>
+    <n v="164"/>
+    <n v="171"/>
+    <n v="67257.72"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="4"/>
+    <n v="240.69"/>
+    <n v="163"/>
+    <n v="337"/>
+    <n v="-174"/>
+    <n v="-41880.06"/>
+    <s v="Negative Stock_x0009_"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="6"/>
+    <n v="477.8"/>
+    <n v="388"/>
+    <n v="81"/>
+    <n v="307"/>
+    <n v="146684.6"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="1"/>
+    <n v="469.5"/>
+    <n v="572"/>
+    <n v="142"/>
+    <n v="430"/>
+    <n v="201885"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="2"/>
+    <n v="435.65"/>
+    <n v="715"/>
+    <n v="96"/>
+    <n v="619"/>
+    <n v="269667.34999999998"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="1"/>
+    <n v="491.38"/>
+    <n v="267"/>
+    <n v="224"/>
+    <n v="43"/>
+    <n v="21129.34"/>
+    <s v="OK"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="0"/>
+    <n v="250.84"/>
+    <n v="362"/>
+    <n v="182"/>
+    <n v="180"/>
+    <n v="45151.199999999997"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="4"/>
+    <n v="802.36"/>
+    <n v="416"/>
+    <n v="138"/>
+    <n v="278"/>
+    <n v="223056.08000000002"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="6"/>
+    <n v="167.32"/>
+    <n v="211"/>
+    <n v="135"/>
+    <n v="76"/>
+    <n v="12716.32"/>
+    <s v="OK"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="3"/>
+    <n v="120.79"/>
+    <n v="252"/>
+    <n v="194"/>
+    <n v="58"/>
+    <n v="7005.8200000000006"/>
+    <s v="OK"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="1"/>
+    <n v="210.72"/>
+    <n v="921"/>
+    <n v="365"/>
+    <n v="556"/>
+    <n v="117160.31999999999"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="4"/>
+    <n v="270.27"/>
+    <n v="67"/>
+    <n v="74"/>
+    <n v="-7"/>
+    <n v="-1891.8899999999999"/>
+    <s v="Negative Stock_x0009_"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="2"/>
+    <n v="711.1"/>
+    <n v="312"/>
+    <n v="289"/>
+    <n v="23"/>
+    <n v="16355.300000000001"/>
+    <s v="OK"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="1"/>
+    <n v="823.71"/>
+    <n v="404"/>
+    <n v="108"/>
+    <n v="296"/>
+    <n v="243818.16"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="2"/>
+    <n v="107.76"/>
+    <n v="264"/>
+    <n v="217"/>
+    <n v="47"/>
+    <n v="5064.72"/>
+    <s v="OK"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="3"/>
+    <n v="653.64"/>
+    <n v="241"/>
+    <n v="183"/>
+    <n v="58"/>
+    <n v="37911.120000000003"/>
+    <s v="OK"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="3"/>
+    <n v="252.85"/>
+    <n v="11"/>
+    <n v="272"/>
+    <n v="-261"/>
+    <n v="-65993.849999999991"/>
+    <s v="Negative Stock_x0009_"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="2"/>
+    <n v="775.44"/>
+    <n v="238"/>
+    <n v="221"/>
+    <n v="17"/>
+    <n v="13182.480000000001"/>
+    <s v="Critical_x0009_"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="4"/>
+    <n v="200.74"/>
+    <n v="428"/>
+    <n v="133"/>
+    <n v="295"/>
+    <n v="59218.3"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="6"/>
+    <n v="347.43"/>
+    <n v="218"/>
+    <n v="165"/>
+    <n v="53"/>
+    <n v="18413.79"/>
+    <s v="OK"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="0"/>
+    <n v="705.93"/>
+    <n v="402"/>
+    <n v="137"/>
+    <n v="265"/>
+    <n v="187071.44999999998"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="6"/>
+    <n v="365.28"/>
+    <n v="80"/>
+    <n v="139"/>
+    <n v="-59"/>
+    <n v="-21551.519999999997"/>
+    <s v="Negative Stock_x0009_"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="3"/>
+    <n v="536.77"/>
+    <n v="242"/>
+    <n v="97"/>
+    <n v="145"/>
+    <n v="77831.649999999994"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="0"/>
+    <n v="877.23"/>
+    <n v="258"/>
+    <n v="231"/>
+    <n v="27"/>
+    <n v="23685.21"/>
+    <s v="OK"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="4"/>
+    <n v="379.85"/>
+    <n v="129"/>
+    <n v="176"/>
+    <n v="-47"/>
+    <n v="-17852.95"/>
+    <s v="Negative Stock_x0009_"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="3"/>
+    <n v="991.03"/>
+    <n v="348"/>
+    <n v="153"/>
+    <n v="195"/>
+    <n v="193250.85"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="3"/>
+    <n v="174.26"/>
+    <n v="297"/>
+    <n v="160"/>
+    <n v="137"/>
+    <n v="23873.62"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="5"/>
+    <n v="339.98"/>
+    <n v="116"/>
+    <n v="154"/>
+    <n v="-38"/>
+    <n v="-12919.240000000002"/>
+    <s v="Negative Stock_x0009_"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="0"/>
+    <n v="143.75"/>
+    <n v="297"/>
+    <n v="17"/>
+    <n v="280"/>
+    <n v="40250"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="6"/>
+    <n v="124.79"/>
+    <n v="0"/>
+    <n v="99"/>
+    <n v="-99"/>
+    <n v="-12354.210000000001"/>
+    <s v="Negative Stock_x0009_"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="4"/>
+    <n v="539.37"/>
+    <n v="407"/>
+    <n v="212"/>
+    <n v="195"/>
+    <n v="105177.15"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="0"/>
+    <n v="121.42"/>
+    <n v="327"/>
+    <n v="202"/>
+    <n v="125"/>
+    <n v="15177.5"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="2"/>
+    <n v="188.17"/>
+    <n v="169"/>
+    <n v="107"/>
+    <n v="62"/>
+    <n v="11666.539999999999"/>
+    <s v="OK"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="5"/>
+    <n v="216.51"/>
+    <n v="405"/>
+    <n v="45"/>
+    <n v="360"/>
+    <n v="77943.599999999991"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="6"/>
+    <n v="919.26"/>
+    <n v="324"/>
+    <n v="95"/>
+    <n v="229"/>
+    <n v="210510.54"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="0"/>
+    <n v="504.18"/>
+    <n v="655"/>
+    <n v="64"/>
+    <n v="591"/>
+    <n v="297970.38"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="6"/>
+    <n v="793.19"/>
+    <n v="555"/>
+    <n v="26"/>
+    <n v="529"/>
+    <n v="419597.51"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="4"/>
+    <n v="542.75"/>
+    <n v="238"/>
+    <n v="105"/>
+    <n v="133"/>
+    <n v="72185.75"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="1"/>
+    <n v="363.9"/>
+    <n v="523"/>
+    <n v="179"/>
+    <n v="344"/>
+    <n v="125181.59999999999"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="1"/>
+    <n v="584.16999999999996"/>
+    <n v="354"/>
+    <n v="238"/>
+    <n v="116"/>
+    <n v="67763.72"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <x v="0"/>
+    <n v="820.78"/>
+    <n v="406"/>
+    <n v="346"/>
+    <n v="60"/>
+    <n v="49246.799999999996"/>
+    <s v="OK"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="0"/>
+    <n v="92.41"/>
+    <n v="448"/>
+    <n v="71"/>
+    <n v="377"/>
+    <n v="34838.57"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="1"/>
+    <n v="977.6"/>
+    <n v="594"/>
+    <n v="246"/>
+    <n v="348"/>
+    <n v="340204.79999999999"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="2"/>
+    <n v="580.80999999999995"/>
+    <n v="73"/>
+    <n v="180"/>
+    <n v="-107"/>
+    <n v="-62146.669999999991"/>
+    <s v="Negative Stock_x0009_"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="6"/>
+    <n v="383.87"/>
+    <n v="174"/>
+    <n v="281"/>
+    <n v="-107"/>
+    <n v="-41074.090000000004"/>
+    <s v="Negative Stock_x0009_"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="6"/>
+    <n v="723.8"/>
+    <n v="294"/>
+    <n v="276"/>
+    <n v="18"/>
+    <n v="13028.4"/>
+    <s v="Critical_x0009_"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="6"/>
+    <n v="503.07"/>
+    <n v="209"/>
+    <n v="273"/>
+    <n v="-64"/>
+    <n v="-32196.48"/>
+    <s v="Negative Stock_x0009_"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <x v="1"/>
+    <n v="742.3"/>
+    <n v="392"/>
+    <n v="152"/>
+    <n v="240"/>
+    <n v="178152"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <x v="5"/>
+    <n v="506.5"/>
+    <n v="291"/>
+    <n v="70"/>
+    <n v="221"/>
+    <n v="111936.5"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <x v="5"/>
+    <n v="863.63"/>
+    <n v="394"/>
+    <n v="138"/>
+    <n v="256"/>
+    <n v="221089.28"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="6"/>
+    <n v="577.42999999999995"/>
+    <n v="298"/>
+    <n v="244"/>
+    <n v="54"/>
+    <n v="31181.219999999998"/>
+    <s v="OK"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <x v="4"/>
+    <n v="588.87"/>
+    <n v="321"/>
+    <n v="193"/>
+    <n v="128"/>
+    <n v="75375.360000000001"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <x v="3"/>
+    <n v="741.36"/>
+    <n v="131"/>
+    <n v="197"/>
+    <n v="-66"/>
+    <n v="-48929.760000000002"/>
+    <s v="Negative Stock_x0009_"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <x v="6"/>
+    <n v="89.57"/>
+    <n v="404"/>
+    <n v="208"/>
+    <n v="196"/>
+    <n v="17555.719999999998"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <x v="3"/>
+    <n v="560.16"/>
+    <n v="495"/>
+    <n v="201"/>
+    <n v="294"/>
+    <n v="164687.03999999998"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <x v="6"/>
+    <n v="306.18"/>
+    <n v="8"/>
+    <n v="215"/>
+    <n v="-207"/>
+    <n v="-63379.26"/>
+    <s v="Negative Stock_x0009_"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <x v="4"/>
+    <n v="499.23"/>
+    <n v="475"/>
+    <n v="112"/>
+    <n v="363"/>
+    <n v="181220.49000000002"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <x v="5"/>
+    <n v="833.87"/>
+    <n v="424"/>
+    <n v="232"/>
+    <n v="192"/>
+    <n v="160103.04000000001"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <x v="3"/>
+    <n v="280.29000000000002"/>
+    <n v="126"/>
+    <n v="172"/>
+    <n v="-46"/>
+    <n v="-12893.34"/>
+    <s v="Negative Stock_x0009_"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <x v="3"/>
+    <n v="818.42"/>
+    <n v="410"/>
+    <n v="154"/>
+    <n v="256"/>
+    <n v="209515.51999999999"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <x v="1"/>
+    <n v="830.71"/>
+    <n v="193"/>
+    <n v="74"/>
+    <n v="119"/>
+    <n v="98854.49"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <x v="1"/>
+    <n v="306.2"/>
+    <n v="447"/>
+    <n v="131"/>
+    <n v="316"/>
+    <n v="96759.2"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <x v="6"/>
+    <n v="576.61"/>
+    <n v="698"/>
+    <n v="107"/>
+    <n v="591"/>
+    <n v="340776.51"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <x v="5"/>
+    <n v="188.01"/>
+    <n v="310"/>
+    <n v="207"/>
+    <n v="103"/>
+    <n v="19365.03"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <x v="5"/>
+    <n v="401.23"/>
+    <n v="303"/>
+    <n v="13"/>
+    <n v="290"/>
+    <n v="116356.70000000001"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <x v="2"/>
+    <n v="811.47"/>
+    <n v="257"/>
+    <n v="196"/>
+    <n v="61"/>
+    <n v="49499.67"/>
+    <s v="OK"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <x v="4"/>
+    <n v="447.66"/>
+    <n v="353"/>
+    <n v="159"/>
+    <n v="194"/>
+    <n v="86846.040000000008"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <x v="2"/>
+    <n v="670.72"/>
+    <n v="552"/>
+    <n v="316"/>
+    <n v="236"/>
+    <n v="158289.92000000001"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <x v="2"/>
+    <n v="302.33999999999997"/>
+    <n v="439"/>
+    <n v="147"/>
+    <n v="292"/>
+    <n v="88283.28"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="0"/>
+    <n v="658.98"/>
+    <n v="45"/>
+    <n v="205"/>
+    <n v="-160"/>
+    <n v="-105436.8"/>
+    <s v="Negative Stock_x0009_"/>
+  </r>
+  <r>
+    <x v="88"/>
+    <x v="4"/>
+    <n v="294.33"/>
+    <n v="799"/>
+    <n v="18"/>
+    <n v="781"/>
+    <n v="229871.72999999998"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <x v="2"/>
+    <n v="499.44"/>
+    <n v="0"/>
+    <n v="277"/>
+    <n v="-277"/>
+    <n v="-138344.88"/>
+    <s v="Negative Stock_x0009_"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <x v="2"/>
+    <n v="787.03"/>
+    <n v="356"/>
+    <n v="169"/>
+    <n v="187"/>
+    <n v="147174.60999999999"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <x v="1"/>
+    <n v="806.69"/>
+    <n v="355"/>
+    <n v="196"/>
+    <n v="159"/>
+    <n v="128263.71"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="92"/>
+    <x v="3"/>
+    <n v="334.38"/>
+    <n v="222"/>
+    <n v="297"/>
+    <n v="-75"/>
+    <n v="-25078.5"/>
+    <s v="Negative Stock_x0009_"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <x v="3"/>
+    <n v="912.84"/>
+    <n v="0"/>
+    <n v="51"/>
+    <n v="-51"/>
+    <n v="-46554.840000000004"/>
+    <s v="Negative Stock_x0009_"/>
+  </r>
+  <r>
+    <x v="94"/>
+    <x v="5"/>
+    <n v="349.59"/>
+    <n v="335"/>
+    <n v="179"/>
+    <n v="156"/>
+    <n v="54536.039999999994"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="95"/>
+    <x v="5"/>
+    <n v="959.82"/>
+    <n v="509"/>
+    <n v="54"/>
+    <n v="455"/>
+    <n v="436718.10000000003"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="96"/>
+    <x v="3"/>
+    <n v="970.1"/>
+    <n v="376"/>
+    <n v="182"/>
+    <n v="194"/>
+    <n v="188199.4"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="97"/>
+    <x v="2"/>
+    <n v="950.74"/>
+    <n v="187"/>
+    <n v="64"/>
+    <n v="123"/>
+    <n v="116941.02"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="98"/>
+    <x v="2"/>
+    <n v="405.92"/>
+    <n v="413"/>
+    <n v="132"/>
+    <n v="281"/>
+    <n v="114063.52"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="99"/>
+    <x v="3"/>
+    <n v="510.54"/>
+    <n v="686"/>
+    <n v="205"/>
+    <n v="481"/>
+    <n v="245569.74000000002"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="100"/>
+    <x v="5"/>
+    <n v="950.93"/>
+    <n v="190"/>
+    <n v="213"/>
+    <n v="-23"/>
+    <n v="-21871.39"/>
+    <s v="Negative Stock_x0009_"/>
+  </r>
+  <r>
+    <x v="101"/>
+    <x v="4"/>
+    <n v="676.7"/>
+    <n v="570"/>
+    <n v="152"/>
+    <n v="418"/>
+    <n v="282860.60000000003"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <x v="6"/>
+    <n v="383.27"/>
+    <n v="413"/>
+    <n v="274"/>
+    <n v="139"/>
+    <n v="53274.53"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="103"/>
+    <x v="3"/>
+    <n v="597.80999999999995"/>
+    <n v="168"/>
+    <n v="239"/>
+    <n v="-71"/>
+    <n v="-42444.509999999995"/>
+    <s v="Negative Stock_x0009_"/>
+  </r>
+  <r>
+    <x v="104"/>
+    <x v="6"/>
+    <n v="549.75"/>
+    <n v="223"/>
+    <n v="0"/>
+    <n v="223"/>
+    <n v="122594.25"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="105"/>
+    <x v="1"/>
+    <n v="576.48"/>
+    <n v="322"/>
+    <n v="158"/>
+    <n v="164"/>
+    <n v="94542.720000000001"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="106"/>
+    <x v="4"/>
+    <n v="931.11"/>
+    <n v="323"/>
+    <n v="104"/>
+    <n v="219"/>
+    <n v="203913.09"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="107"/>
+    <x v="6"/>
+    <n v="967.84"/>
+    <n v="117"/>
+    <n v="0"/>
+    <n v="117"/>
+    <n v="113237.28"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="108"/>
+    <x v="4"/>
+    <n v="682.72"/>
+    <n v="244"/>
+    <n v="94"/>
+    <n v="150"/>
+    <n v="102408"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="4"/>
+    <n v="418.89"/>
+    <n v="196"/>
+    <n v="132"/>
+    <n v="64"/>
+    <n v="26808.959999999999"/>
+    <s v="OK"/>
+  </r>
+  <r>
+    <x v="110"/>
+    <x v="5"/>
+    <n v="927.57"/>
+    <n v="203"/>
+    <n v="118"/>
+    <n v="85"/>
+    <n v="78843.45"/>
+    <s v="OK"/>
+  </r>
+  <r>
+    <x v="111"/>
+    <x v="3"/>
+    <n v="898.39"/>
+    <n v="180"/>
+    <n v="3"/>
+    <n v="177"/>
+    <n v="159015.03"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="112"/>
+    <x v="2"/>
+    <n v="333.64"/>
+    <n v="337"/>
+    <n v="150"/>
+    <n v="187"/>
+    <n v="62390.68"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="113"/>
+    <x v="6"/>
+    <n v="285.57"/>
+    <n v="304"/>
+    <n v="283"/>
+    <n v="21"/>
+    <n v="5996.97"/>
+    <s v="OK"/>
+  </r>
+  <r>
+    <x v="114"/>
+    <x v="6"/>
+    <n v="143.22"/>
+    <n v="436"/>
+    <n v="197"/>
+    <n v="239"/>
+    <n v="34229.58"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="4"/>
+    <n v="914.49"/>
+    <n v="550"/>
+    <n v="391"/>
+    <n v="159"/>
+    <n v="145403.91"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="116"/>
+    <x v="3"/>
+    <n v="546.58000000000004"/>
+    <n v="237"/>
+    <n v="462"/>
+    <n v="-225"/>
+    <n v="-122980.50000000001"/>
+    <s v="Negative Stock_x0009_"/>
+  </r>
+  <r>
+    <x v="117"/>
+    <x v="1"/>
+    <n v="551.52"/>
+    <n v="313"/>
+    <n v="23"/>
+    <n v="290"/>
+    <n v="159940.79999999999"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="118"/>
+    <x v="0"/>
+    <n v="793.28"/>
+    <n v="418"/>
+    <n v="186"/>
+    <n v="232"/>
+    <n v="184040.95999999999"/>
+    <s v="Excess_x0009_"/>
+  </r>
+  <r>
+    <x v="119"/>
+    <x v="5"/>
+    <n v="479.4"/>
+    <n v="414"/>
+    <n v="66"/>
+    <n v="348"/>
+    <n v="166831.19999999998"/>
+    <s v="Excess_x0009_"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B53FE7B-BFA9-4452-9783-DFC7CB224D78}" name="Tabela dinâmica8" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C40:D48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0">
+      <items count="121">
+        <item x="29"/>
+        <item x="101"/>
+        <item x="23"/>
+        <item x="31"/>
+        <item x="102"/>
+        <item x="74"/>
+        <item x="113"/>
+        <item x="71"/>
+        <item x="49"/>
+        <item x="86"/>
+        <item x="73"/>
+        <item x="12"/>
+        <item x="19"/>
+        <item x="16"/>
+        <item x="25"/>
+        <item x="95"/>
+        <item x="7"/>
+        <item x="61"/>
+        <item x="79"/>
+        <item x="116"/>
+        <item x="42"/>
+        <item x="103"/>
+        <item x="47"/>
+        <item x="76"/>
+        <item x="68"/>
+        <item x="83"/>
+        <item x="85"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="93"/>
+        <item x="114"/>
+        <item x="51"/>
+        <item x="15"/>
+        <item x="2"/>
+        <item x="99"/>
+        <item x="107"/>
+        <item x="78"/>
+        <item x="43"/>
+        <item x="27"/>
+        <item x="0"/>
+        <item x="50"/>
+        <item x="20"/>
+        <item x="84"/>
+        <item x="56"/>
+        <item x="92"/>
+        <item x="90"/>
+        <item x="112"/>
+        <item x="40"/>
+        <item x="57"/>
+        <item x="39"/>
+        <item x="30"/>
+        <item x="98"/>
+        <item x="65"/>
+        <item x="87"/>
+        <item x="81"/>
+        <item x="97"/>
+        <item x="111"/>
+        <item x="21"/>
+        <item x="104"/>
+        <item x="67"/>
+        <item x="63"/>
+        <item x="66"/>
+        <item x="32"/>
+        <item x="52"/>
+        <item x="4"/>
+        <item x="118"/>
+        <item x="1"/>
+        <item x="28"/>
+        <item x="53"/>
+        <item x="72"/>
+        <item x="18"/>
+        <item x="100"/>
+        <item x="41"/>
+        <item x="88"/>
+        <item x="70"/>
+        <item x="17"/>
+        <item x="35"/>
+        <item x="91"/>
+        <item x="110"/>
+        <item x="45"/>
+        <item x="64"/>
+        <item x="108"/>
+        <item x="117"/>
+        <item x="80"/>
+        <item x="54"/>
+        <item x="44"/>
+        <item x="58"/>
+        <item x="34"/>
+        <item x="46"/>
+        <item x="82"/>
+        <item x="5"/>
+        <item x="37"/>
+        <item x="13"/>
+        <item x="115"/>
+        <item x="36"/>
+        <item x="55"/>
+        <item x="96"/>
+        <item x="106"/>
+        <item x="22"/>
+        <item x="77"/>
+        <item x="89"/>
+        <item x="33"/>
+        <item x="11"/>
+        <item x="109"/>
+        <item x="10"/>
+        <item x="105"/>
+        <item x="60"/>
+        <item x="38"/>
+        <item x="75"/>
+        <item x="59"/>
+        <item x="119"/>
+        <item x="69"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="48"/>
+        <item x="26"/>
+        <item x="62"/>
+        <item x="94"/>
+        <item x="24"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="3"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Total Out" fld="4" baseField="0" baseItem="0" numFmtId="3"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FCF0B525-CF9D-4817-BE1B-2D56A9F1F906}" name="TD-SaidaCategoria" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C28:D36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0">
+      <items count="121">
+        <item x="29"/>
+        <item x="101"/>
+        <item x="23"/>
+        <item x="31"/>
+        <item x="102"/>
+        <item x="74"/>
+        <item x="113"/>
+        <item x="71"/>
+        <item x="49"/>
+        <item x="86"/>
+        <item x="73"/>
+        <item x="12"/>
+        <item x="19"/>
+        <item x="16"/>
+        <item x="25"/>
+        <item x="95"/>
+        <item x="7"/>
+        <item x="61"/>
+        <item x="79"/>
+        <item x="116"/>
+        <item x="42"/>
+        <item x="103"/>
+        <item x="47"/>
+        <item x="76"/>
+        <item x="68"/>
+        <item x="83"/>
+        <item x="85"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="93"/>
+        <item x="114"/>
+        <item x="51"/>
+        <item x="15"/>
+        <item x="2"/>
+        <item x="99"/>
+        <item x="107"/>
+        <item x="78"/>
+        <item x="43"/>
+        <item x="27"/>
+        <item x="0"/>
+        <item x="50"/>
+        <item x="20"/>
+        <item x="84"/>
+        <item x="56"/>
+        <item x="92"/>
+        <item x="90"/>
+        <item x="112"/>
+        <item x="40"/>
+        <item x="57"/>
+        <item x="39"/>
+        <item x="30"/>
+        <item x="98"/>
+        <item x="65"/>
+        <item x="87"/>
+        <item x="81"/>
+        <item x="97"/>
+        <item x="111"/>
+        <item x="21"/>
+        <item x="104"/>
+        <item x="67"/>
+        <item x="63"/>
+        <item x="66"/>
+        <item x="32"/>
+        <item x="52"/>
+        <item x="4"/>
+        <item x="118"/>
+        <item x="1"/>
+        <item x="28"/>
+        <item x="53"/>
+        <item x="72"/>
+        <item x="18"/>
+        <item x="100"/>
+        <item x="41"/>
+        <item x="88"/>
+        <item x="70"/>
+        <item x="17"/>
+        <item x="35"/>
+        <item x="91"/>
+        <item x="110"/>
+        <item x="45"/>
+        <item x="64"/>
+        <item x="108"/>
+        <item x="117"/>
+        <item x="80"/>
+        <item x="54"/>
+        <item x="44"/>
+        <item x="58"/>
+        <item x="34"/>
+        <item x="46"/>
+        <item x="82"/>
+        <item x="5"/>
+        <item x="37"/>
+        <item x="13"/>
+        <item x="115"/>
+        <item x="36"/>
+        <item x="55"/>
+        <item x="96"/>
+        <item x="106"/>
+        <item x="22"/>
+        <item x="77"/>
+        <item x="89"/>
+        <item x="33"/>
+        <item x="11"/>
+        <item x="109"/>
+        <item x="10"/>
+        <item x="105"/>
+        <item x="60"/>
+        <item x="38"/>
+        <item x="75"/>
+        <item x="59"/>
+        <item x="119"/>
+        <item x="69"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="48"/>
+        <item x="26"/>
+        <item x="62"/>
+        <item x="94"/>
+        <item x="24"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="3"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Média de Price" fld="2" subtotal="average" baseField="1" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5505E3C7-9E84-4FC2-98ED-9CDC4F677569}" name="TD-ContagemSKU" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C16:D24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField dataField="1" showAll="0">
+      <items count="121">
+        <item x="29"/>
+        <item x="101"/>
+        <item x="23"/>
+        <item x="31"/>
+        <item x="102"/>
+        <item x="74"/>
+        <item x="113"/>
+        <item x="71"/>
+        <item x="49"/>
+        <item x="86"/>
+        <item x="73"/>
+        <item x="12"/>
+        <item x="19"/>
+        <item x="16"/>
+        <item x="25"/>
+        <item x="95"/>
+        <item x="7"/>
+        <item x="61"/>
+        <item x="79"/>
+        <item x="116"/>
+        <item x="42"/>
+        <item x="103"/>
+        <item x="47"/>
+        <item x="76"/>
+        <item x="68"/>
+        <item x="83"/>
+        <item x="85"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="93"/>
+        <item x="114"/>
+        <item x="51"/>
+        <item x="15"/>
+        <item x="2"/>
+        <item x="99"/>
+        <item x="107"/>
+        <item x="78"/>
+        <item x="43"/>
+        <item x="27"/>
+        <item x="0"/>
+        <item x="50"/>
+        <item x="20"/>
+        <item x="84"/>
+        <item x="56"/>
+        <item x="92"/>
+        <item x="90"/>
+        <item x="112"/>
+        <item x="40"/>
+        <item x="57"/>
+        <item x="39"/>
+        <item x="30"/>
+        <item x="98"/>
+        <item x="65"/>
+        <item x="87"/>
+        <item x="81"/>
+        <item x="97"/>
+        <item x="111"/>
+        <item x="21"/>
+        <item x="104"/>
+        <item x="67"/>
+        <item x="63"/>
+        <item x="66"/>
+        <item x="32"/>
+        <item x="52"/>
+        <item x="4"/>
+        <item x="118"/>
+        <item x="1"/>
+        <item x="28"/>
+        <item x="53"/>
+        <item x="72"/>
+        <item x="18"/>
+        <item x="100"/>
+        <item x="41"/>
+        <item x="88"/>
+        <item x="70"/>
+        <item x="17"/>
+        <item x="35"/>
+        <item x="91"/>
+        <item x="110"/>
+        <item x="45"/>
+        <item x="64"/>
+        <item x="108"/>
+        <item x="117"/>
+        <item x="80"/>
+        <item x="54"/>
+        <item x="44"/>
+        <item x="58"/>
+        <item x="34"/>
+        <item x="46"/>
+        <item x="82"/>
+        <item x="5"/>
+        <item x="37"/>
+        <item x="13"/>
+        <item x="115"/>
+        <item x="36"/>
+        <item x="55"/>
+        <item x="96"/>
+        <item x="106"/>
+        <item x="22"/>
+        <item x="77"/>
+        <item x="89"/>
+        <item x="33"/>
+        <item x="11"/>
+        <item x="109"/>
+        <item x="10"/>
+        <item x="105"/>
+        <item x="60"/>
+        <item x="38"/>
+        <item x="75"/>
+        <item x="59"/>
+        <item x="119"/>
+        <item x="69"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="48"/>
+        <item x="26"/>
+        <item x="62"/>
+        <item x="94"/>
+        <item x="24"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="3"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Contagem de SKU" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8CE1D2BC-E6A4-4F9B-AD8E-854638311BA3}" name="TD-SomaCategoria" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C4:D12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="3"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Stock Value(R$)" fld="6" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Category" xr10:uid="{1415E0AA-8F21-4129-907E-ADFFA666A84C}" sourceName="Category">
+  <pivotTables>
+    <pivotTable tabId="7" name="TD-ContagemSKU"/>
+    <pivotTable tabId="7" name="TD-SomaCategoria"/>
+    <pivotTable tabId="7" name="TD-SaidaCategoria"/>
+    <pivotTable tabId="7" name="Tabela dinâmica8"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1694330241">
+      <items count="7">
+        <i x="3" s="1"/>
+        <i x="6" s="1"/>
+        <i x="0" s="1"/>
+        <i x="5" s="1"/>
+        <i x="4" s="1"/>
+        <i x="2" s="1"/>
+        <i x="1" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Category" xr10:uid="{EC89F14F-3CFC-4CE8-8DB6-705063D44CAB}" cache="SegmentaçãodeDados_Category" caption="Category" rowHeight="241300"/>
+</slicers>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17381,8 +19560,8 @@
   </sheetPr>
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -21171,6 +23350,324 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4EDF30C-E5AD-4554-8749-8635ABB78FC1}">
+  <sheetPr>
+    <tabColor theme="8"/>
+  </sheetPr>
+  <dimension ref="C4:D48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1161583.0600000003</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1369241.6600000001</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="5">
+        <v>967524.96999999986</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1779317.9400000002</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1772670.1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="5">
+        <v>978667.67</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2073020.7599999998</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="5">
+        <v>10102026.16</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="39">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="39">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="39">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="D21" s="39">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="39">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="39">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" s="39">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="5">
+        <v>561.26199999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" s="5">
+        <v>457.1184210526315</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="5">
+        <v>476.05</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" s="5">
+        <v>573.39</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" s="5">
+        <v>519.15117647058821</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" s="5">
+        <v>563.89</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="5">
+        <v>586.82500000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D36" s="5">
+        <v>534.66741666666667</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="40">
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" s="40">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" s="40">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="40">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" s="40">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" s="40">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="40">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D48" s="40">
+        <v>19878</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId5"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId6"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3723B844-8C71-464F-9CC6-C13A2EA0052A}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -21188,10 +23685,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="36"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -21249,7 +23746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A83905-7487-42FE-B4B6-6451A9FBA8F6}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -21268,42 +23765,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="34" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="34" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="34" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="34" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="34" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="34" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="34" t="s">
         <v>166</v>
       </c>
     </row>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/553108eeb9382e97/Documents/1-Estudos/2-DNC/1-Data Science/2-Desafios/Desafio02/Structuring_Company-s_stock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="286" documentId="11_F420B32E487569F1B7B6394F1C56B10202309DC8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2D70F87-D8E7-4FD6-A479-8678D969E8FB}"/>
+  <xr:revisionPtr revIDLastSave="489" documentId="11_F420B32E487569F1B7B6394F1C56B10202309DC8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D768EC2-AD55-4651-AD1C-A98D4902897B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="In" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -750,7 +750,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -799,8 +799,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -921,11 +939,189 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.59996337778862885"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -997,18 +1193,41 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1048,20 +1267,3120 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[analysis.xlsx]Dashboard!TD-SomaCategoria</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Stock Value by Category</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$C$7:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Acessórios</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Armazenamento</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Componentes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hardware</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Imagem e Som</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Periféricos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Redes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$D$7:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1161583.0600000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1369241.6600000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>967524.96999999986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1779317.9400000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1772670.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>978667.67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2073020.7599999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E30B-48F2-96D8-0BEA4EE65743}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="582679376"/>
+        <c:axId val="582678416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="582679376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="582678416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="582678416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="582679376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[analysis.xlsx]Dashboard!Tabela dinâmica8</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Out by Category</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$D$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$C$43:$C$50</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Acessórios</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Armazenamento</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Componentes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hardware</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Imagem e Som</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Periféricos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Redes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$D$43:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3674</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2239</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2182</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2691</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2847</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3147</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F65A-44BF-9BA7-6AFAF5EEAE9D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="993216975"/>
+        <c:axId val="993217455"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="993216975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="993217455"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="993217455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="993216975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[analysis.xlsx]Dashboard!TD-SaidaCategoria</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Price by Category</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$C$31:$C$38</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Acessórios</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Armazenamento</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Componentes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hardware</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Imagem e Som</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Periféricos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Redes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$D$31:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>561.26199999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>457.1184210526315</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>476.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>573.39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>519.15117647058821</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>563.89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>586.82500000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B02D-4651-8AA9-9753BA136FAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="396658704"/>
+        <c:axId val="396653904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="396658704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="396653904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="396653904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="396658704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -1097,8 +4416,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4562475" y="581024"/>
-              <a:ext cx="1866899" cy="2305051"/>
+              <a:off x="95250" y="2105026"/>
+              <a:ext cx="1838325" cy="2286000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1126,6 +4445,847 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D33322F0-4AFA-BD4F-45A3-6578439A5266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>33336</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>14285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8CEE93B-C018-BEFC-F2AA-0D9C04503721}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3705944A-DE1C-BB78-6749-661CE47F7D49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="$D$15">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Retângulo: Cantos Arredondados 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A32AE1B-0602-42DD-0628-0F76F0BB1EED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7029450" y="857250"/>
+          <a:ext cx="2428875" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{C85B8EA8-2301-4B19-887F-83A922A71AFB}" type="TxLink">
+            <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>10.102.026</a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="2400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="$D$27">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Retângulo: Cantos Arredondados 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D11521A-14A5-586F-3DD6-0A3607D274B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10629900" y="857250"/>
+          <a:ext cx="2476500" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:fld id="{6B2D38BF-6C02-4429-84EB-0C603339630E}" type="TxLink">
+            <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:t>120</a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="2400" b="1" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="$D$39">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Retângulo: Cantos Arredondados 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD59131F-62FB-3455-1309-37C210FA5271}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14306550" y="857250"/>
+          <a:ext cx="2447925" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:fld id="{DD958684-E561-41DF-A80C-70F236CF18D5}" type="TxLink">
+            <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:t>534,67</a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="2400" b="1" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="$D$51">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Retângulo: Cantos Arredondados 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06EC3DF6-DADE-9157-E4D9-9AC599F955EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18002250" y="857250"/>
+          <a:ext cx="2419350" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:fld id="{D365E164-FFDB-408B-B7E7-BB6BD313D271}" type="TxLink">
+            <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:t>19.878</a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="2400" b="1" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Retângulo: Cantos Arredondados 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5BC3D31-0E3D-25C0-419A-61E69DDF90D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7291387" y="704850"/>
+          <a:ext cx="1905000" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1"/>
+            <a:t>Total Stock value</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Retângulo: Cantos Arredondados 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EC16787-76DD-2407-E13F-890B344C508B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10915650" y="704850"/>
+          <a:ext cx="1905000" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1"/>
+            <a:t>SKU</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Retângulo: Cantos Arredondados 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07214638-C7AF-C027-36E0-4A43193EA216}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14578012" y="704850"/>
+          <a:ext cx="1905000" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1"/>
+            <a:t>Average Price</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Retângulo: Cantos Arredondados 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1049F052-D237-F6F0-5EB4-EB6F780A9C1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18259425" y="704850"/>
+          <a:ext cx="1905000" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1"/>
+            <a:t>Total Out</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Retângulo: Cantos Arredondados 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48DB6E2F-8C60-0081-9D8A-511E680503C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591174" y="85725"/>
+          <a:ext cx="7286625" cy="476249"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="2400" b="1"/>
+            <a:t>Dashboard</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2509,8 +6669,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B53FE7B-BFA9-4452-9783-DFC7CB224D78}" name="Tabela dinâmica8" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C40:D48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B53FE7B-BFA9-4452-9783-DFC7CB224D78}" name="Tabela dinâmica8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="C42:D50" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0">
       <items count="121">
@@ -2691,6 +6851,17 @@
   <dataFields count="1">
     <dataField name="Soma de Total Out" fld="4" baseField="0" baseItem="0" numFmtId="3"/>
   </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -2704,8 +6875,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FCF0B525-CF9D-4817-BE1B-2D56A9F1F906}" name="TD-SaidaCategoria" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C28:D36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FCF0B525-CF9D-4817-BE1B-2D56A9F1F906}" name="TD-SaidaCategoria" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="C30:D38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0">
       <items count="121">
@@ -2886,6 +7057,17 @@
   <dataFields count="1">
     <dataField name="Média de Price" fld="2" subtotal="average" baseField="1" baseItem="0" numFmtId="44"/>
   </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -2899,8 +7081,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5505E3C7-9E84-4FC2-98ED-9CDC4F677569}" name="TD-ContagemSKU" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C16:D24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5505E3C7-9E84-4FC2-98ED-9CDC4F677569}" name="TD-ContagemSKU" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C18:D26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField dataField="1" showAll="0">
       <items count="121">
@@ -3094,8 +7276,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8CE1D2BC-E6A4-4F9B-AD8E-854638311BA3}" name="TD-SomaCategoria" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C4:D12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8CE1D2BC-E6A4-4F9B-AD8E-854638311BA3}" name="TD-SomaCategoria" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="C6:D14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -3152,6 +7334,17 @@
   <dataFields count="1">
     <dataField name="Soma de Stock Value(R$)" fld="6" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -3190,7 +7383,7 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Category" xr10:uid="{EC89F14F-3CFC-4CE8-8DB6-705063D44CAB}" cache="SegmentaçãodeDados_Category" caption="Category" rowHeight="241300"/>
+  <slicer name="Category" xr10:uid="{EC89F14F-3CFC-4CE8-8DB6-705063D44CAB}" cache="SegmentaçãodeDados_Category" caption="Category" style="SlicerStyleOther2" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -17477,7 +21670,7 @@
   <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -23354,305 +27547,1906 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="C4:D48"/>
+  <dimension ref="A1:XFD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <extLst>
+        <ext xmlns:xlsdti="http://schemas.microsoft.com/office/spreadsheetml/2023/showDataTypeIcons" uri="{77bfe23e-c014-4d31-8a63-9c772dbf06b6}">
+          <xlsdti:showDataTypeIcons visible="0"/>
+        </ext>
+      </extLst>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" style="62" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="18" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="41" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="42" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="43" customWidth="1"/>
+    <col min="9" max="32" width="9.140625" customWidth="1"/>
+    <col min="33" max="33" width="3.140625" style="51" customWidth="1"/>
+    <col min="34" max="16383" width="9.140625" hidden="1"/>
+    <col min="16384" max="16384" width="6.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="37" t="s">
+    <row r="1" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="47"/>
+    </row>
+    <row r="2" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="47"/>
+    </row>
+    <row r="3" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="F3" s="44"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="52"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="47"/>
+    </row>
+    <row r="4" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="47"/>
+    </row>
+    <row r="5" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="47"/>
+    </row>
+    <row r="6" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C6" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D6" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="38" t="s">
+      <c r="F6" s="44"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
+      <c r="AB6" s="52"/>
+      <c r="AC6" s="52"/>
+      <c r="AD6" s="52"/>
+      <c r="AE6" s="57"/>
+      <c r="AF6" s="59"/>
+      <c r="AG6" s="47"/>
+    </row>
+    <row r="7" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C7" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D7" s="5">
         <v>1161583.0600000003</v>
       </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="38" t="s">
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="59"/>
+      <c r="AG7" s="47"/>
+    </row>
+    <row r="8" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C8" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D8" s="5">
         <v>1369241.6600000001</v>
       </c>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="38" t="s">
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="52"/>
+      <c r="AD8" s="52"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="59"/>
+      <c r="AG8" s="47"/>
+    </row>
+    <row r="9" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C9" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D9" s="5">
         <v>967524.96999999986</v>
       </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="38" t="s">
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="59"/>
+      <c r="AG9" s="47"/>
+    </row>
+    <row r="10" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C10" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D10" s="5">
         <v>1779317.9400000002</v>
       </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="38" t="s">
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="52"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="59"/>
+      <c r="AG10" s="47"/>
+    </row>
+    <row r="11" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C11" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D11" s="5">
         <v>1772670.1</v>
       </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="38" t="s">
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="52"/>
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="59"/>
+      <c r="AG11" s="47"/>
+    </row>
+    <row r="12" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C12" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D12" s="5">
         <v>978667.67</v>
       </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="38" t="s">
+      <c r="I12" s="54"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="47"/>
+    </row>
+    <row r="13" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C13" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D13" s="5">
         <v>2073020.7599999998</v>
       </c>
-    </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="38" t="s">
+      <c r="I13" s="54"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="52"/>
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="59"/>
+      <c r="AG13" s="47"/>
+    </row>
+    <row r="14" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C14" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D14" s="5">
         <v>10102026.16</v>
       </c>
-    </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="37" t="s">
+      <c r="I14" s="54"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="52"/>
+      <c r="AD14" s="52"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="59"/>
+      <c r="AG14" s="47"/>
+    </row>
+    <row r="15" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="D15" s="37">
+        <f>GETPIVOTDATA("Stock Value(R$)",$C$6)</f>
+        <v>10102026.16</v>
+      </c>
+      <c r="I15" s="54"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="52"/>
+      <c r="AD15" s="52"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="59"/>
+      <c r="AG15" s="47"/>
+    </row>
+    <row r="16" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="I16" s="54"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="52"/>
+      <c r="AD16" s="52"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="59"/>
+      <c r="AG16" s="47"/>
+    </row>
+    <row r="17" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="I17" s="54"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="52"/>
+      <c r="AD17" s="52"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="59"/>
+      <c r="AG17" s="47"/>
+    </row>
+    <row r="18" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C18" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D18" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="38" t="s">
+      <c r="I18" s="54"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="52"/>
+      <c r="AC18" s="52"/>
+      <c r="AD18" s="52"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="59"/>
+      <c r="AG18" s="47"/>
+    </row>
+    <row r="19" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C19" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D19" s="63">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="38" t="s">
+      <c r="I19" s="54"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="52"/>
+      <c r="AD19" s="52"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="59"/>
+      <c r="AG19" s="47"/>
+    </row>
+    <row r="20" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C20" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D20" s="63">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="38" t="s">
+      <c r="I20" s="54"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="52"/>
+      <c r="AD20" s="52"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="59"/>
+      <c r="AG20" s="47"/>
+    </row>
+    <row r="21" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C21" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D21" s="63">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="38" t="s">
+      <c r="I21" s="54"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="52"/>
+      <c r="AD21" s="52"/>
+      <c r="AE21" s="57"/>
+      <c r="AF21" s="59"/>
+      <c r="AG21" s="47"/>
+    </row>
+    <row r="22" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C22" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D22" s="63">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="38" t="s">
+      <c r="I22" s="54"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="52"/>
+      <c r="AB22" s="52"/>
+      <c r="AC22" s="52"/>
+      <c r="AD22" s="52"/>
+      <c r="AE22" s="57"/>
+      <c r="AF22" s="59"/>
+      <c r="AG22" s="47"/>
+    </row>
+    <row r="23" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C23" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D23" s="63">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="38" t="s">
+      <c r="I23" s="54"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="52"/>
+      <c r="AD23" s="52"/>
+      <c r="AE23" s="57"/>
+      <c r="AF23" s="59"/>
+      <c r="AG23" s="47"/>
+    </row>
+    <row r="24" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C24" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D24" s="63">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="38" t="s">
+      <c r="F24" s="47"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="52"/>
+      <c r="Z24" s="52"/>
+      <c r="AA24" s="52"/>
+      <c r="AB24" s="52"/>
+      <c r="AC24" s="52"/>
+      <c r="AD24" s="52"/>
+      <c r="AE24" s="57"/>
+      <c r="AF24" s="59"/>
+      <c r="AG24" s="47"/>
+    </row>
+    <row r="25" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C25" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D25" s="63">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="38" t="s">
+      <c r="F25" s="47"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="52"/>
+      <c r="AC25" s="52"/>
+      <c r="AD25" s="52"/>
+      <c r="AE25" s="57"/>
+      <c r="AF25" s="59"/>
+      <c r="AG25" s="47"/>
+    </row>
+    <row r="26" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C26" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="D24" s="39">
+      <c r="D26" s="63">
         <v>120</v>
       </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="37" t="s">
+      <c r="F26" s="47"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="52"/>
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="52"/>
+      <c r="AB26" s="52"/>
+      <c r="AC26" s="52"/>
+      <c r="AD26" s="52"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="59"/>
+      <c r="AG26" s="47"/>
+    </row>
+    <row r="27" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f>GETPIVOTDATA("SKU",$C$18)</f>
+        <v>120</v>
+      </c>
+      <c r="F27" s="47"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="52"/>
+      <c r="Z27" s="52"/>
+      <c r="AA27" s="52"/>
+      <c r="AB27" s="52"/>
+      <c r="AC27" s="52"/>
+      <c r="AD27" s="52"/>
+      <c r="AE27" s="57"/>
+      <c r="AF27" s="59"/>
+      <c r="AG27" s="47"/>
+    </row>
+    <row r="28" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="F28" s="47"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="52"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="52"/>
+      <c r="AA28" s="52"/>
+      <c r="AB28" s="52"/>
+      <c r="AC28" s="52"/>
+      <c r="AD28" s="52"/>
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="59"/>
+      <c r="AG28" s="47"/>
+    </row>
+    <row r="29" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="F29" s="47"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="52"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="52"/>
+      <c r="AA29" s="52"/>
+      <c r="AB29" s="52"/>
+      <c r="AC29" s="52"/>
+      <c r="AD29" s="52"/>
+      <c r="AE29" s="57"/>
+      <c r="AF29" s="59"/>
+      <c r="AG29" s="47"/>
+    </row>
+    <row r="30" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C30" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D30" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="38" t="s">
+      <c r="F30" s="47"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="52"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="52"/>
+      <c r="Y30" s="52"/>
+      <c r="Z30" s="52"/>
+      <c r="AA30" s="52"/>
+      <c r="AB30" s="52"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="52"/>
+      <c r="AE30" s="57"/>
+      <c r="AF30" s="59"/>
+      <c r="AG30" s="47"/>
+    </row>
+    <row r="31" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C31" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D31" s="5">
         <v>561.26199999999994</v>
       </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="38" t="s">
+      <c r="F31" s="47"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="52"/>
+      <c r="Z31" s="52"/>
+      <c r="AA31" s="52"/>
+      <c r="AB31" s="52"/>
+      <c r="AC31" s="52"/>
+      <c r="AD31" s="52"/>
+      <c r="AE31" s="57"/>
+      <c r="AF31" s="59"/>
+      <c r="AG31" s="47"/>
+    </row>
+    <row r="32" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C32" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D32" s="5">
         <v>457.1184210526315</v>
       </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31" s="38" t="s">
+      <c r="F32" s="47"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="52"/>
+      <c r="W32" s="52"/>
+      <c r="X32" s="52"/>
+      <c r="Y32" s="52"/>
+      <c r="Z32" s="52"/>
+      <c r="AA32" s="52"/>
+      <c r="AB32" s="52"/>
+      <c r="AC32" s="52"/>
+      <c r="AD32" s="52"/>
+      <c r="AE32" s="57"/>
+      <c r="AF32" s="59"/>
+      <c r="AG32" s="47"/>
+    </row>
+    <row r="33" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C33" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D33" s="5">
         <v>476.05</v>
       </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32" s="38" t="s">
+      <c r="F33" s="47"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
+      <c r="Y33" s="52"/>
+      <c r="Z33" s="52"/>
+      <c r="AA33" s="52"/>
+      <c r="AB33" s="52"/>
+      <c r="AC33" s="52"/>
+      <c r="AD33" s="52"/>
+      <c r="AE33" s="57"/>
+      <c r="AF33" s="59"/>
+      <c r="AG33" s="47"/>
+    </row>
+    <row r="34" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C34" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D34" s="5">
         <v>573.39</v>
       </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="38" t="s">
+      <c r="F34" s="47"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="52"/>
+      <c r="R34" s="52"/>
+      <c r="S34" s="52"/>
+      <c r="T34" s="52"/>
+      <c r="U34" s="52"/>
+      <c r="V34" s="52"/>
+      <c r="W34" s="52"/>
+      <c r="X34" s="52"/>
+      <c r="Y34" s="52"/>
+      <c r="Z34" s="52"/>
+      <c r="AA34" s="52"/>
+      <c r="AB34" s="52"/>
+      <c r="AC34" s="52"/>
+      <c r="AD34" s="52"/>
+      <c r="AE34" s="57"/>
+      <c r="AF34" s="59"/>
+      <c r="AG34" s="47"/>
+    </row>
+    <row r="35" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C35" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D35" s="5">
         <v>519.15117647058821</v>
       </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="38" t="s">
+      <c r="F35" s="47"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="52"/>
+      <c r="Y35" s="52"/>
+      <c r="Z35" s="52"/>
+      <c r="AA35" s="52"/>
+      <c r="AB35" s="52"/>
+      <c r="AC35" s="52"/>
+      <c r="AD35" s="52"/>
+      <c r="AE35" s="57"/>
+      <c r="AF35" s="59"/>
+      <c r="AG35" s="47"/>
+    </row>
+    <row r="36" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C36" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D36" s="5">
         <v>563.89</v>
       </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="38" t="s">
+      <c r="F36" s="47"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="52"/>
+      <c r="S36" s="52"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="52"/>
+      <c r="V36" s="52"/>
+      <c r="W36" s="52"/>
+      <c r="X36" s="52"/>
+      <c r="Y36" s="52"/>
+      <c r="Z36" s="52"/>
+      <c r="AA36" s="52"/>
+      <c r="AB36" s="52"/>
+      <c r="AC36" s="52"/>
+      <c r="AD36" s="52"/>
+      <c r="AE36" s="57"/>
+      <c r="AF36" s="59"/>
+      <c r="AG36" s="47"/>
+    </row>
+    <row r="37" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C37" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D37" s="5">
         <v>586.82500000000005</v>
       </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="38" t="s">
+      <c r="F37" s="47"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52"/>
+      <c r="R37" s="52"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="52"/>
+      <c r="U37" s="52"/>
+      <c r="V37" s="52"/>
+      <c r="W37" s="52"/>
+      <c r="X37" s="52"/>
+      <c r="Y37" s="52"/>
+      <c r="Z37" s="52"/>
+      <c r="AA37" s="52"/>
+      <c r="AB37" s="52"/>
+      <c r="AC37" s="52"/>
+      <c r="AD37" s="52"/>
+      <c r="AE37" s="57"/>
+      <c r="AF37" s="59"/>
+      <c r="AG37" s="47"/>
+    </row>
+    <row r="38" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C38" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D38" s="5">
         <v>534.66741666666667</v>
       </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C40" s="37" t="s">
+      <c r="F38" s="47"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="52"/>
+      <c r="S38" s="52"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="52"/>
+      <c r="V38" s="52"/>
+      <c r="W38" s="52"/>
+      <c r="X38" s="52"/>
+      <c r="Y38" s="52"/>
+      <c r="Z38" s="52"/>
+      <c r="AA38" s="52"/>
+      <c r="AB38" s="52"/>
+      <c r="AC38" s="52"/>
+      <c r="AD38" s="52"/>
+      <c r="AE38" s="57"/>
+      <c r="AF38" s="59"/>
+      <c r="AG38" s="47"/>
+    </row>
+    <row r="39" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="D39" s="40">
+        <f>GETPIVOTDATA("Price",$C$30)</f>
+        <v>534.66741666666667</v>
+      </c>
+      <c r="F39" s="47"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="52"/>
+      <c r="V39" s="52"/>
+      <c r="W39" s="52"/>
+      <c r="X39" s="52"/>
+      <c r="Y39" s="52"/>
+      <c r="Z39" s="52"/>
+      <c r="AA39" s="52"/>
+      <c r="AB39" s="52"/>
+      <c r="AC39" s="52"/>
+      <c r="AD39" s="52"/>
+      <c r="AE39" s="57"/>
+      <c r="AF39" s="59"/>
+      <c r="AG39" s="47"/>
+    </row>
+    <row r="40" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="F40" s="47"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="52"/>
+      <c r="V40" s="52"/>
+      <c r="W40" s="52"/>
+      <c r="X40" s="52"/>
+      <c r="Y40" s="52"/>
+      <c r="Z40" s="52"/>
+      <c r="AA40" s="52"/>
+      <c r="AB40" s="52"/>
+      <c r="AC40" s="52"/>
+      <c r="AD40" s="52"/>
+      <c r="AE40" s="57"/>
+      <c r="AF40" s="59"/>
+      <c r="AG40" s="47"/>
+    </row>
+    <row r="41" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="F41" s="47"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="52"/>
+      <c r="R41" s="52"/>
+      <c r="S41" s="52"/>
+      <c r="T41" s="52"/>
+      <c r="U41" s="52"/>
+      <c r="V41" s="52"/>
+      <c r="W41" s="52"/>
+      <c r="X41" s="52"/>
+      <c r="Y41" s="52"/>
+      <c r="Z41" s="52"/>
+      <c r="AA41" s="52"/>
+      <c r="AB41" s="52"/>
+      <c r="AC41" s="52"/>
+      <c r="AD41" s="52"/>
+      <c r="AE41" s="57"/>
+      <c r="AF41" s="59"/>
+      <c r="AG41" s="47"/>
+    </row>
+    <row r="42" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C42" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D42" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C41" s="38" t="s">
+      <c r="F42" s="47"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="52"/>
+      <c r="R42" s="52"/>
+      <c r="S42" s="52"/>
+      <c r="T42" s="52"/>
+      <c r="U42" s="52"/>
+      <c r="V42" s="52"/>
+      <c r="W42" s="52"/>
+      <c r="X42" s="52"/>
+      <c r="Y42" s="52"/>
+      <c r="Z42" s="52"/>
+      <c r="AA42" s="52"/>
+      <c r="AB42" s="52"/>
+      <c r="AC42" s="52"/>
+      <c r="AD42" s="52"/>
+      <c r="AE42" s="57"/>
+      <c r="AF42" s="59"/>
+      <c r="AG42" s="47"/>
+    </row>
+    <row r="43" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C43" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="D41" s="40">
+      <c r="D43" s="37">
         <v>3674</v>
       </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C42" s="38" t="s">
+      <c r="F43" s="47"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="52"/>
+      <c r="R43" s="52"/>
+      <c r="S43" s="52"/>
+      <c r="T43" s="52"/>
+      <c r="U43" s="52"/>
+      <c r="V43" s="52"/>
+      <c r="W43" s="52"/>
+      <c r="X43" s="52"/>
+      <c r="Y43" s="52"/>
+      <c r="Z43" s="52"/>
+      <c r="AA43" s="52"/>
+      <c r="AB43" s="52"/>
+      <c r="AC43" s="52"/>
+      <c r="AD43" s="52"/>
+      <c r="AE43" s="57"/>
+      <c r="AF43" s="59"/>
+      <c r="AG43" s="47"/>
+    </row>
+    <row r="44" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C44" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="D42" s="40">
+      <c r="D44" s="37">
         <v>3098</v>
       </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C43" s="38" t="s">
+      <c r="F44" s="47"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="52"/>
+      <c r="Q44" s="52"/>
+      <c r="R44" s="52"/>
+      <c r="S44" s="52"/>
+      <c r="T44" s="52"/>
+      <c r="U44" s="52"/>
+      <c r="V44" s="52"/>
+      <c r="W44" s="52"/>
+      <c r="X44" s="52"/>
+      <c r="Y44" s="52"/>
+      <c r="Z44" s="52"/>
+      <c r="AA44" s="52"/>
+      <c r="AB44" s="52"/>
+      <c r="AC44" s="52"/>
+      <c r="AD44" s="52"/>
+      <c r="AE44" s="57"/>
+      <c r="AF44" s="59"/>
+      <c r="AG44" s="47"/>
+    </row>
+    <row r="45" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C45" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="D43" s="40">
+      <c r="D45" s="37">
         <v>2239</v>
       </c>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C44" s="38" t="s">
+      <c r="F45" s="47"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+      <c r="P45" s="52"/>
+      <c r="Q45" s="52"/>
+      <c r="R45" s="52"/>
+      <c r="S45" s="52"/>
+      <c r="T45" s="52"/>
+      <c r="U45" s="52"/>
+      <c r="V45" s="52"/>
+      <c r="W45" s="52"/>
+      <c r="X45" s="52"/>
+      <c r="Y45" s="52"/>
+      <c r="Z45" s="52"/>
+      <c r="AA45" s="52"/>
+      <c r="AB45" s="52"/>
+      <c r="AC45" s="52"/>
+      <c r="AD45" s="52"/>
+      <c r="AE45" s="57"/>
+      <c r="AF45" s="59"/>
+      <c r="AG45" s="47"/>
+    </row>
+    <row r="46" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C46" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="D44" s="40">
+      <c r="D46" s="37">
         <v>2182</v>
       </c>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C45" s="38" t="s">
+      <c r="F46" s="47"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="52"/>
+      <c r="P46" s="52"/>
+      <c r="Q46" s="52"/>
+      <c r="R46" s="52"/>
+      <c r="S46" s="52"/>
+      <c r="T46" s="52"/>
+      <c r="U46" s="52"/>
+      <c r="V46" s="52"/>
+      <c r="W46" s="52"/>
+      <c r="X46" s="52"/>
+      <c r="Y46" s="52"/>
+      <c r="Z46" s="52"/>
+      <c r="AA46" s="52"/>
+      <c r="AB46" s="52"/>
+      <c r="AC46" s="52"/>
+      <c r="AD46" s="52"/>
+      <c r="AE46" s="57"/>
+      <c r="AF46" s="59"/>
+      <c r="AG46" s="47"/>
+    </row>
+    <row r="47" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C47" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D45" s="40">
+      <c r="D47" s="37">
         <v>2691</v>
       </c>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C46" s="38" t="s">
+      <c r="F47" s="47"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="52"/>
+      <c r="R47" s="52"/>
+      <c r="S47" s="52"/>
+      <c r="T47" s="52"/>
+      <c r="U47" s="52"/>
+      <c r="V47" s="52"/>
+      <c r="W47" s="52"/>
+      <c r="X47" s="52"/>
+      <c r="Y47" s="52"/>
+      <c r="Z47" s="52"/>
+      <c r="AA47" s="52"/>
+      <c r="AB47" s="52"/>
+      <c r="AC47" s="52"/>
+      <c r="AD47" s="52"/>
+      <c r="AE47" s="57"/>
+      <c r="AF47" s="59"/>
+      <c r="AG47" s="47"/>
+    </row>
+    <row r="48" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C48" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="D46" s="40">
+      <c r="D48" s="37">
         <v>2847</v>
       </c>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C47" s="38" t="s">
+      <c r="F48" s="47"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="52"/>
+      <c r="P48" s="52"/>
+      <c r="Q48" s="52"/>
+      <c r="R48" s="52"/>
+      <c r="S48" s="52"/>
+      <c r="T48" s="52"/>
+      <c r="U48" s="52"/>
+      <c r="V48" s="52"/>
+      <c r="W48" s="52"/>
+      <c r="X48" s="52"/>
+      <c r="Y48" s="52"/>
+      <c r="Z48" s="52"/>
+      <c r="AA48" s="52"/>
+      <c r="AB48" s="52"/>
+      <c r="AC48" s="52"/>
+      <c r="AD48" s="52"/>
+      <c r="AE48" s="57"/>
+      <c r="AF48" s="59"/>
+      <c r="AG48" s="47"/>
+    </row>
+    <row r="49" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C49" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="D47" s="40">
+      <c r="D49" s="37">
         <v>3147</v>
       </c>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C48" s="38" t="s">
+      <c r="F49" s="47"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="52"/>
+      <c r="N49" s="52"/>
+      <c r="O49" s="52"/>
+      <c r="P49" s="52"/>
+      <c r="Q49" s="52"/>
+      <c r="R49" s="52"/>
+      <c r="S49" s="52"/>
+      <c r="T49" s="52"/>
+      <c r="U49" s="52"/>
+      <c r="V49" s="52"/>
+      <c r="W49" s="52"/>
+      <c r="X49" s="52"/>
+      <c r="Y49" s="52"/>
+      <c r="Z49" s="52"/>
+      <c r="AA49" s="52"/>
+      <c r="AB49" s="52"/>
+      <c r="AC49" s="52"/>
+      <c r="AD49" s="52"/>
+      <c r="AE49" s="57"/>
+      <c r="AF49" s="59"/>
+      <c r="AG49" s="47"/>
+    </row>
+    <row r="50" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C50" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="D48" s="40">
+      <c r="D50" s="37">
         <v>19878</v>
       </c>
+      <c r="F50" s="47"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="52"/>
+      <c r="P50" s="52"/>
+      <c r="Q50" s="52"/>
+      <c r="R50" s="52"/>
+      <c r="S50" s="52"/>
+      <c r="T50" s="52"/>
+      <c r="U50" s="52"/>
+      <c r="V50" s="52"/>
+      <c r="W50" s="52"/>
+      <c r="X50" s="52"/>
+      <c r="Y50" s="52"/>
+      <c r="Z50" s="52"/>
+      <c r="AA50" s="52"/>
+      <c r="AB50" s="52"/>
+      <c r="AC50" s="52"/>
+      <c r="AD50" s="52"/>
+      <c r="AE50" s="57"/>
+      <c r="AF50" s="59"/>
+      <c r="AG50" s="47"/>
+    </row>
+    <row r="51" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="D51" s="37">
+        <f>GETPIVOTDATA("Total Out",$C$42)</f>
+        <v>19878</v>
+      </c>
+      <c r="F51" s="47"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="52"/>
+      <c r="P51" s="52"/>
+      <c r="Q51" s="52"/>
+      <c r="R51" s="52"/>
+      <c r="S51" s="52"/>
+      <c r="T51" s="52"/>
+      <c r="U51" s="52"/>
+      <c r="V51" s="52"/>
+      <c r="W51" s="52"/>
+      <c r="X51" s="52"/>
+      <c r="Y51" s="52"/>
+      <c r="Z51" s="52"/>
+      <c r="AA51" s="52"/>
+      <c r="AB51" s="52"/>
+      <c r="AC51" s="52"/>
+      <c r="AD51" s="52"/>
+      <c r="AE51" s="57"/>
+      <c r="AF51" s="59"/>
+      <c r="AG51" s="47"/>
+    </row>
+    <row r="52" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="F52" s="47"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="52"/>
+      <c r="Q52" s="52"/>
+      <c r="R52" s="52"/>
+      <c r="S52" s="52"/>
+      <c r="T52" s="52"/>
+      <c r="U52" s="52"/>
+      <c r="V52" s="52"/>
+      <c r="W52" s="52"/>
+      <c r="X52" s="52"/>
+      <c r="Y52" s="52"/>
+      <c r="Z52" s="52"/>
+      <c r="AA52" s="52"/>
+      <c r="AB52" s="52"/>
+      <c r="AC52" s="52"/>
+      <c r="AD52" s="52"/>
+      <c r="AE52" s="57"/>
+      <c r="AF52" s="59"/>
+      <c r="AG52" s="47"/>
+    </row>
+    <row r="53" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="F53" s="47"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="52"/>
+      <c r="P53" s="52"/>
+      <c r="Q53" s="52"/>
+      <c r="R53" s="52"/>
+      <c r="S53" s="52"/>
+      <c r="T53" s="52"/>
+      <c r="U53" s="52"/>
+      <c r="V53" s="52"/>
+      <c r="W53" s="52"/>
+      <c r="X53" s="52"/>
+      <c r="Y53" s="52"/>
+      <c r="Z53" s="52"/>
+      <c r="AA53" s="52"/>
+      <c r="AB53" s="52"/>
+      <c r="AC53" s="52"/>
+      <c r="AD53" s="52"/>
+      <c r="AE53" s="57"/>
+      <c r="AF53" s="59"/>
+      <c r="AG53" s="47"/>
+    </row>
+    <row r="54" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="F54" s="47"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="52"/>
+      <c r="P54" s="52"/>
+      <c r="Q54" s="52"/>
+      <c r="R54" s="52"/>
+      <c r="S54" s="52"/>
+      <c r="T54" s="52"/>
+      <c r="U54" s="52"/>
+      <c r="V54" s="52"/>
+      <c r="W54" s="52"/>
+      <c r="X54" s="52"/>
+      <c r="Y54" s="52"/>
+      <c r="Z54" s="52"/>
+      <c r="AA54" s="52"/>
+      <c r="AB54" s="52"/>
+      <c r="AC54" s="52"/>
+      <c r="AD54" s="52"/>
+      <c r="AE54" s="57"/>
+      <c r="AF54" s="59"/>
+      <c r="AG54" s="47"/>
+    </row>
+    <row r="55" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="F55" s="47"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="56"/>
+      <c r="P55" s="56"/>
+      <c r="Q55" s="56"/>
+      <c r="R55" s="56"/>
+      <c r="S55" s="56"/>
+      <c r="T55" s="56"/>
+      <c r="U55" s="56"/>
+      <c r="V55" s="56"/>
+      <c r="W55" s="56"/>
+      <c r="X55" s="56"/>
+      <c r="Y55" s="56"/>
+      <c r="Z55" s="56"/>
+      <c r="AA55" s="56"/>
+      <c r="AB55" s="56"/>
+      <c r="AC55" s="56"/>
+      <c r="AD55" s="56"/>
+      <c r="AE55" s="58"/>
+      <c r="AF55" s="60"/>
+      <c r="AG55" s="47"/>
+    </row>
+    <row r="56" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="F56" s="47"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="50"/>
+      <c r="M56" s="50"/>
+      <c r="N56" s="50"/>
+      <c r="O56" s="50"/>
+      <c r="P56" s="50"/>
+      <c r="Q56" s="50"/>
+      <c r="R56" s="50"/>
+      <c r="S56" s="50"/>
+      <c r="T56" s="50"/>
+      <c r="U56" s="50"/>
+      <c r="V56" s="50"/>
+      <c r="W56" s="50"/>
+      <c r="X56" s="50"/>
+      <c r="Y56" s="50"/>
+      <c r="Z56" s="50"/>
+      <c r="AA56" s="50"/>
+      <c r="AB56" s="50"/>
+      <c r="AC56" s="50"/>
+      <c r="AD56" s="50"/>
+      <c r="AE56" s="50"/>
+      <c r="AF56" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -23685,10 +29479,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="39"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/553108eeb9382e97/Documents/1-Estudos/2-DNC/1-Data Science/2-Desafios/Desafio02/Structuring_Company-s_stock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="489" documentId="11_F420B32E487569F1B7B6394F1C56B10202309DC8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D768EC2-AD55-4651-AD1C-A98D4902897B}"/>
+  <xr:revisionPtr revIDLastSave="495" documentId="11_F420B32E487569F1B7B6394F1C56B10202309DC8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB8F579E-43BA-47F2-BBAC-6CCE427E3750}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1121,7 +1121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1198,24 +1198,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1227,7 +1219,12 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4382,8 +4379,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Category">
@@ -4406,7 +4403,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -14631,9 +14628,7 @@
   </sheetPr>
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D51" sqref="D51:D493"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -21669,9 +21664,7 @@
   </sheetPr>
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23753,8 +23746,12 @@
   </sheetPr>
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <extLst>
+        <ext xmlns:xlsdti="http://schemas.microsoft.com/office/spreadsheetml/2023/showDataTypeIcons" uri="{77bfe23e-c014-4d31-8a63-9c772dbf06b6}">
+          <xlsdti:showDataTypeIcons visible="0"/>
+        </ext>
+      </extLst>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -27547,7 +27544,7 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:XFD56"/>
+  <dimension ref="A1:XFC56"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
       <extLst>
@@ -27559,169 +27556,169 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="62" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" style="58" customWidth="1"/>
     <col min="2" max="2" width="9.140625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="18" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="5.140625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="41" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="42" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="43" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="40" customWidth="1"/>
     <col min="9" max="32" width="9.140625" customWidth="1"/>
-    <col min="33" max="33" width="3.140625" style="51" customWidth="1"/>
+    <col min="33" max="33" width="3.140625" style="45" customWidth="1"/>
     <col min="34" max="16383" width="9.140625" hidden="1"/>
     <col min="16384" max="16384" width="6.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="F1" s="44"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="47"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="44"/>
     </row>
     <row r="2" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="47"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="44"/>
     </row>
     <row r="3" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="F3" s="44"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="47"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="44"/>
     </row>
     <row r="4" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="47"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="44"/>
     </row>
     <row r="5" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="57"/>
-      <c r="AF5" s="59"/>
-      <c r="AG5" s="47"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="44"/>
     </row>
     <row r="6" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C6" s="35" t="s">
@@ -27730,34 +27727,34 @@
       <c r="D6" t="s">
         <v>196</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="52"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="57"/>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="47"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="55"/>
+      <c r="AG6" s="44"/>
     </row>
     <row r="7" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C7" s="36" t="s">
@@ -27766,34 +27763,34 @@
       <c r="D7" s="5">
         <v>1161583.0600000003</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="52"/>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="52"/>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="47"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="48"/>
+      <c r="AA7" s="48"/>
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="48"/>
+      <c r="AD7" s="48"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="55"/>
+      <c r="AG7" s="44"/>
     </row>
     <row r="8" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C8" s="36" t="s">
@@ -27802,34 +27799,34 @@
       <c r="D8" s="5">
         <v>1369241.6600000001</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="57"/>
-      <c r="AF8" s="59"/>
-      <c r="AG8" s="47"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="48"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="55"/>
+      <c r="AG8" s="44"/>
     </row>
     <row r="9" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C9" s="36" t="s">
@@ -27838,34 +27835,34 @@
       <c r="D9" s="5">
         <v>967524.96999999986</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="52"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="59"/>
-      <c r="AG9" s="47"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="48"/>
+      <c r="AD9" s="48"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="55"/>
+      <c r="AG9" s="44"/>
     </row>
     <row r="10" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C10" s="36" t="s">
@@ -27874,34 +27871,34 @@
       <c r="D10" s="5">
         <v>1779317.9400000002</v>
       </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="52"/>
-      <c r="AB10" s="52"/>
-      <c r="AC10" s="52"/>
-      <c r="AD10" s="52"/>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="59"/>
-      <c r="AG10" s="47"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="48"/>
+      <c r="AD10" s="48"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="55"/>
+      <c r="AG10" s="44"/>
     </row>
     <row r="11" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C11" s="36" t="s">
@@ -27910,34 +27907,34 @@
       <c r="D11" s="5">
         <v>1772670.1</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="52"/>
-      <c r="AD11" s="52"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="59"/>
-      <c r="AG11" s="47"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="48"/>
+      <c r="AE11" s="53"/>
+      <c r="AF11" s="55"/>
+      <c r="AG11" s="44"/>
     </row>
     <row r="12" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C12" s="36" t="s">
@@ -27946,31 +27943,31 @@
       <c r="D12" s="5">
         <v>978667.67</v>
       </c>
-      <c r="I12" s="54"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="52"/>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="59"/>
-      <c r="AG12" s="47"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="48"/>
+      <c r="AE12" s="53"/>
+      <c r="AF12" s="55"/>
+      <c r="AG12" s="44"/>
     </row>
     <row r="13" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C13" s="36" t="s">
@@ -27979,31 +27976,31 @@
       <c r="D13" s="5">
         <v>2073020.7599999998</v>
       </c>
-      <c r="I13" s="54"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="52"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="52"/>
-      <c r="AC13" s="52"/>
-      <c r="AD13" s="52"/>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="47"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="48"/>
+      <c r="AE13" s="53"/>
+      <c r="AF13" s="55"/>
+      <c r="AG13" s="44"/>
     </row>
     <row r="14" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C14" s="36" t="s">
@@ -28012,116 +28009,116 @@
       <c r="D14" s="5">
         <v>10102026.16</v>
       </c>
-      <c r="I14" s="54"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="52"/>
-      <c r="AA14" s="52"/>
-      <c r="AB14" s="52"/>
-      <c r="AC14" s="52"/>
-      <c r="AD14" s="52"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="59"/>
-      <c r="AG14" s="47"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="48"/>
+      <c r="AE14" s="53"/>
+      <c r="AF14" s="55"/>
+      <c r="AG14" s="44"/>
     </row>
     <row r="15" spans="3:33" x14ac:dyDescent="0.25">
       <c r="D15" s="37">
         <f>GETPIVOTDATA("Stock Value(R$)",$C$6)</f>
         <v>10102026.16</v>
       </c>
-      <c r="I15" s="54"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="52"/>
-      <c r="AC15" s="52"/>
-      <c r="AD15" s="52"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="59"/>
-      <c r="AG15" s="47"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="48"/>
+      <c r="AD15" s="48"/>
+      <c r="AE15" s="53"/>
+      <c r="AF15" s="55"/>
+      <c r="AG15" s="44"/>
     </row>
     <row r="16" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="I16" s="54"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="52"/>
-      <c r="X16" s="52"/>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="52"/>
-      <c r="AA16" s="52"/>
-      <c r="AB16" s="52"/>
-      <c r="AC16" s="52"/>
-      <c r="AD16" s="52"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="59"/>
-      <c r="AG16" s="47"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="48"/>
+      <c r="AE16" s="53"/>
+      <c r="AF16" s="55"/>
+      <c r="AG16" s="44"/>
     </row>
     <row r="17" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="I17" s="54"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="52"/>
-      <c r="AB17" s="52"/>
-      <c r="AC17" s="52"/>
-      <c r="AD17" s="52"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="59"/>
-      <c r="AG17" s="47"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="48"/>
+      <c r="AE17" s="53"/>
+      <c r="AF17" s="55"/>
+      <c r="AG17" s="44"/>
     </row>
     <row r="18" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C18" s="35" t="s">
@@ -28130,398 +28127,398 @@
       <c r="D18" t="s">
         <v>197</v>
       </c>
-      <c r="I18" s="54"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="52"/>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="52"/>
-      <c r="Z18" s="52"/>
-      <c r="AA18" s="52"/>
-      <c r="AB18" s="52"/>
-      <c r="AC18" s="52"/>
-      <c r="AD18" s="52"/>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="59"/>
-      <c r="AG18" s="47"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="48"/>
+      <c r="AC18" s="48"/>
+      <c r="AD18" s="48"/>
+      <c r="AE18" s="53"/>
+      <c r="AF18" s="55"/>
+      <c r="AG18" s="44"/>
     </row>
     <row r="19" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C19" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="63">
+      <c r="D19">
         <v>20</v>
       </c>
-      <c r="I19" s="54"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="52"/>
-      <c r="W19" s="52"/>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="52"/>
-      <c r="AA19" s="52"/>
-      <c r="AB19" s="52"/>
-      <c r="AC19" s="52"/>
-      <c r="AD19" s="52"/>
-      <c r="AE19" s="57"/>
-      <c r="AF19" s="59"/>
-      <c r="AG19" s="47"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="48"/>
+      <c r="AE19" s="53"/>
+      <c r="AF19" s="55"/>
+      <c r="AG19" s="44"/>
     </row>
     <row r="20" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C20" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="D20" s="63">
+      <c r="D20">
         <v>19</v>
       </c>
-      <c r="I20" s="54"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="52"/>
-      <c r="AD20" s="52"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="59"/>
-      <c r="AG20" s="47"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="48"/>
+      <c r="AE20" s="53"/>
+      <c r="AF20" s="55"/>
+      <c r="AG20" s="44"/>
     </row>
     <row r="21" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C21" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="D21" s="63">
+      <c r="D21">
         <v>14</v>
       </c>
-      <c r="I21" s="54"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="52"/>
-      <c r="AD21" s="52"/>
-      <c r="AE21" s="57"/>
-      <c r="AF21" s="59"/>
-      <c r="AG21" s="47"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="53"/>
+      <c r="AF21" s="55"/>
+      <c r="AG21" s="44"/>
     </row>
     <row r="22" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C22" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="D22" s="63">
+      <c r="D22">
         <v>16</v>
       </c>
-      <c r="I22" s="54"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="52"/>
-      <c r="X22" s="52"/>
-      <c r="Y22" s="52"/>
-      <c r="Z22" s="52"/>
-      <c r="AA22" s="52"/>
-      <c r="AB22" s="52"/>
-      <c r="AC22" s="52"/>
-      <c r="AD22" s="52"/>
-      <c r="AE22" s="57"/>
-      <c r="AF22" s="59"/>
-      <c r="AG22" s="47"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="48"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="48"/>
+      <c r="AD22" s="48"/>
+      <c r="AE22" s="53"/>
+      <c r="AF22" s="55"/>
+      <c r="AG22" s="44"/>
     </row>
     <row r="23" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C23" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23">
         <v>17</v>
       </c>
-      <c r="I23" s="54"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="52"/>
-      <c r="AB23" s="52"/>
-      <c r="AC23" s="52"/>
-      <c r="AD23" s="52"/>
-      <c r="AE23" s="57"/>
-      <c r="AF23" s="59"/>
-      <c r="AG23" s="47"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="48"/>
+      <c r="AB23" s="48"/>
+      <c r="AC23" s="48"/>
+      <c r="AD23" s="48"/>
+      <c r="AE23" s="53"/>
+      <c r="AF23" s="55"/>
+      <c r="AG23" s="44"/>
     </row>
     <row r="24" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C24" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="D24" s="63">
+      <c r="D24">
         <v>16</v>
       </c>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="52"/>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="52"/>
-      <c r="AA24" s="52"/>
-      <c r="AB24" s="52"/>
-      <c r="AC24" s="52"/>
-      <c r="AD24" s="52"/>
-      <c r="AE24" s="57"/>
-      <c r="AF24" s="59"/>
-      <c r="AG24" s="47"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="48"/>
+      <c r="AB24" s="48"/>
+      <c r="AC24" s="48"/>
+      <c r="AD24" s="48"/>
+      <c r="AE24" s="53"/>
+      <c r="AF24" s="55"/>
+      <c r="AG24" s="44"/>
     </row>
     <row r="25" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C25" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="D25" s="63">
+      <c r="D25">
         <v>18</v>
       </c>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="52"/>
-      <c r="AD25" s="52"/>
-      <c r="AE25" s="57"/>
-      <c r="AF25" s="59"/>
-      <c r="AG25" s="47"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="48"/>
+      <c r="AB25" s="48"/>
+      <c r="AC25" s="48"/>
+      <c r="AD25" s="48"/>
+      <c r="AE25" s="53"/>
+      <c r="AF25" s="55"/>
+      <c r="AG25" s="44"/>
     </row>
     <row r="26" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C26" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="D26" s="63">
+      <c r="D26">
         <v>120</v>
       </c>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
-      <c r="Y26" s="52"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="52"/>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="52"/>
-      <c r="AD26" s="52"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="59"/>
-      <c r="AG26" s="47"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="48"/>
+      <c r="AB26" s="48"/>
+      <c r="AC26" s="48"/>
+      <c r="AD26" s="48"/>
+      <c r="AE26" s="53"/>
+      <c r="AF26" s="55"/>
+      <c r="AG26" s="44"/>
     </row>
     <row r="27" spans="3:33" x14ac:dyDescent="0.25">
       <c r="D27">
         <f>GETPIVOTDATA("SKU",$C$18)</f>
         <v>120</v>
       </c>
-      <c r="F27" s="47"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="52"/>
-      <c r="Z27" s="52"/>
-      <c r="AA27" s="52"/>
-      <c r="AB27" s="52"/>
-      <c r="AC27" s="52"/>
-      <c r="AD27" s="52"/>
-      <c r="AE27" s="57"/>
-      <c r="AF27" s="59"/>
-      <c r="AG27" s="47"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="48"/>
+      <c r="Y27" s="48"/>
+      <c r="Z27" s="48"/>
+      <c r="AA27" s="48"/>
+      <c r="AB27" s="48"/>
+      <c r="AC27" s="48"/>
+      <c r="AD27" s="48"/>
+      <c r="AE27" s="53"/>
+      <c r="AF27" s="55"/>
+      <c r="AG27" s="44"/>
     </row>
     <row r="28" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="F28" s="47"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="52"/>
-      <c r="Y28" s="52"/>
-      <c r="Z28" s="52"/>
-      <c r="AA28" s="52"/>
-      <c r="AB28" s="52"/>
-      <c r="AC28" s="52"/>
-      <c r="AD28" s="52"/>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="59"/>
-      <c r="AG28" s="47"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="48"/>
+      <c r="Z28" s="48"/>
+      <c r="AA28" s="48"/>
+      <c r="AB28" s="48"/>
+      <c r="AC28" s="48"/>
+      <c r="AD28" s="48"/>
+      <c r="AE28" s="53"/>
+      <c r="AF28" s="55"/>
+      <c r="AG28" s="44"/>
     </row>
     <row r="29" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="F29" s="47"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
-      <c r="Y29" s="52"/>
-      <c r="Z29" s="52"/>
-      <c r="AA29" s="52"/>
-      <c r="AB29" s="52"/>
-      <c r="AC29" s="52"/>
-      <c r="AD29" s="52"/>
-      <c r="AE29" s="57"/>
-      <c r="AF29" s="59"/>
-      <c r="AG29" s="47"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="48"/>
+      <c r="AD29" s="48"/>
+      <c r="AE29" s="53"/>
+      <c r="AF29" s="55"/>
+      <c r="AG29" s="44"/>
     </row>
     <row r="30" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C30" s="35" t="s">
@@ -28530,34 +28527,34 @@
       <c r="D30" t="s">
         <v>198</v>
       </c>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
-      <c r="Y30" s="52"/>
-      <c r="Z30" s="52"/>
-      <c r="AA30" s="52"/>
-      <c r="AB30" s="52"/>
-      <c r="AC30" s="52"/>
-      <c r="AD30" s="52"/>
-      <c r="AE30" s="57"/>
-      <c r="AF30" s="59"/>
-      <c r="AG30" s="47"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="48"/>
+      <c r="Z30" s="48"/>
+      <c r="AA30" s="48"/>
+      <c r="AB30" s="48"/>
+      <c r="AC30" s="48"/>
+      <c r="AD30" s="48"/>
+      <c r="AE30" s="53"/>
+      <c r="AF30" s="55"/>
+      <c r="AG30" s="44"/>
     </row>
     <row r="31" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C31" s="36" t="s">
@@ -28566,34 +28563,34 @@
       <c r="D31" s="5">
         <v>561.26199999999994</v>
       </c>
-      <c r="F31" s="47"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="52"/>
-      <c r="AA31" s="52"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="52"/>
-      <c r="AD31" s="52"/>
-      <c r="AE31" s="57"/>
-      <c r="AF31" s="59"/>
-      <c r="AG31" s="47"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="48"/>
+      <c r="Y31" s="48"/>
+      <c r="Z31" s="48"/>
+      <c r="AA31" s="48"/>
+      <c r="AB31" s="48"/>
+      <c r="AC31" s="48"/>
+      <c r="AD31" s="48"/>
+      <c r="AE31" s="53"/>
+      <c r="AF31" s="55"/>
+      <c r="AG31" s="44"/>
     </row>
     <row r="32" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C32" s="36" t="s">
@@ -28602,34 +28599,34 @@
       <c r="D32" s="5">
         <v>457.1184210526315</v>
       </c>
-      <c r="F32" s="47"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="52"/>
-      <c r="Y32" s="52"/>
-      <c r="Z32" s="52"/>
-      <c r="AA32" s="52"/>
-      <c r="AB32" s="52"/>
-      <c r="AC32" s="52"/>
-      <c r="AD32" s="52"/>
-      <c r="AE32" s="57"/>
-      <c r="AF32" s="59"/>
-      <c r="AG32" s="47"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="48"/>
+      <c r="AB32" s="48"/>
+      <c r="AC32" s="48"/>
+      <c r="AD32" s="48"/>
+      <c r="AE32" s="53"/>
+      <c r="AF32" s="55"/>
+      <c r="AG32" s="44"/>
     </row>
     <row r="33" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C33" s="36" t="s">
@@ -28638,34 +28635,34 @@
       <c r="D33" s="5">
         <v>476.05</v>
       </c>
-      <c r="F33" s="47"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="52"/>
-      <c r="Z33" s="52"/>
-      <c r="AA33" s="52"/>
-      <c r="AB33" s="52"/>
-      <c r="AC33" s="52"/>
-      <c r="AD33" s="52"/>
-      <c r="AE33" s="57"/>
-      <c r="AF33" s="59"/>
-      <c r="AG33" s="47"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="48"/>
+      <c r="X33" s="48"/>
+      <c r="Y33" s="48"/>
+      <c r="Z33" s="48"/>
+      <c r="AA33" s="48"/>
+      <c r="AB33" s="48"/>
+      <c r="AC33" s="48"/>
+      <c r="AD33" s="48"/>
+      <c r="AE33" s="53"/>
+      <c r="AF33" s="55"/>
+      <c r="AG33" s="44"/>
     </row>
     <row r="34" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C34" s="36" t="s">
@@ -28674,34 +28671,34 @@
       <c r="D34" s="5">
         <v>573.39</v>
       </c>
-      <c r="F34" s="47"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="52"/>
-      <c r="U34" s="52"/>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52"/>
-      <c r="X34" s="52"/>
-      <c r="Y34" s="52"/>
-      <c r="Z34" s="52"/>
-      <c r="AA34" s="52"/>
-      <c r="AB34" s="52"/>
-      <c r="AC34" s="52"/>
-      <c r="AD34" s="52"/>
-      <c r="AE34" s="57"/>
-      <c r="AF34" s="59"/>
-      <c r="AG34" s="47"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="48"/>
+      <c r="V34" s="48"/>
+      <c r="W34" s="48"/>
+      <c r="X34" s="48"/>
+      <c r="Y34" s="48"/>
+      <c r="Z34" s="48"/>
+      <c r="AA34" s="48"/>
+      <c r="AB34" s="48"/>
+      <c r="AC34" s="48"/>
+      <c r="AD34" s="48"/>
+      <c r="AE34" s="53"/>
+      <c r="AF34" s="55"/>
+      <c r="AG34" s="44"/>
     </row>
     <row r="35" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C35" s="36" t="s">
@@ -28710,34 +28707,34 @@
       <c r="D35" s="5">
         <v>519.15117647058821</v>
       </c>
-      <c r="F35" s="47"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="52"/>
-      <c r="Z35" s="52"/>
-      <c r="AA35" s="52"/>
-      <c r="AB35" s="52"/>
-      <c r="AC35" s="52"/>
-      <c r="AD35" s="52"/>
-      <c r="AE35" s="57"/>
-      <c r="AF35" s="59"/>
-      <c r="AG35" s="47"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="48"/>
+      <c r="W35" s="48"/>
+      <c r="X35" s="48"/>
+      <c r="Y35" s="48"/>
+      <c r="Z35" s="48"/>
+      <c r="AA35" s="48"/>
+      <c r="AB35" s="48"/>
+      <c r="AC35" s="48"/>
+      <c r="AD35" s="48"/>
+      <c r="AE35" s="53"/>
+      <c r="AF35" s="55"/>
+      <c r="AG35" s="44"/>
     </row>
     <row r="36" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C36" s="36" t="s">
@@ -28746,34 +28743,34 @@
       <c r="D36" s="5">
         <v>563.89</v>
       </c>
-      <c r="F36" s="47"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="52"/>
-      <c r="U36" s="52"/>
-      <c r="V36" s="52"/>
-      <c r="W36" s="52"/>
-      <c r="X36" s="52"/>
-      <c r="Y36" s="52"/>
-      <c r="Z36" s="52"/>
-      <c r="AA36" s="52"/>
-      <c r="AB36" s="52"/>
-      <c r="AC36" s="52"/>
-      <c r="AD36" s="52"/>
-      <c r="AE36" s="57"/>
-      <c r="AF36" s="59"/>
-      <c r="AG36" s="47"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="48"/>
+      <c r="U36" s="48"/>
+      <c r="V36" s="48"/>
+      <c r="W36" s="48"/>
+      <c r="X36" s="48"/>
+      <c r="Y36" s="48"/>
+      <c r="Z36" s="48"/>
+      <c r="AA36" s="48"/>
+      <c r="AB36" s="48"/>
+      <c r="AC36" s="48"/>
+      <c r="AD36" s="48"/>
+      <c r="AE36" s="53"/>
+      <c r="AF36" s="55"/>
+      <c r="AG36" s="44"/>
     </row>
     <row r="37" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C37" s="36" t="s">
@@ -28782,34 +28779,34 @@
       <c r="D37" s="5">
         <v>586.82500000000005</v>
       </c>
-      <c r="F37" s="47"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="52"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="52"/>
-      <c r="U37" s="52"/>
-      <c r="V37" s="52"/>
-      <c r="W37" s="52"/>
-      <c r="X37" s="52"/>
-      <c r="Y37" s="52"/>
-      <c r="Z37" s="52"/>
-      <c r="AA37" s="52"/>
-      <c r="AB37" s="52"/>
-      <c r="AC37" s="52"/>
-      <c r="AD37" s="52"/>
-      <c r="AE37" s="57"/>
-      <c r="AF37" s="59"/>
-      <c r="AG37" s="47"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="48"/>
+      <c r="W37" s="48"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="48"/>
+      <c r="Z37" s="48"/>
+      <c r="AA37" s="48"/>
+      <c r="AB37" s="48"/>
+      <c r="AC37" s="48"/>
+      <c r="AD37" s="48"/>
+      <c r="AE37" s="53"/>
+      <c r="AF37" s="55"/>
+      <c r="AG37" s="44"/>
     </row>
     <row r="38" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C38" s="36" t="s">
@@ -28818,128 +28815,128 @@
       <c r="D38" s="5">
         <v>534.66741666666667</v>
       </c>
-      <c r="F38" s="47"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="52"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="52"/>
-      <c r="U38" s="52"/>
-      <c r="V38" s="52"/>
-      <c r="W38" s="52"/>
-      <c r="X38" s="52"/>
-      <c r="Y38" s="52"/>
-      <c r="Z38" s="52"/>
-      <c r="AA38" s="52"/>
-      <c r="AB38" s="52"/>
-      <c r="AC38" s="52"/>
-      <c r="AD38" s="52"/>
-      <c r="AE38" s="57"/>
-      <c r="AF38" s="59"/>
-      <c r="AG38" s="47"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="48"/>
+      <c r="W38" s="48"/>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="48"/>
+      <c r="Z38" s="48"/>
+      <c r="AA38" s="48"/>
+      <c r="AB38" s="48"/>
+      <c r="AC38" s="48"/>
+      <c r="AD38" s="48"/>
+      <c r="AE38" s="53"/>
+      <c r="AF38" s="55"/>
+      <c r="AG38" s="44"/>
     </row>
     <row r="39" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="D39" s="40">
+      <c r="D39" s="38">
         <f>GETPIVOTDATA("Price",$C$30)</f>
         <v>534.66741666666667</v>
       </c>
-      <c r="F39" s="47"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
-      <c r="Y39" s="52"/>
-      <c r="Z39" s="52"/>
-      <c r="AA39" s="52"/>
-      <c r="AB39" s="52"/>
-      <c r="AC39" s="52"/>
-      <c r="AD39" s="52"/>
-      <c r="AE39" s="57"/>
-      <c r="AF39" s="59"/>
-      <c r="AG39" s="47"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="48"/>
+      <c r="V39" s="48"/>
+      <c r="W39" s="48"/>
+      <c r="X39" s="48"/>
+      <c r="Y39" s="48"/>
+      <c r="Z39" s="48"/>
+      <c r="AA39" s="48"/>
+      <c r="AB39" s="48"/>
+      <c r="AC39" s="48"/>
+      <c r="AD39" s="48"/>
+      <c r="AE39" s="53"/>
+      <c r="AF39" s="55"/>
+      <c r="AG39" s="44"/>
     </row>
     <row r="40" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="F40" s="47"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="52"/>
-      <c r="U40" s="52"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="52"/>
-      <c r="X40" s="52"/>
-      <c r="Y40" s="52"/>
-      <c r="Z40" s="52"/>
-      <c r="AA40" s="52"/>
-      <c r="AB40" s="52"/>
-      <c r="AC40" s="52"/>
-      <c r="AD40" s="52"/>
-      <c r="AE40" s="57"/>
-      <c r="AF40" s="59"/>
-      <c r="AG40" s="47"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="48"/>
+      <c r="U40" s="48"/>
+      <c r="V40" s="48"/>
+      <c r="W40" s="48"/>
+      <c r="X40" s="48"/>
+      <c r="Y40" s="48"/>
+      <c r="Z40" s="48"/>
+      <c r="AA40" s="48"/>
+      <c r="AB40" s="48"/>
+      <c r="AC40" s="48"/>
+      <c r="AD40" s="48"/>
+      <c r="AE40" s="53"/>
+      <c r="AF40" s="55"/>
+      <c r="AG40" s="44"/>
     </row>
     <row r="41" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="F41" s="47"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="52"/>
-      <c r="S41" s="52"/>
-      <c r="T41" s="52"/>
-      <c r="U41" s="52"/>
-      <c r="V41" s="52"/>
-      <c r="W41" s="52"/>
-      <c r="X41" s="52"/>
-      <c r="Y41" s="52"/>
-      <c r="Z41" s="52"/>
-      <c r="AA41" s="52"/>
-      <c r="AB41" s="52"/>
-      <c r="AC41" s="52"/>
-      <c r="AD41" s="52"/>
-      <c r="AE41" s="57"/>
-      <c r="AF41" s="59"/>
-      <c r="AG41" s="47"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="48"/>
+      <c r="T41" s="48"/>
+      <c r="U41" s="48"/>
+      <c r="V41" s="48"/>
+      <c r="W41" s="48"/>
+      <c r="X41" s="48"/>
+      <c r="Y41" s="48"/>
+      <c r="Z41" s="48"/>
+      <c r="AA41" s="48"/>
+      <c r="AB41" s="48"/>
+      <c r="AC41" s="48"/>
+      <c r="AD41" s="48"/>
+      <c r="AE41" s="53"/>
+      <c r="AF41" s="55"/>
+      <c r="AG41" s="44"/>
     </row>
     <row r="42" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C42" s="35" t="s">
@@ -28948,34 +28945,34 @@
       <c r="D42" t="s">
         <v>199</v>
       </c>
-      <c r="F42" s="47"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="52"/>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="52"/>
-      <c r="S42" s="52"/>
-      <c r="T42" s="52"/>
-      <c r="U42" s="52"/>
-      <c r="V42" s="52"/>
-      <c r="W42" s="52"/>
-      <c r="X42" s="52"/>
-      <c r="Y42" s="52"/>
-      <c r="Z42" s="52"/>
-      <c r="AA42" s="52"/>
-      <c r="AB42" s="52"/>
-      <c r="AC42" s="52"/>
-      <c r="AD42" s="52"/>
-      <c r="AE42" s="57"/>
-      <c r="AF42" s="59"/>
-      <c r="AG42" s="47"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="48"/>
+      <c r="U42" s="48"/>
+      <c r="V42" s="48"/>
+      <c r="W42" s="48"/>
+      <c r="X42" s="48"/>
+      <c r="Y42" s="48"/>
+      <c r="Z42" s="48"/>
+      <c r="AA42" s="48"/>
+      <c r="AB42" s="48"/>
+      <c r="AC42" s="48"/>
+      <c r="AD42" s="48"/>
+      <c r="AE42" s="53"/>
+      <c r="AF42" s="55"/>
+      <c r="AG42" s="44"/>
     </row>
     <row r="43" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C43" s="36" t="s">
@@ -28984,34 +28981,34 @@
       <c r="D43" s="37">
         <v>3674</v>
       </c>
-      <c r="F43" s="47"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="52"/>
-      <c r="M43" s="52"/>
-      <c r="N43" s="52"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="52"/>
-      <c r="Q43" s="52"/>
-      <c r="R43" s="52"/>
-      <c r="S43" s="52"/>
-      <c r="T43" s="52"/>
-      <c r="U43" s="52"/>
-      <c r="V43" s="52"/>
-      <c r="W43" s="52"/>
-      <c r="X43" s="52"/>
-      <c r="Y43" s="52"/>
-      <c r="Z43" s="52"/>
-      <c r="AA43" s="52"/>
-      <c r="AB43" s="52"/>
-      <c r="AC43" s="52"/>
-      <c r="AD43" s="52"/>
-      <c r="AE43" s="57"/>
-      <c r="AF43" s="59"/>
-      <c r="AG43" s="47"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="48"/>
+      <c r="P43" s="48"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="48"/>
+      <c r="S43" s="48"/>
+      <c r="T43" s="48"/>
+      <c r="U43" s="48"/>
+      <c r="V43" s="48"/>
+      <c r="W43" s="48"/>
+      <c r="X43" s="48"/>
+      <c r="Y43" s="48"/>
+      <c r="Z43" s="48"/>
+      <c r="AA43" s="48"/>
+      <c r="AB43" s="48"/>
+      <c r="AC43" s="48"/>
+      <c r="AD43" s="48"/>
+      <c r="AE43" s="53"/>
+      <c r="AF43" s="55"/>
+      <c r="AG43" s="44"/>
     </row>
     <row r="44" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C44" s="36" t="s">
@@ -29020,34 +29017,34 @@
       <c r="D44" s="37">
         <v>3098</v>
       </c>
-      <c r="F44" s="47"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="52"/>
-      <c r="M44" s="52"/>
-      <c r="N44" s="52"/>
-      <c r="O44" s="52"/>
-      <c r="P44" s="52"/>
-      <c r="Q44" s="52"/>
-      <c r="R44" s="52"/>
-      <c r="S44" s="52"/>
-      <c r="T44" s="52"/>
-      <c r="U44" s="52"/>
-      <c r="V44" s="52"/>
-      <c r="W44" s="52"/>
-      <c r="X44" s="52"/>
-      <c r="Y44" s="52"/>
-      <c r="Z44" s="52"/>
-      <c r="AA44" s="52"/>
-      <c r="AB44" s="52"/>
-      <c r="AC44" s="52"/>
-      <c r="AD44" s="52"/>
-      <c r="AE44" s="57"/>
-      <c r="AF44" s="59"/>
-      <c r="AG44" s="47"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="48"/>
+      <c r="P44" s="48"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="48"/>
+      <c r="S44" s="48"/>
+      <c r="T44" s="48"/>
+      <c r="U44" s="48"/>
+      <c r="V44" s="48"/>
+      <c r="W44" s="48"/>
+      <c r="X44" s="48"/>
+      <c r="Y44" s="48"/>
+      <c r="Z44" s="48"/>
+      <c r="AA44" s="48"/>
+      <c r="AB44" s="48"/>
+      <c r="AC44" s="48"/>
+      <c r="AD44" s="48"/>
+      <c r="AE44" s="53"/>
+      <c r="AF44" s="55"/>
+      <c r="AG44" s="44"/>
     </row>
     <row r="45" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C45" s="36" t="s">
@@ -29056,34 +29053,34 @@
       <c r="D45" s="37">
         <v>2239</v>
       </c>
-      <c r="F45" s="47"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="52"/>
-      <c r="M45" s="52"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="52"/>
-      <c r="P45" s="52"/>
-      <c r="Q45" s="52"/>
-      <c r="R45" s="52"/>
-      <c r="S45" s="52"/>
-      <c r="T45" s="52"/>
-      <c r="U45" s="52"/>
-      <c r="V45" s="52"/>
-      <c r="W45" s="52"/>
-      <c r="X45" s="52"/>
-      <c r="Y45" s="52"/>
-      <c r="Z45" s="52"/>
-      <c r="AA45" s="52"/>
-      <c r="AB45" s="52"/>
-      <c r="AC45" s="52"/>
-      <c r="AD45" s="52"/>
-      <c r="AE45" s="57"/>
-      <c r="AF45" s="59"/>
-      <c r="AG45" s="47"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="48"/>
+      <c r="Q45" s="48"/>
+      <c r="R45" s="48"/>
+      <c r="S45" s="48"/>
+      <c r="T45" s="48"/>
+      <c r="U45" s="48"/>
+      <c r="V45" s="48"/>
+      <c r="W45" s="48"/>
+      <c r="X45" s="48"/>
+      <c r="Y45" s="48"/>
+      <c r="Z45" s="48"/>
+      <c r="AA45" s="48"/>
+      <c r="AB45" s="48"/>
+      <c r="AC45" s="48"/>
+      <c r="AD45" s="48"/>
+      <c r="AE45" s="53"/>
+      <c r="AF45" s="55"/>
+      <c r="AG45" s="44"/>
     </row>
     <row r="46" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C46" s="36" t="s">
@@ -29092,34 +29089,34 @@
       <c r="D46" s="37">
         <v>2182</v>
       </c>
-      <c r="F46" s="47"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="52"/>
-      <c r="N46" s="52"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="52"/>
-      <c r="Q46" s="52"/>
-      <c r="R46" s="52"/>
-      <c r="S46" s="52"/>
-      <c r="T46" s="52"/>
-      <c r="U46" s="52"/>
-      <c r="V46" s="52"/>
-      <c r="W46" s="52"/>
-      <c r="X46" s="52"/>
-      <c r="Y46" s="52"/>
-      <c r="Z46" s="52"/>
-      <c r="AA46" s="52"/>
-      <c r="AB46" s="52"/>
-      <c r="AC46" s="52"/>
-      <c r="AD46" s="52"/>
-      <c r="AE46" s="57"/>
-      <c r="AF46" s="59"/>
-      <c r="AG46" s="47"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="48"/>
+      <c r="P46" s="48"/>
+      <c r="Q46" s="48"/>
+      <c r="R46" s="48"/>
+      <c r="S46" s="48"/>
+      <c r="T46" s="48"/>
+      <c r="U46" s="48"/>
+      <c r="V46" s="48"/>
+      <c r="W46" s="48"/>
+      <c r="X46" s="48"/>
+      <c r="Y46" s="48"/>
+      <c r="Z46" s="48"/>
+      <c r="AA46" s="48"/>
+      <c r="AB46" s="48"/>
+      <c r="AC46" s="48"/>
+      <c r="AD46" s="48"/>
+      <c r="AE46" s="53"/>
+      <c r="AF46" s="55"/>
+      <c r="AG46" s="44"/>
     </row>
     <row r="47" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C47" s="36" t="s">
@@ -29128,34 +29125,34 @@
       <c r="D47" s="37">
         <v>2691</v>
       </c>
-      <c r="F47" s="47"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="52"/>
-      <c r="M47" s="52"/>
-      <c r="N47" s="52"/>
-      <c r="O47" s="52"/>
-      <c r="P47" s="52"/>
-      <c r="Q47" s="52"/>
-      <c r="R47" s="52"/>
-      <c r="S47" s="52"/>
-      <c r="T47" s="52"/>
-      <c r="U47" s="52"/>
-      <c r="V47" s="52"/>
-      <c r="W47" s="52"/>
-      <c r="X47" s="52"/>
-      <c r="Y47" s="52"/>
-      <c r="Z47" s="52"/>
-      <c r="AA47" s="52"/>
-      <c r="AB47" s="52"/>
-      <c r="AC47" s="52"/>
-      <c r="AD47" s="52"/>
-      <c r="AE47" s="57"/>
-      <c r="AF47" s="59"/>
-      <c r="AG47" s="47"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="48"/>
+      <c r="Q47" s="48"/>
+      <c r="R47" s="48"/>
+      <c r="S47" s="48"/>
+      <c r="T47" s="48"/>
+      <c r="U47" s="48"/>
+      <c r="V47" s="48"/>
+      <c r="W47" s="48"/>
+      <c r="X47" s="48"/>
+      <c r="Y47" s="48"/>
+      <c r="Z47" s="48"/>
+      <c r="AA47" s="48"/>
+      <c r="AB47" s="48"/>
+      <c r="AC47" s="48"/>
+      <c r="AD47" s="48"/>
+      <c r="AE47" s="53"/>
+      <c r="AF47" s="55"/>
+      <c r="AG47" s="44"/>
     </row>
     <row r="48" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C48" s="36" t="s">
@@ -29164,34 +29161,34 @@
       <c r="D48" s="37">
         <v>2847</v>
       </c>
-      <c r="F48" s="47"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="52"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="52"/>
-      <c r="O48" s="52"/>
-      <c r="P48" s="52"/>
-      <c r="Q48" s="52"/>
-      <c r="R48" s="52"/>
-      <c r="S48" s="52"/>
-      <c r="T48" s="52"/>
-      <c r="U48" s="52"/>
-      <c r="V48" s="52"/>
-      <c r="W48" s="52"/>
-      <c r="X48" s="52"/>
-      <c r="Y48" s="52"/>
-      <c r="Z48" s="52"/>
-      <c r="AA48" s="52"/>
-      <c r="AB48" s="52"/>
-      <c r="AC48" s="52"/>
-      <c r="AD48" s="52"/>
-      <c r="AE48" s="57"/>
-      <c r="AF48" s="59"/>
-      <c r="AG48" s="47"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="48"/>
+      <c r="P48" s="48"/>
+      <c r="Q48" s="48"/>
+      <c r="R48" s="48"/>
+      <c r="S48" s="48"/>
+      <c r="T48" s="48"/>
+      <c r="U48" s="48"/>
+      <c r="V48" s="48"/>
+      <c r="W48" s="48"/>
+      <c r="X48" s="48"/>
+      <c r="Y48" s="48"/>
+      <c r="Z48" s="48"/>
+      <c r="AA48" s="48"/>
+      <c r="AB48" s="48"/>
+      <c r="AC48" s="48"/>
+      <c r="AD48" s="48"/>
+      <c r="AE48" s="53"/>
+      <c r="AF48" s="55"/>
+      <c r="AG48" s="44"/>
     </row>
     <row r="49" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C49" s="36" t="s">
@@ -29200,34 +29197,34 @@
       <c r="D49" s="37">
         <v>3147</v>
       </c>
-      <c r="F49" s="47"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="52"/>
-      <c r="M49" s="52"/>
-      <c r="N49" s="52"/>
-      <c r="O49" s="52"/>
-      <c r="P49" s="52"/>
-      <c r="Q49" s="52"/>
-      <c r="R49" s="52"/>
-      <c r="S49" s="52"/>
-      <c r="T49" s="52"/>
-      <c r="U49" s="52"/>
-      <c r="V49" s="52"/>
-      <c r="W49" s="52"/>
-      <c r="X49" s="52"/>
-      <c r="Y49" s="52"/>
-      <c r="Z49" s="52"/>
-      <c r="AA49" s="52"/>
-      <c r="AB49" s="52"/>
-      <c r="AC49" s="52"/>
-      <c r="AD49" s="52"/>
-      <c r="AE49" s="57"/>
-      <c r="AF49" s="59"/>
-      <c r="AG49" s="47"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="48"/>
+      <c r="P49" s="48"/>
+      <c r="Q49" s="48"/>
+      <c r="R49" s="48"/>
+      <c r="S49" s="48"/>
+      <c r="T49" s="48"/>
+      <c r="U49" s="48"/>
+      <c r="V49" s="48"/>
+      <c r="W49" s="48"/>
+      <c r="X49" s="48"/>
+      <c r="Y49" s="48"/>
+      <c r="Z49" s="48"/>
+      <c r="AA49" s="48"/>
+      <c r="AB49" s="48"/>
+      <c r="AC49" s="48"/>
+      <c r="AD49" s="48"/>
+      <c r="AE49" s="53"/>
+      <c r="AF49" s="55"/>
+      <c r="AG49" s="44"/>
     </row>
     <row r="50" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C50" s="36" t="s">
@@ -29236,217 +29233,217 @@
       <c r="D50" s="37">
         <v>19878</v>
       </c>
-      <c r="F50" s="47"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="52"/>
-      <c r="L50" s="52"/>
-      <c r="M50" s="52"/>
-      <c r="N50" s="52"/>
-      <c r="O50" s="52"/>
-      <c r="P50" s="52"/>
-      <c r="Q50" s="52"/>
-      <c r="R50" s="52"/>
-      <c r="S50" s="52"/>
-      <c r="T50" s="52"/>
-      <c r="U50" s="52"/>
-      <c r="V50" s="52"/>
-      <c r="W50" s="52"/>
-      <c r="X50" s="52"/>
-      <c r="Y50" s="52"/>
-      <c r="Z50" s="52"/>
-      <c r="AA50" s="52"/>
-      <c r="AB50" s="52"/>
-      <c r="AC50" s="52"/>
-      <c r="AD50" s="52"/>
-      <c r="AE50" s="57"/>
-      <c r="AF50" s="59"/>
-      <c r="AG50" s="47"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="48"/>
+      <c r="P50" s="48"/>
+      <c r="Q50" s="48"/>
+      <c r="R50" s="48"/>
+      <c r="S50" s="48"/>
+      <c r="T50" s="48"/>
+      <c r="U50" s="48"/>
+      <c r="V50" s="48"/>
+      <c r="W50" s="48"/>
+      <c r="X50" s="48"/>
+      <c r="Y50" s="48"/>
+      <c r="Z50" s="48"/>
+      <c r="AA50" s="48"/>
+      <c r="AB50" s="48"/>
+      <c r="AC50" s="48"/>
+      <c r="AD50" s="48"/>
+      <c r="AE50" s="53"/>
+      <c r="AF50" s="55"/>
+      <c r="AG50" s="44"/>
     </row>
     <row r="51" spans="3:33" x14ac:dyDescent="0.25">
       <c r="D51" s="37">
         <f>GETPIVOTDATA("Total Out",$C$42)</f>
         <v>19878</v>
       </c>
-      <c r="F51" s="47"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="52"/>
-      <c r="L51" s="52"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="52"/>
-      <c r="Q51" s="52"/>
-      <c r="R51" s="52"/>
-      <c r="S51" s="52"/>
-      <c r="T51" s="52"/>
-      <c r="U51" s="52"/>
-      <c r="V51" s="52"/>
-      <c r="W51" s="52"/>
-      <c r="X51" s="52"/>
-      <c r="Y51" s="52"/>
-      <c r="Z51" s="52"/>
-      <c r="AA51" s="52"/>
-      <c r="AB51" s="52"/>
-      <c r="AC51" s="52"/>
-      <c r="AD51" s="52"/>
-      <c r="AE51" s="57"/>
-      <c r="AF51" s="59"/>
-      <c r="AG51" s="47"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="48"/>
+      <c r="P51" s="48"/>
+      <c r="Q51" s="48"/>
+      <c r="R51" s="48"/>
+      <c r="S51" s="48"/>
+      <c r="T51" s="48"/>
+      <c r="U51" s="48"/>
+      <c r="V51" s="48"/>
+      <c r="W51" s="48"/>
+      <c r="X51" s="48"/>
+      <c r="Y51" s="48"/>
+      <c r="Z51" s="48"/>
+      <c r="AA51" s="48"/>
+      <c r="AB51" s="48"/>
+      <c r="AC51" s="48"/>
+      <c r="AD51" s="48"/>
+      <c r="AE51" s="53"/>
+      <c r="AF51" s="55"/>
+      <c r="AG51" s="44"/>
     </row>
     <row r="52" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="F52" s="47"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="52"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="52"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="52"/>
-      <c r="P52" s="52"/>
-      <c r="Q52" s="52"/>
-      <c r="R52" s="52"/>
-      <c r="S52" s="52"/>
-      <c r="T52" s="52"/>
-      <c r="U52" s="52"/>
-      <c r="V52" s="52"/>
-      <c r="W52" s="52"/>
-      <c r="X52" s="52"/>
-      <c r="Y52" s="52"/>
-      <c r="Z52" s="52"/>
-      <c r="AA52" s="52"/>
-      <c r="AB52" s="52"/>
-      <c r="AC52" s="52"/>
-      <c r="AD52" s="52"/>
-      <c r="AE52" s="57"/>
-      <c r="AF52" s="59"/>
-      <c r="AG52" s="47"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="48"/>
+      <c r="P52" s="48"/>
+      <c r="Q52" s="48"/>
+      <c r="R52" s="48"/>
+      <c r="S52" s="48"/>
+      <c r="T52" s="48"/>
+      <c r="U52" s="48"/>
+      <c r="V52" s="48"/>
+      <c r="W52" s="48"/>
+      <c r="X52" s="48"/>
+      <c r="Y52" s="48"/>
+      <c r="Z52" s="48"/>
+      <c r="AA52" s="48"/>
+      <c r="AB52" s="48"/>
+      <c r="AC52" s="48"/>
+      <c r="AD52" s="48"/>
+      <c r="AE52" s="53"/>
+      <c r="AF52" s="55"/>
+      <c r="AG52" s="44"/>
     </row>
     <row r="53" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="F53" s="47"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="52"/>
-      <c r="N53" s="52"/>
-      <c r="O53" s="52"/>
-      <c r="P53" s="52"/>
-      <c r="Q53" s="52"/>
-      <c r="R53" s="52"/>
-      <c r="S53" s="52"/>
-      <c r="T53" s="52"/>
-      <c r="U53" s="52"/>
-      <c r="V53" s="52"/>
-      <c r="W53" s="52"/>
-      <c r="X53" s="52"/>
-      <c r="Y53" s="52"/>
-      <c r="Z53" s="52"/>
-      <c r="AA53" s="52"/>
-      <c r="AB53" s="52"/>
-      <c r="AC53" s="52"/>
-      <c r="AD53" s="52"/>
-      <c r="AE53" s="57"/>
-      <c r="AF53" s="59"/>
-      <c r="AG53" s="47"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="48"/>
+      <c r="S53" s="48"/>
+      <c r="T53" s="48"/>
+      <c r="U53" s="48"/>
+      <c r="V53" s="48"/>
+      <c r="W53" s="48"/>
+      <c r="X53" s="48"/>
+      <c r="Y53" s="48"/>
+      <c r="Z53" s="48"/>
+      <c r="AA53" s="48"/>
+      <c r="AB53" s="48"/>
+      <c r="AC53" s="48"/>
+      <c r="AD53" s="48"/>
+      <c r="AE53" s="53"/>
+      <c r="AF53" s="55"/>
+      <c r="AG53" s="44"/>
     </row>
     <row r="54" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="F54" s="47"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="52"/>
-      <c r="M54" s="52"/>
-      <c r="N54" s="52"/>
-      <c r="O54" s="52"/>
-      <c r="P54" s="52"/>
-      <c r="Q54" s="52"/>
-      <c r="R54" s="52"/>
-      <c r="S54" s="52"/>
-      <c r="T54" s="52"/>
-      <c r="U54" s="52"/>
-      <c r="V54" s="52"/>
-      <c r="W54" s="52"/>
-      <c r="X54" s="52"/>
-      <c r="Y54" s="52"/>
-      <c r="Z54" s="52"/>
-      <c r="AA54" s="52"/>
-      <c r="AB54" s="52"/>
-      <c r="AC54" s="52"/>
-      <c r="AD54" s="52"/>
-      <c r="AE54" s="57"/>
-      <c r="AF54" s="59"/>
-      <c r="AG54" s="47"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="48"/>
+      <c r="P54" s="48"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="48"/>
+      <c r="S54" s="48"/>
+      <c r="T54" s="48"/>
+      <c r="U54" s="48"/>
+      <c r="V54" s="48"/>
+      <c r="W54" s="48"/>
+      <c r="X54" s="48"/>
+      <c r="Y54" s="48"/>
+      <c r="Z54" s="48"/>
+      <c r="AA54" s="48"/>
+      <c r="AB54" s="48"/>
+      <c r="AC54" s="48"/>
+      <c r="AD54" s="48"/>
+      <c r="AE54" s="53"/>
+      <c r="AF54" s="55"/>
+      <c r="AG54" s="44"/>
     </row>
     <row r="55" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="F55" s="47"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="55"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="56"/>
-      <c r="M55" s="56"/>
-      <c r="N55" s="56"/>
-      <c r="O55" s="56"/>
-      <c r="P55" s="56"/>
-      <c r="Q55" s="56"/>
-      <c r="R55" s="56"/>
-      <c r="S55" s="56"/>
-      <c r="T55" s="56"/>
-      <c r="U55" s="56"/>
-      <c r="V55" s="56"/>
-      <c r="W55" s="56"/>
-      <c r="X55" s="56"/>
-      <c r="Y55" s="56"/>
-      <c r="Z55" s="56"/>
-      <c r="AA55" s="56"/>
-      <c r="AB55" s="56"/>
-      <c r="AC55" s="56"/>
-      <c r="AD55" s="56"/>
-      <c r="AE55" s="58"/>
-      <c r="AF55" s="60"/>
-      <c r="AG55" s="47"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="52"/>
+      <c r="P55" s="52"/>
+      <c r="Q55" s="52"/>
+      <c r="R55" s="52"/>
+      <c r="S55" s="52"/>
+      <c r="T55" s="52"/>
+      <c r="U55" s="52"/>
+      <c r="V55" s="52"/>
+      <c r="W55" s="52"/>
+      <c r="X55" s="52"/>
+      <c r="Y55" s="52"/>
+      <c r="Z55" s="52"/>
+      <c r="AA55" s="52"/>
+      <c r="AB55" s="52"/>
+      <c r="AC55" s="52"/>
+      <c r="AD55" s="52"/>
+      <c r="AE55" s="54"/>
+      <c r="AF55" s="56"/>
+      <c r="AG55" s="44"/>
     </row>
     <row r="56" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="F56" s="47"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="61"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="50"/>
-      <c r="L56" s="50"/>
-      <c r="M56" s="50"/>
-      <c r="N56" s="50"/>
-      <c r="O56" s="50"/>
-      <c r="P56" s="50"/>
-      <c r="Q56" s="50"/>
-      <c r="R56" s="50"/>
-      <c r="S56" s="50"/>
-      <c r="T56" s="50"/>
-      <c r="U56" s="50"/>
-      <c r="V56" s="50"/>
-      <c r="W56" s="50"/>
-      <c r="X56" s="50"/>
-      <c r="Y56" s="50"/>
-      <c r="Z56" s="50"/>
-      <c r="AA56" s="50"/>
-      <c r="AB56" s="50"/>
-      <c r="AC56" s="50"/>
-      <c r="AD56" s="50"/>
-      <c r="AE56" s="50"/>
-      <c r="AF56" s="50"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="47"/>
+      <c r="N56" s="47"/>
+      <c r="O56" s="47"/>
+      <c r="P56" s="47"/>
+      <c r="Q56" s="47"/>
+      <c r="R56" s="47"/>
+      <c r="S56" s="47"/>
+      <c r="T56" s="47"/>
+      <c r="U56" s="47"/>
+      <c r="V56" s="47"/>
+      <c r="W56" s="47"/>
+      <c r="X56" s="47"/>
+      <c r="Y56" s="47"/>
+      <c r="Z56" s="47"/>
+      <c r="AA56" s="47"/>
+      <c r="AB56" s="47"/>
+      <c r="AC56" s="47"/>
+      <c r="AD56" s="47"/>
+      <c r="AE56" s="47"/>
+      <c r="AF56" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -29479,10 +29476,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="60"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/553108eeb9382e97/Documents/1-Estudos/2-DNC/1-Data Science/2-Desafios/Desafio02/Structuring_Company-s_stock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="495" documentId="11_F420B32E487569F1B7B6394F1C56B10202309DC8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB8F579E-43BA-47F2-BBAC-6CCE427E3750}"/>
+  <xr:revisionPtr revIDLastSave="509" documentId="11_F420B32E487569F1B7B6394F1C56B10202309DC8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1BA0387-E2B1-4215-B04B-8A2FEEFBECFC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="In" sheetId="1" r:id="rId1"/>
@@ -1121,7 +1121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1225,6 +1225,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23746,7 +23747,8 @@
   </sheetPr>
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
       <extLst>
         <ext xmlns:xlsdti="http://schemas.microsoft.com/office/spreadsheetml/2023/showDataTypeIcons" uri="{77bfe23e-c014-4d31-8a63-9c772dbf06b6}">
           <xlsdti:showDataTypeIcons visible="0"/>
@@ -27546,7 +27548,7 @@
   </sheetPr>
   <dimension ref="A1:XFC56"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <extLst>
         <ext xmlns:xlsdti="http://schemas.microsoft.com/office/spreadsheetml/2023/showDataTypeIcons" uri="{77bfe23e-c014-4d31-8a63-9c772dbf06b6}">
           <xlsdti:showDataTypeIcons visible="0"/>
@@ -28157,7 +28159,7 @@
       <c r="C19" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="61">
         <v>20</v>
       </c>
       <c r="I19" s="50"/>
@@ -28190,7 +28192,7 @@
       <c r="C20" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="61">
         <v>19</v>
       </c>
       <c r="I20" s="50"/>
@@ -28223,7 +28225,7 @@
       <c r="C21" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="61">
         <v>14</v>
       </c>
       <c r="I21" s="50"/>
@@ -28256,7 +28258,7 @@
       <c r="C22" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="61">
         <v>16</v>
       </c>
       <c r="I22" s="50"/>
@@ -28289,7 +28291,7 @@
       <c r="C23" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="61">
         <v>17</v>
       </c>
       <c r="I23" s="50"/>
@@ -28322,7 +28324,7 @@
       <c r="C24" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="61">
         <v>16</v>
       </c>
       <c r="F24" s="44"/>
@@ -28358,7 +28360,7 @@
       <c r="C25" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="61">
         <v>18</v>
       </c>
       <c r="F25" s="44"/>
@@ -28394,7 +28396,7 @@
       <c r="C26" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="61">
         <v>120</v>
       </c>
       <c r="F26" s="44"/>
